--- a/data/NDCdata_As12Jun2024_Upd29Jul2024_v2_othercountries.xlsx
+++ b/data/NDCdata_As12Jun2024_Upd29Jul2024_v2_othercountries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NDC-work\Approach_v2_June2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktibrewa\Documents\GitHub\demo01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D59AD27-67C2-49B9-B389-AD73DEF86A3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB548CC-C180-4524-B447-D6B5B5035ED6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19392" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4236" uniqueCount="457">
   <si>
     <t>Notes</t>
   </si>
@@ -10039,27 +10039,7 @@
     <cellStyle name="Гиперссылка 4" xfId="372" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
     <cellStyle name="Обычный_2++" xfId="32" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -10135,19 +10115,19 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="NDCs-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
     <tableStyle name="NDCs-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
     <tableStyle name="NDCs-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -10364,13 +10344,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DA975E-BDEC-4C1E-83C8-A4ABE97F34FE}">
-  <dimension ref="A1:EO185"/>
+  <dimension ref="A1:EN185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BR4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AE114" sqref="AE114:EO114"/>
+      <selection pane="bottomRight" activeCell="BT5" sqref="BT5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10378,11 +10358,11 @@
     <col min="1" max="1" width="22.69921875" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.59765625" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="15.69921875" style="21" customWidth="1"/>
-    <col min="13" max="145" width="18" style="21" bestFit="1" customWidth="1"/>
-    <col min="146" max="16384" width="8.796875" style="21"/>
+    <col min="13" max="144" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="145" max="16384" width="8.796875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>132</v>
       </c>
@@ -10597,229 +10577,226 @@
         <v>373</v>
       </c>
       <c r="BT1" s="39" t="s">
-        <v>254</v>
+        <v>374</v>
       </c>
       <c r="BU1" s="39" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BV1" s="39" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BW1" s="39" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BX1" s="39" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BY1" s="39" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BZ1" s="39" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="CA1" s="39" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="CB1" s="39" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="CC1" s="39" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="CD1" s="39" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="CE1" s="39" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="CF1" s="39" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="CG1" s="39" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="CH1" s="39" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="CI1" s="39" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="CJ1" s="39" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="CK1" s="39" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="CL1" s="39" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="CM1" s="39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="CN1" s="39" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="CO1" s="39" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="CP1" s="39" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="CQ1" s="39" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="CR1" s="39" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="CS1" s="39" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="CT1" s="39" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="CU1" s="39" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="CV1" s="39" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="CW1" s="39" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="CX1" s="39" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="CY1" s="39" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="CZ1" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="DA1" s="39" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="DB1" s="39" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="DC1" s="39" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="DD1" s="39" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="DE1" s="39" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="DF1" s="39" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="DG1" s="39" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DH1" s="39" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="DI1" s="39" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="DJ1" s="39" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="DK1" s="39" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="DL1" s="39" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="DM1" s="39" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="DN1" s="39" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="DO1" s="39" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="DP1" s="39" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="DQ1" s="39" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="DR1" s="39" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="DS1" s="39" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DT1" s="39" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="DU1" s="39" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="DV1" s="39" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="DW1" s="39" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="DX1" s="39" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="DY1" s="39" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="DZ1" s="39" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="EA1" s="39" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="EB1" s="39" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="EC1" s="39" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="ED1" s="39" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="EE1" s="39" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="EF1" s="39" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="EG1" s="39" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="EH1" s="39" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="EI1" s="39" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="EJ1" s="39" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="EK1" s="39" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="EL1" s="39" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EM1" s="39" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EN1" s="39" t="s">
-        <v>445</v>
-      </c>
-      <c r="EO1" s="39" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="8" t="s">
         <v>22</v>
@@ -10966,9 +10943,8 @@
       <c r="EL2" s="39"/>
       <c r="EM2" s="39"/>
       <c r="EN2" s="39"/>
-      <c r="EO2" s="39"/>
     </row>
-    <row r="3" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -11171,9 +11147,8 @@
       <c r="EL3" s="39"/>
       <c r="EM3" s="39"/>
       <c r="EN3" s="39"/>
-      <c r="EO3" s="39"/>
     </row>
-    <row r="4" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>177</v>
       </c>
@@ -11376,9 +11351,8 @@
       <c r="EL4" s="6"/>
       <c r="EM4" s="6"/>
       <c r="EN4" s="6"/>
-      <c r="EO4" s="6"/>
     </row>
-    <row r="5" spans="1:145" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:144" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="27" t="s">
         <v>17</v>
@@ -11581,9 +11555,8 @@
       <c r="EL5" s="7"/>
       <c r="EM5" s="7"/>
       <c r="EN5" s="7"/>
-      <c r="EO5" s="7"/>
     </row>
-    <row r="6" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="9" t="s">
         <v>18</v>
@@ -11784,9 +11757,8 @@
       <c r="EL6" s="5"/>
       <c r="EM6" s="5"/>
       <c r="EN6" s="5"/>
-      <c r="EO6" s="5"/>
     </row>
-    <row r="7" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>178</v>
       </c>
@@ -12049,10 +12021,10 @@
         <v>6</v>
       </c>
       <c r="CJ7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK7" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="CK7" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="CL7" s="5" t="s">
         <v>6</v>
@@ -12088,19 +12060,19 @@
         <v>6</v>
       </c>
       <c r="CW7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CX7" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="CX7" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="CY7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="CZ7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DA7" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="DA7" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="DB7" s="5" t="s">
         <v>6</v>
@@ -12154,19 +12126,19 @@
         <v>6</v>
       </c>
       <c r="DS7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT7" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="DT7" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="DU7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="DV7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DW7" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="DW7" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="DX7" s="5" t="s">
         <v>6</v>
@@ -12219,11 +12191,8 @@
       <c r="EN7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="EO7" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="8" spans="1:145" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:144" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="11" t="s">
         <v>19</v>
@@ -12475,10 +12444,10 @@
       <c r="CI8" s="34">
         <v>2030</v>
       </c>
-      <c r="CJ8" s="34">
+      <c r="CJ8" s="34"/>
+      <c r="CK8" s="34">
         <v>2030</v>
       </c>
-      <c r="CK8" s="34"/>
       <c r="CL8" s="34">
         <v>2030</v>
       </c>
@@ -12512,17 +12481,17 @@
       <c r="CV8" s="34">
         <v>2030</v>
       </c>
-      <c r="CW8" s="34">
+      <c r="CW8" s="34"/>
+      <c r="CX8" s="34">
         <v>2030</v>
       </c>
-      <c r="CX8" s="34"/>
       <c r="CY8" s="34">
         <v>2030</v>
       </c>
-      <c r="CZ8" s="34">
+      <c r="CZ8" s="34"/>
+      <c r="DA8" s="34">
         <v>2030</v>
       </c>
-      <c r="DA8" s="34"/>
       <c r="DB8" s="34">
         <v>2030</v>
       </c>
@@ -12574,17 +12543,17 @@
       <c r="DR8" s="34">
         <v>2030</v>
       </c>
-      <c r="DS8" s="34">
+      <c r="DS8" s="34"/>
+      <c r="DT8" s="34">
         <v>2030</v>
       </c>
-      <c r="DT8" s="34"/>
       <c r="DU8" s="34">
         <v>2030</v>
       </c>
-      <c r="DV8" s="34">
+      <c r="DV8" s="34"/>
+      <c r="DW8" s="34">
         <v>2030</v>
       </c>
-      <c r="DW8" s="34"/>
       <c r="DX8" s="34">
         <v>2030</v>
       </c>
@@ -12636,11 +12605,8 @@
       <c r="EN8" s="34">
         <v>2030</v>
       </c>
-      <c r="EO8" s="34">
-        <v>2030</v>
-      </c>
     </row>
-    <row r="9" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="10" t="s">
         <v>20</v>
@@ -12887,15 +12853,15 @@
         <v>8</v>
       </c>
       <c r="CH9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="CI9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CI9" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="CJ9" s="5" t="s">
+      <c r="CJ9" s="5"/>
+      <c r="CK9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CK9" s="5"/>
       <c r="CL9" s="5" t="s">
         <v>8</v>
       </c>
@@ -12929,17 +12895,17 @@
       <c r="CV9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CW9" s="5" t="s">
+      <c r="CW9" s="5"/>
+      <c r="CX9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CX9" s="5"/>
       <c r="CY9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CZ9" s="5" t="s">
+      <c r="CZ9" s="5"/>
+      <c r="DA9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="DA9" s="5"/>
       <c r="DB9" s="5" t="s">
         <v>8</v>
       </c>
@@ -12991,17 +12957,17 @@
       <c r="DR9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="DS9" s="5" t="s">
+      <c r="DS9" s="5"/>
+      <c r="DT9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="DT9" s="5"/>
       <c r="DU9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="DV9" s="5" t="s">
+      <c r="DV9" s="5"/>
+      <c r="DW9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="DW9" s="5"/>
       <c r="DX9" s="5" t="s">
         <v>8</v>
       </c>
@@ -13039,10 +13005,10 @@
         <v>8</v>
       </c>
       <c r="EJ9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="EK9" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="EK9" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="EL9" s="5" t="s">
         <v>8</v>
@@ -13053,11 +13019,8 @@
       <c r="EN9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="EO9" s="5" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="10" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="10" t="s">
         <v>109</v>
@@ -13262,13 +13225,13 @@
         <v>110</v>
       </c>
       <c r="BT10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU10" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="BU10" s="5" t="s">
+      <c r="BV10" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="BV10" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="BW10" s="5" t="s">
         <v>122</v>
@@ -13277,10 +13240,10 @@
         <v>122</v>
       </c>
       <c r="BY10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="BZ10" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="BZ10" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="CA10" s="5" t="s">
         <v>122</v>
@@ -13289,7 +13252,7 @@
         <v>122</v>
       </c>
       <c r="CC10" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="CD10" s="5" t="s">
         <v>110</v>
@@ -13298,29 +13261,29 @@
         <v>110</v>
       </c>
       <c r="CF10" s="5" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="CG10" s="5" t="s">
         <v>122</v>
       </c>
       <c r="CH10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="CI10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="CI10" s="5" t="s">
+      <c r="CJ10" s="5"/>
+      <c r="CK10" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="CJ10" s="5" t="s">
+      <c r="CL10" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="CK10" s="5"/>
-      <c r="CL10" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="CM10" s="5" t="s">
         <v>122</v>
       </c>
       <c r="CN10" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="CO10" s="5" t="s">
         <v>110</v>
@@ -13329,13 +13292,13 @@
         <v>110</v>
       </c>
       <c r="CQ10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="CR10" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="CR10" s="5" t="s">
+      <c r="CS10" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="CS10" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="CT10" s="5" t="s">
         <v>122</v>
@@ -13344,101 +13307,101 @@
         <v>122</v>
       </c>
       <c r="CV10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="CW10" s="5"/>
+      <c r="CX10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="CW10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="CX10" s="5"/>
       <c r="CY10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="CZ10" s="5" t="s">
+      <c r="CZ10" s="5"/>
+      <c r="DA10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="DA10" s="5"/>
       <c r="DB10" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="DC10" s="5" t="s">
         <v>110</v>
       </c>
       <c r="DD10" s="5" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="DE10" s="5" t="s">
         <v>122</v>
       </c>
       <c r="DF10" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="DG10" s="5" t="s">
         <v>110</v>
       </c>
       <c r="DH10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="DI10" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="DI10" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="DJ10" s="5" t="s">
         <v>110</v>
       </c>
       <c r="DK10" s="5" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="DL10" s="5" t="s">
         <v>122</v>
       </c>
       <c r="DM10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="DN10" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="DN10" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="DO10" s="5" t="s">
         <v>122</v>
       </c>
       <c r="DP10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="DQ10" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="DQ10" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="DR10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="DS10" s="5" t="s">
+      <c r="DS10" s="5"/>
+      <c r="DT10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="DT10" s="5"/>
       <c r="DU10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="DV10" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="DW10" s="5"/>
+      <c r="DV10" s="5"/>
+      <c r="DW10" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="DX10" s="5" t="s">
         <v>110</v>
       </c>
       <c r="DY10" s="5" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="DZ10" s="5" t="s">
         <v>122</v>
       </c>
       <c r="EA10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="EB10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="EB10" s="5" t="s">
+      <c r="EC10" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="EC10" s="5" t="s">
+      <c r="ED10" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="ED10" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="EE10" s="5" t="s">
         <v>122</v>
@@ -13447,13 +13410,13 @@
         <v>122</v>
       </c>
       <c r="EG10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="EH10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="EH10" s="5" t="s">
+      <c r="EI10" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="EI10" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="EJ10" s="5" t="s">
         <v>110</v>
@@ -13462,19 +13425,16 @@
         <v>110</v>
       </c>
       <c r="EL10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="EM10" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="EM10" s="5" t="s">
+      <c r="EN10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="EN10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="EO10" s="5" t="s">
-        <v>122</v>
-      </c>
     </row>
-    <row r="11" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="10" t="s">
         <v>21</v>
@@ -13726,10 +13686,10 @@
       <c r="CI11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="CJ11" s="5" t="s">
+      <c r="CJ11" s="5"/>
+      <c r="CK11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="CK11" s="5"/>
       <c r="CL11" s="5" t="s">
         <v>119</v>
       </c>
@@ -13763,17 +13723,17 @@
       <c r="CV11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="CW11" s="5" t="s">
+      <c r="CW11" s="5"/>
+      <c r="CX11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="CX11" s="5"/>
       <c r="CY11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="CZ11" s="5" t="s">
+      <c r="CZ11" s="5"/>
+      <c r="DA11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DA11" s="5"/>
       <c r="DB11" s="5" t="s">
         <v>119</v>
       </c>
@@ -13825,17 +13785,17 @@
       <c r="DR11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DS11" s="5" t="s">
+      <c r="DS11" s="5"/>
+      <c r="DT11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DT11" s="5"/>
       <c r="DU11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DV11" s="5" t="s">
+      <c r="DV11" s="5"/>
+      <c r="DW11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DW11" s="5"/>
       <c r="DX11" s="5" t="s">
         <v>119</v>
       </c>
@@ -13887,11 +13847,8 @@
       <c r="EN11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="EO11" s="5" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="12" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="10" t="s">
         <v>111</v>
@@ -14143,10 +14100,10 @@
       <c r="CI12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="CJ12" s="5" t="s">
+      <c r="CJ12" s="5"/>
+      <c r="CK12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="CK12" s="5"/>
       <c r="CL12" s="5" t="s">
         <v>112</v>
       </c>
@@ -14178,19 +14135,19 @@
         <v>112</v>
       </c>
       <c r="CV12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="CW12" s="5"/>
+      <c r="CX12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="CW12" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="CX12" s="5"/>
       <c r="CY12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="CZ12" s="5" t="s">
+      <c r="CZ12" s="5"/>
+      <c r="DA12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="DA12" s="5"/>
       <c r="DB12" s="5" t="s">
         <v>112</v>
       </c>
@@ -14234,25 +14191,25 @@
         <v>112</v>
       </c>
       <c r="DP12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="DQ12" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="DQ12" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="DR12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="DS12" s="5" t="s">
+      <c r="DS12" s="5"/>
+      <c r="DT12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="DT12" s="5"/>
       <c r="DU12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="DV12" s="5"/>
+      <c r="DW12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="DV12" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="DW12" s="5"/>
       <c r="DX12" s="5" t="s">
         <v>112</v>
       </c>
@@ -14263,10 +14220,10 @@
         <v>112</v>
       </c>
       <c r="EA12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="EB12" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="EB12" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="EC12" s="5" t="s">
         <v>112</v>
@@ -14287,10 +14244,10 @@
         <v>112</v>
       </c>
       <c r="EI12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="EJ12" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="EJ12" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="EK12" s="5" t="s">
         <v>112</v>
@@ -14304,11 +14261,8 @@
       <c r="EN12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="EO12" s="5" t="s">
-        <v>112</v>
-      </c>
     </row>
-    <row r="13" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="10" t="s">
         <v>120</v>
@@ -14560,10 +14514,10 @@
       <c r="CI13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="CJ13" s="5" t="s">
+      <c r="CJ13" s="5"/>
+      <c r="CK13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="CK13" s="5"/>
       <c r="CL13" s="5" t="s">
         <v>209</v>
       </c>
@@ -14597,17 +14551,17 @@
       <c r="CV13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="CW13" s="5" t="s">
+      <c r="CW13" s="5"/>
+      <c r="CX13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="CX13" s="5"/>
       <c r="CY13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="CZ13" s="5" t="s">
+      <c r="CZ13" s="5"/>
+      <c r="DA13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="DA13" s="5"/>
       <c r="DB13" s="5" t="s">
         <v>209</v>
       </c>
@@ -14659,17 +14613,17 @@
       <c r="DR13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="DS13" s="5" t="s">
+      <c r="DS13" s="5"/>
+      <c r="DT13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="DT13" s="5"/>
       <c r="DU13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="DV13" s="5" t="s">
+      <c r="DV13" s="5"/>
+      <c r="DW13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="DW13" s="5"/>
       <c r="DX13" s="5" t="s">
         <v>209</v>
       </c>
@@ -14721,11 +14675,8 @@
       <c r="EN13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="EO13" s="5" t="s">
-        <v>209</v>
-      </c>
     </row>
-    <row r="14" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="10" t="s">
         <v>160</v>
@@ -14977,10 +14928,10 @@
       <c r="CI14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="CJ14" s="5" t="s">
+      <c r="CJ14" s="5"/>
+      <c r="CK14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="CK14" s="5"/>
       <c r="CL14" s="5" t="s">
         <v>161</v>
       </c>
@@ -15014,17 +14965,17 @@
       <c r="CV14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="CW14" s="5" t="s">
+      <c r="CW14" s="5"/>
+      <c r="CX14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="CX14" s="5"/>
       <c r="CY14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="CZ14" s="5" t="s">
+      <c r="CZ14" s="5"/>
+      <c r="DA14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="DA14" s="5"/>
       <c r="DB14" s="5" t="s">
         <v>161</v>
       </c>
@@ -15076,17 +15027,17 @@
       <c r="DR14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="DS14" s="5" t="s">
+      <c r="DS14" s="5"/>
+      <c r="DT14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="DT14" s="5"/>
       <c r="DU14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="DV14" s="5" t="s">
+      <c r="DV14" s="5"/>
+      <c r="DW14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="DW14" s="5"/>
       <c r="DX14" s="5" t="s">
         <v>161</v>
       </c>
@@ -15138,11 +15089,8 @@
       <c r="EN14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="EO14" s="5" t="s">
-        <v>161</v>
-      </c>
     </row>
-    <row r="15" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="32" t="s">
         <v>218</v>
@@ -15400,10 +15348,10 @@
       <c r="CI15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CJ15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="CK15" s="5"/>
+      <c r="CJ15" s="5"/>
+      <c r="CK15" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="CL15" s="5" t="s">
         <v>7</v>
       </c>
@@ -15437,17 +15385,17 @@
       <c r="CV15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CW15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="CX15" s="5"/>
+      <c r="CW15" s="5"/>
+      <c r="CX15" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="CY15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CZ15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DA15" s="5"/>
+      <c r="CZ15" s="5"/>
+      <c r="DA15" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="DB15" s="5" t="s">
         <v>7</v>
       </c>
@@ -15499,17 +15447,17 @@
       <c r="DR15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="DS15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DT15" s="5"/>
+      <c r="DS15" s="5"/>
+      <c r="DT15" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="DU15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="DV15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DW15" s="5"/>
+      <c r="DV15" s="5"/>
+      <c r="DW15" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="DX15" s="5" t="s">
         <v>7</v>
       </c>
@@ -15561,11 +15509,8 @@
       <c r="EN15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="EO15" s="5" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="16" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>130</v>
       </c>
@@ -15762,9 +15707,8 @@
       <c r="EL16" s="5"/>
       <c r="EM16" s="5"/>
       <c r="EN16" s="5"/>
-      <c r="EO16" s="5"/>
     </row>
-    <row r="17" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="12" t="s">
         <v>2</v>
@@ -15957,9 +15901,8 @@
       <c r="EL17" s="5"/>
       <c r="EM17" s="5"/>
       <c r="EN17" s="5"/>
-      <c r="EO17" s="5"/>
     </row>
-    <row r="18" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="12" t="s">
         <v>12</v>
@@ -16152,9 +16095,8 @@
       <c r="EL18" s="5"/>
       <c r="EM18" s="5"/>
       <c r="EN18" s="5"/>
-      <c r="EO18" s="5"/>
     </row>
-    <row r="19" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="12" t="s">
         <v>13</v>
@@ -16327,9 +16269,8 @@
       <c r="EL19" s="5"/>
       <c r="EM19" s="5"/>
       <c r="EN19" s="5"/>
-      <c r="EO19" s="5"/>
     </row>
-    <row r="20" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="12" t="s">
         <v>3</v>
@@ -16502,9 +16443,8 @@
       <c r="EL20" s="5"/>
       <c r="EM20" s="5"/>
       <c r="EN20" s="5"/>
-      <c r="EO20" s="5"/>
     </row>
-    <row r="21" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="12" t="s">
         <v>4</v>
@@ -16677,9 +16617,8 @@
       <c r="EL21" s="5"/>
       <c r="EM21" s="5"/>
       <c r="EN21" s="5"/>
-      <c r="EO21" s="5"/>
     </row>
-    <row r="22" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="13" t="s">
         <v>5</v>
@@ -16826,9 +16765,8 @@
       <c r="EL22" s="5"/>
       <c r="EM22" s="5"/>
       <c r="EN22" s="5"/>
-      <c r="EO22" s="5"/>
     </row>
-    <row r="23" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="13" t="s">
         <v>129</v>
@@ -16975,9 +16913,8 @@
       <c r="EL23" s="5"/>
       <c r="EM23" s="5"/>
       <c r="EN23" s="5"/>
-      <c r="EO23" s="5"/>
     </row>
-    <row r="24" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>131</v>
       </c>
@@ -17174,9 +17111,8 @@
       <c r="EL24" s="5"/>
       <c r="EM24" s="5"/>
       <c r="EN24" s="5"/>
-      <c r="EO24" s="5"/>
     </row>
-    <row r="25" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="13" t="s">
         <v>25</v>
@@ -17371,9 +17307,8 @@
       <c r="EL25" s="5"/>
       <c r="EM25" s="5"/>
       <c r="EN25" s="5"/>
-      <c r="EO25" s="5"/>
     </row>
-    <row r="26" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="13" t="s">
         <v>26</v>
@@ -17568,9 +17503,8 @@
       <c r="EL26" s="5"/>
       <c r="EM26" s="5"/>
       <c r="EN26" s="5"/>
-      <c r="EO26" s="5"/>
     </row>
-    <row r="27" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="13" t="s">
         <v>27</v>
@@ -17761,9 +17695,8 @@
       <c r="EL27" s="5"/>
       <c r="EM27" s="5"/>
       <c r="EN27" s="5"/>
-      <c r="EO27" s="5"/>
     </row>
-    <row r="28" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="10" t="s">
         <v>159</v>
@@ -17952,9 +17885,8 @@
       <c r="EL28" s="5"/>
       <c r="EM28" s="5"/>
       <c r="EN28" s="5"/>
-      <c r="EO28" s="5"/>
     </row>
-    <row r="29" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>159</v>
       </c>
@@ -18387,11 +18319,8 @@
       <c r="EN29" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="EO29" s="5" t="s">
-        <v>234</v>
-      </c>
     </row>
-    <row r="30" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="19" t="s">
         <v>204</v>
@@ -18822,11 +18751,8 @@
       <c r="EN30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="EO30" s="5" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="31" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="19" t="s">
         <v>203</v>
@@ -18983,9 +18909,8 @@
       <c r="EL31" s="5"/>
       <c r="EM31" s="5"/>
       <c r="EN31" s="5"/>
-      <c r="EO31" s="5"/>
     </row>
-    <row r="32" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="19" t="s">
         <v>205</v>
@@ -19132,9 +19057,8 @@
       <c r="EL32" s="5"/>
       <c r="EM32" s="5"/>
       <c r="EN32" s="5"/>
-      <c r="EO32" s="5"/>
     </row>
-    <row r="33" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="19" t="s">
         <v>169</v>
@@ -19291,9 +19215,8 @@
       <c r="EL33" s="5"/>
       <c r="EM33" s="5"/>
       <c r="EN33" s="5"/>
-      <c r="EO33" s="5"/>
     </row>
-    <row r="34" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="19" t="s">
         <v>170</v>
@@ -19450,9 +19373,8 @@
       <c r="EL34" s="5"/>
       <c r="EM34" s="5"/>
       <c r="EN34" s="5"/>
-      <c r="EO34" s="5"/>
     </row>
-    <row r="35" spans="1:145" s="24" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:144" s="24" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="29" t="s">
         <v>163</v>
@@ -19609,9 +19531,8 @@
       <c r="EL35" s="7"/>
       <c r="EM35" s="7"/>
       <c r="EN35" s="7"/>
-      <c r="EO35" s="7"/>
     </row>
-    <row r="36" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>186</v>
       </c>
@@ -19784,9 +19705,8 @@
       <c r="EL36" s="4"/>
       <c r="EM36" s="4"/>
       <c r="EN36" s="4"/>
-      <c r="EO36" s="4"/>
     </row>
-    <row r="37" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
         <v>29</v>
       </c>
@@ -19956,9 +19876,8 @@
       <c r="EL37" s="4"/>
       <c r="EM37" s="4"/>
       <c r="EN37" s="4"/>
-      <c r="EO37" s="4"/>
     </row>
-    <row r="38" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
         <v>30</v>
       </c>
@@ -20112,9 +20031,8 @@
       <c r="EL38" s="4"/>
       <c r="EM38" s="4"/>
       <c r="EN38" s="4"/>
-      <c r="EO38" s="4"/>
     </row>
-    <row r="39" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
         <v>31</v>
       </c>
@@ -20268,9 +20186,8 @@
       <c r="EL39" s="4"/>
       <c r="EM39" s="4"/>
       <c r="EN39" s="4"/>
-      <c r="EO39" s="4"/>
     </row>
-    <row r="40" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
         <v>32</v>
       </c>
@@ -20434,175 +20351,175 @@
         <v>20</v>
       </c>
       <c r="BT40" s="43">
-        <v>27</v>
+        <v>12.7</v>
       </c>
       <c r="BU40" s="43">
-        <v>12.7</v>
+        <v>15</v>
       </c>
       <c r="BV40" s="43">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="BW40" s="43">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="BX40" s="43">
-        <v>8</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="BY40" s="43">
-        <v>16.399999999999999</v>
+        <v>40</v>
       </c>
       <c r="BZ40" s="43">
-        <v>40</v>
+        <v>15.97</v>
       </c>
       <c r="CA40" s="43">
-        <v>15.97</v>
+        <v>10</v>
       </c>
       <c r="CB40" s="43">
         <v>10</v>
       </c>
       <c r="CC40" s="43">
+        <v>0</v>
+      </c>
+      <c r="CD40" s="43">
+        <v>40</v>
+      </c>
+      <c r="CE40" s="43">
+        <v>51</v>
+      </c>
+      <c r="CF40" s="43">
+        <v>0</v>
+      </c>
+      <c r="CG40" s="43">
+        <v>6</v>
+      </c>
+      <c r="CH40" s="43">
+        <v>45</v>
+      </c>
+      <c r="CI40" s="43">
+        <v>26</v>
+      </c>
+      <c r="CJ40" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="CK40" s="43">
+        <v>45</v>
+      </c>
+      <c r="CL40" s="43">
+        <v>11</v>
+      </c>
+      <c r="CM40" s="43">
+        <v>40</v>
+      </c>
+      <c r="CN40" s="43">
+        <v>28</v>
+      </c>
+      <c r="CO40" s="43">
+        <v>70</v>
+      </c>
+      <c r="CP40" s="43">
+        <v>55</v>
+      </c>
+      <c r="CQ40" s="43">
+        <v>22.7</v>
+      </c>
+      <c r="CR40" s="43">
+        <v>35</v>
+      </c>
+      <c r="CS40" s="43">
+        <v>18.3</v>
+      </c>
+      <c r="CT40" s="43">
+        <v>0</v>
+      </c>
+      <c r="CU40" s="43">
+        <v>14</v>
+      </c>
+      <c r="CV40" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="CW40" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="CX40" s="43">
+        <v>8</v>
+      </c>
+      <c r="CY40" s="43">
+        <v>12.375468870745555</v>
+      </c>
+      <c r="CZ40" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DA40" s="43">
+        <v>51.4</v>
+      </c>
+      <c r="DB40" s="43">
+        <v>0</v>
+      </c>
+      <c r="DC40" s="43">
+        <v>50</v>
+      </c>
+      <c r="DD40" s="43">
+        <v>2.71</v>
+      </c>
+      <c r="DE40" s="43">
+        <v>16</v>
+      </c>
+      <c r="DF40" s="43">
+        <v>0</v>
+      </c>
+      <c r="DG40" s="43">
+        <v>7</v>
+      </c>
+      <c r="DH40" s="43">
+        <v>22</v>
+      </c>
+      <c r="DI40" s="43">
+        <v>26</v>
+      </c>
+      <c r="DJ40" s="43">
+        <v>20</v>
+      </c>
+      <c r="DK40" s="43">
+        <v>27</v>
+      </c>
+      <c r="DL40" s="43">
+        <v>7</v>
+      </c>
+      <c r="DM40" s="43">
+        <v>13.2</v>
+      </c>
+      <c r="DN40" s="43">
+        <v>26.4</v>
+      </c>
+      <c r="DO40" s="43">
         <v>10</v>
       </c>
-      <c r="CD40" s="43">
-        <v>0</v>
-      </c>
-      <c r="CE40" s="43">
-        <v>40</v>
-      </c>
-      <c r="CF40" s="43">
-        <v>51</v>
-      </c>
-      <c r="CG40" s="43">
-        <v>0</v>
-      </c>
-      <c r="CH40" s="43">
-        <v>6</v>
-      </c>
-      <c r="CI40" s="43">
-        <v>45</v>
-      </c>
-      <c r="CJ40" s="43">
-        <v>26</v>
-      </c>
-      <c r="CK40" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="CL40" s="43">
-        <v>45</v>
-      </c>
-      <c r="CM40" s="43">
-        <v>11</v>
-      </c>
-      <c r="CN40" s="43">
-        <v>40</v>
-      </c>
-      <c r="CO40" s="43">
-        <v>28</v>
-      </c>
-      <c r="CP40" s="43">
-        <v>70</v>
-      </c>
-      <c r="CQ40" s="43">
-        <v>55</v>
-      </c>
-      <c r="CR40" s="43">
-        <v>22.7</v>
-      </c>
-      <c r="CS40" s="43">
-        <v>35</v>
-      </c>
-      <c r="CT40" s="43">
-        <v>18.3</v>
-      </c>
-      <c r="CU40" s="43">
-        <v>0</v>
-      </c>
-      <c r="CV40" s="43">
-        <v>14</v>
-      </c>
-      <c r="CW40" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="CX40" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="CY40" s="43">
-        <v>8</v>
-      </c>
-      <c r="CZ40" s="43">
-        <v>12.375468870745555</v>
-      </c>
-      <c r="DA40" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="DB40" s="43">
-        <v>51.4</v>
-      </c>
-      <c r="DC40" s="43">
-        <v>0</v>
-      </c>
-      <c r="DD40" s="43">
+      <c r="DP40" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DQ40" s="43">
+        <v>33</v>
+      </c>
+      <c r="DR40" s="43">
+        <v>30</v>
+      </c>
+      <c r="DS40" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DT40" s="43">
+        <v>4</v>
+      </c>
+      <c r="DU40" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DV40" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DW40" s="43">
         <v>50</v>
       </c>
-      <c r="DE40" s="43">
-        <v>2.71</v>
-      </c>
-      <c r="DF40" s="43">
-        <v>16</v>
-      </c>
-      <c r="DG40" s="43">
-        <v>0</v>
-      </c>
-      <c r="DH40" s="43">
-        <v>7</v>
-      </c>
-      <c r="DI40" s="43">
-        <v>22</v>
-      </c>
-      <c r="DJ40" s="43">
-        <v>26</v>
-      </c>
-      <c r="DK40" s="43">
-        <v>20</v>
-      </c>
-      <c r="DL40" s="43">
-        <v>27</v>
-      </c>
-      <c r="DM40" s="43">
-        <v>7</v>
-      </c>
-      <c r="DN40" s="43">
-        <v>13.2</v>
-      </c>
-      <c r="DO40" s="43">
-        <v>26.4</v>
-      </c>
-      <c r="DP40" s="43">
-        <v>10</v>
-      </c>
-      <c r="DQ40" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="DR40" s="43">
-        <v>33</v>
-      </c>
-      <c r="DS40" s="43">
+      <c r="DX40" s="43">
         <v>30</v>
-      </c>
-      <c r="DT40" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="DU40" s="43">
-        <v>4</v>
-      </c>
-      <c r="DV40" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="DW40" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="DX40" s="43">
-        <v>50</v>
       </c>
       <c r="DY40" s="43">
         <v>30</v>
@@ -20610,53 +20527,50 @@
       <c r="DZ40" s="43">
         <v>30</v>
       </c>
-      <c r="EA40" s="43">
-        <v>30</v>
-      </c>
-      <c r="EB40" s="43" t="s">
-        <v>449</v>
+      <c r="EA40" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="EB40" s="43">
+        <v>20.51</v>
       </c>
       <c r="EC40" s="43">
-        <v>20.51</v>
+        <v>10</v>
       </c>
       <c r="ED40" s="43">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="EE40" s="43">
-        <v>5</v>
+        <v>17.137096774193548</v>
       </c>
       <c r="EF40" s="43">
-        <v>17.137096774193548</v>
+        <v>20</v>
       </c>
       <c r="EG40" s="43">
+        <v>36</v>
+      </c>
+      <c r="EH40" s="43">
+        <v>5.89</v>
+      </c>
+      <c r="EI40" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="EJ40" s="43">
+        <v>35</v>
+      </c>
+      <c r="EK40" s="43">
+        <v>0</v>
+      </c>
+      <c r="EL40" s="43">
         <v>20</v>
       </c>
-      <c r="EH40" s="43">
-        <v>36</v>
-      </c>
-      <c r="EI40" s="43">
-        <v>5.89</v>
-      </c>
-      <c r="EJ40" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="EK40" s="43">
-        <v>35</v>
-      </c>
-      <c r="EL40" s="43">
+      <c r="EM40" s="43">
         <v>0</v>
       </c>
-      <c r="EM40" s="43">
-        <v>20</v>
-      </c>
       <c r="EN40" s="43">
-        <v>0</v>
-      </c>
-      <c r="EO40" s="43">
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
         <v>33</v>
       </c>
@@ -20820,175 +20734,175 @@
         <v>20</v>
       </c>
       <c r="BT41" s="43">
-        <v>27</v>
+        <v>12.7</v>
       </c>
       <c r="BU41" s="43">
-        <v>12.7</v>
+        <v>15</v>
       </c>
       <c r="BV41" s="43">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="BW41" s="43">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="BX41" s="43">
-        <v>8</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="BY41" s="43">
-        <v>16.399999999999999</v>
+        <v>40</v>
       </c>
       <c r="BZ41" s="43">
-        <v>40</v>
+        <v>15.97</v>
       </c>
       <c r="CA41" s="43">
-        <v>15.97</v>
+        <v>10</v>
       </c>
       <c r="CB41" s="43">
         <v>10</v>
       </c>
       <c r="CC41" s="43">
+        <v>0</v>
+      </c>
+      <c r="CD41" s="43">
+        <v>40</v>
+      </c>
+      <c r="CE41" s="43">
+        <v>51</v>
+      </c>
+      <c r="CF41" s="43">
+        <v>0</v>
+      </c>
+      <c r="CG41" s="43">
+        <v>6</v>
+      </c>
+      <c r="CH41" s="43">
+        <v>45</v>
+      </c>
+      <c r="CI41" s="43">
+        <v>26</v>
+      </c>
+      <c r="CJ41" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="CK41" s="43">
+        <v>45</v>
+      </c>
+      <c r="CL41" s="43">
+        <v>11</v>
+      </c>
+      <c r="CM41" s="43">
+        <v>40</v>
+      </c>
+      <c r="CN41" s="43">
+        <v>28</v>
+      </c>
+      <c r="CO41" s="43">
+        <v>70</v>
+      </c>
+      <c r="CP41" s="43">
+        <v>55</v>
+      </c>
+      <c r="CQ41" s="43">
+        <v>22.7</v>
+      </c>
+      <c r="CR41" s="43">
+        <v>35</v>
+      </c>
+      <c r="CS41" s="43">
+        <v>18.3</v>
+      </c>
+      <c r="CT41" s="43">
+        <v>0</v>
+      </c>
+      <c r="CU41" s="43">
+        <v>14</v>
+      </c>
+      <c r="CV41" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="CW41" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="CX41" s="43">
+        <v>8</v>
+      </c>
+      <c r="CY41" s="43">
+        <v>12.375468870745555</v>
+      </c>
+      <c r="CZ41" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DA41" s="43">
+        <v>51.4</v>
+      </c>
+      <c r="DB41" s="43">
+        <v>0</v>
+      </c>
+      <c r="DC41" s="43">
+        <v>50</v>
+      </c>
+      <c r="DD41" s="43">
+        <v>2.71</v>
+      </c>
+      <c r="DE41" s="43">
+        <v>16</v>
+      </c>
+      <c r="DF41" s="43">
+        <v>0</v>
+      </c>
+      <c r="DG41" s="43">
+        <v>7</v>
+      </c>
+      <c r="DH41" s="43">
+        <v>22</v>
+      </c>
+      <c r="DI41" s="43">
+        <v>26</v>
+      </c>
+      <c r="DJ41" s="43">
+        <v>20</v>
+      </c>
+      <c r="DK41" s="43">
+        <v>27</v>
+      </c>
+      <c r="DL41" s="43">
+        <v>7</v>
+      </c>
+      <c r="DM41" s="43">
+        <v>13.2</v>
+      </c>
+      <c r="DN41" s="43">
+        <v>26.4</v>
+      </c>
+      <c r="DO41" s="43">
         <v>10</v>
       </c>
-      <c r="CD41" s="43">
-        <v>0</v>
-      </c>
-      <c r="CE41" s="43">
-        <v>40</v>
-      </c>
-      <c r="CF41" s="43">
-        <v>51</v>
-      </c>
-      <c r="CG41" s="43">
-        <v>0</v>
-      </c>
-      <c r="CH41" s="43">
-        <v>6</v>
-      </c>
-      <c r="CI41" s="43">
-        <v>45</v>
-      </c>
-      <c r="CJ41" s="43">
-        <v>26</v>
-      </c>
-      <c r="CK41" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="CL41" s="43">
-        <v>45</v>
-      </c>
-      <c r="CM41" s="43">
-        <v>11</v>
-      </c>
-      <c r="CN41" s="43">
-        <v>40</v>
-      </c>
-      <c r="CO41" s="43">
-        <v>28</v>
-      </c>
-      <c r="CP41" s="43">
-        <v>70</v>
-      </c>
-      <c r="CQ41" s="43">
-        <v>55</v>
-      </c>
-      <c r="CR41" s="43">
-        <v>22.7</v>
-      </c>
-      <c r="CS41" s="43">
-        <v>35</v>
-      </c>
-      <c r="CT41" s="43">
-        <v>18.3</v>
-      </c>
-      <c r="CU41" s="43">
-        <v>0</v>
-      </c>
-      <c r="CV41" s="43">
-        <v>14</v>
-      </c>
-      <c r="CW41" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="CX41" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="CY41" s="43">
-        <v>8</v>
-      </c>
-      <c r="CZ41" s="43">
-        <v>12.375468870745555</v>
-      </c>
-      <c r="DA41" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="DB41" s="43">
-        <v>51.4</v>
-      </c>
-      <c r="DC41" s="43">
-        <v>0</v>
-      </c>
-      <c r="DD41" s="43">
+      <c r="DP41" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DQ41" s="43">
+        <v>33</v>
+      </c>
+      <c r="DR41" s="43">
+        <v>30</v>
+      </c>
+      <c r="DS41" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DT41" s="43">
+        <v>4</v>
+      </c>
+      <c r="DU41" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DV41" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DW41" s="43">
         <v>50</v>
       </c>
-      <c r="DE41" s="43">
-        <v>2.71</v>
-      </c>
-      <c r="DF41" s="43">
-        <v>16</v>
-      </c>
-      <c r="DG41" s="43">
-        <v>0</v>
-      </c>
-      <c r="DH41" s="43">
-        <v>7</v>
-      </c>
-      <c r="DI41" s="43">
-        <v>22</v>
-      </c>
-      <c r="DJ41" s="43">
-        <v>26</v>
-      </c>
-      <c r="DK41" s="43">
-        <v>20</v>
-      </c>
-      <c r="DL41" s="43">
-        <v>27</v>
-      </c>
-      <c r="DM41" s="43">
-        <v>7</v>
-      </c>
-      <c r="DN41" s="43">
-        <v>13.2</v>
-      </c>
-      <c r="DO41" s="43">
-        <v>26.4</v>
-      </c>
-      <c r="DP41" s="43">
-        <v>10</v>
-      </c>
-      <c r="DQ41" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="DR41" s="43">
-        <v>33</v>
-      </c>
-      <c r="DS41" s="43">
+      <c r="DX41" s="43">
         <v>30</v>
-      </c>
-      <c r="DT41" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="DU41" s="43">
-        <v>4</v>
-      </c>
-      <c r="DV41" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="DW41" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="DX41" s="43">
-        <v>50</v>
       </c>
       <c r="DY41" s="43">
         <v>30</v>
@@ -20996,53 +20910,50 @@
       <c r="DZ41" s="43">
         <v>30</v>
       </c>
-      <c r="EA41" s="43">
-        <v>30</v>
-      </c>
-      <c r="EB41" s="43" t="s">
-        <v>449</v>
+      <c r="EA41" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="EB41" s="43">
+        <v>20.51</v>
       </c>
       <c r="EC41" s="43">
-        <v>20.51</v>
+        <v>10</v>
       </c>
       <c r="ED41" s="43">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="EE41" s="43">
-        <v>5</v>
+        <v>17.137096774193548</v>
       </c>
       <c r="EF41" s="43">
-        <v>17.137096774193548</v>
+        <v>20</v>
       </c>
       <c r="EG41" s="43">
+        <v>36</v>
+      </c>
+      <c r="EH41" s="43">
+        <v>5.89</v>
+      </c>
+      <c r="EI41" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="EJ41" s="43">
+        <v>35</v>
+      </c>
+      <c r="EK41" s="43">
+        <v>0</v>
+      </c>
+      <c r="EL41" s="43">
         <v>20</v>
       </c>
-      <c r="EH41" s="43">
-        <v>36</v>
-      </c>
-      <c r="EI41" s="43">
-        <v>5.89</v>
-      </c>
-      <c r="EJ41" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="EK41" s="43">
-        <v>35</v>
-      </c>
-      <c r="EL41" s="43">
+      <c r="EM41" s="43">
         <v>0</v>
       </c>
-      <c r="EM41" s="43">
-        <v>20</v>
-      </c>
       <c r="EN41" s="43">
-        <v>0</v>
-      </c>
-      <c r="EO41" s="43">
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
         <v>34</v>
       </c>
@@ -21200,229 +21111,226 @@
         <v>30</v>
       </c>
       <c r="BT42" s="43">
+        <v>14.25</v>
+      </c>
+      <c r="BU42" s="43">
+        <v>25</v>
+      </c>
+      <c r="BV42" s="43">
+        <v>32</v>
+      </c>
+      <c r="BW42" s="43">
+        <v>31.8</v>
+      </c>
+      <c r="BX42" s="43">
+        <v>52</v>
+      </c>
+      <c r="BY42" s="43">
+        <v>40</v>
+      </c>
+      <c r="BZ42" s="43">
+        <v>43.62</v>
+      </c>
+      <c r="CA42" s="43">
+        <v>35</v>
+      </c>
+      <c r="CB42" s="43">
+        <v>64</v>
+      </c>
+      <c r="CC42" s="43">
+        <v>0</v>
+      </c>
+      <c r="CD42" s="43">
+        <v>40</v>
+      </c>
+      <c r="CE42" s="43">
+        <v>51</v>
+      </c>
+      <c r="CF42" s="43">
+        <v>14</v>
+      </c>
+      <c r="CG42" s="43">
+        <v>51</v>
+      </c>
+      <c r="CH42" s="43">
+        <v>45</v>
+      </c>
+      <c r="CI42" s="43">
+        <v>100</v>
+      </c>
+      <c r="CJ42" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="CK42" s="43">
+        <v>45</v>
+      </c>
+      <c r="CL42" s="43">
+        <v>92</v>
+      </c>
+      <c r="CM42" s="43">
+        <v>40</v>
+      </c>
+      <c r="CN42" s="43">
+        <v>35</v>
+      </c>
+      <c r="CO42" s="43">
+        <v>88</v>
+      </c>
+      <c r="CP42" s="43">
+        <v>55</v>
+      </c>
+      <c r="CQ42" s="43">
+        <v>27.2</v>
+      </c>
+      <c r="CR42" s="43">
+        <v>35</v>
+      </c>
+      <c r="CS42" s="43">
+        <v>45.5</v>
+      </c>
+      <c r="CT42" s="43">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="CU42" s="43">
+        <v>91</v>
+      </c>
+      <c r="CV42" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="CW42" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="CX42" s="43">
+        <v>10</v>
+      </c>
+      <c r="CY42" s="43">
+        <v>24.947115546147899</v>
+      </c>
+      <c r="CZ42" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DA42" s="43">
+        <v>51.4</v>
+      </c>
+      <c r="DB42" s="43">
+        <v>0</v>
+      </c>
+      <c r="DC42" s="43">
+        <v>90</v>
+      </c>
+      <c r="DD42" s="43">
+        <v>75</v>
+      </c>
+      <c r="DE42" s="43">
+        <v>38</v>
+      </c>
+      <c r="DF42" s="43">
+        <v>61</v>
+      </c>
+      <c r="DG42" s="43">
+        <v>7</v>
+      </c>
+      <c r="DH42" s="43">
+        <v>22</v>
+      </c>
+      <c r="DI42" s="43">
+        <v>26</v>
+      </c>
+      <c r="DJ42" s="43">
+        <v>20</v>
+      </c>
+      <c r="DK42" s="43">
         <v>27</v>
       </c>
-      <c r="BU42" s="43">
-        <v>14.25</v>
-      </c>
-      <c r="BV42" s="43">
-        <v>25</v>
-      </c>
-      <c r="BW42" s="43">
-        <v>32</v>
-      </c>
-      <c r="BX42" s="43">
-        <v>31.8</v>
-      </c>
-      <c r="BY42" s="43">
-        <v>52</v>
-      </c>
-      <c r="BZ42" s="43">
-        <v>40</v>
-      </c>
-      <c r="CA42" s="43">
-        <v>43.62</v>
-      </c>
-      <c r="CB42" s="43">
-        <v>35</v>
-      </c>
-      <c r="CC42" s="43">
-        <v>64</v>
-      </c>
-      <c r="CD42" s="43">
-        <v>0</v>
-      </c>
-      <c r="CE42" s="43">
-        <v>40</v>
-      </c>
-      <c r="CF42" s="43">
-        <v>51</v>
-      </c>
-      <c r="CG42" s="43">
-        <v>14</v>
-      </c>
-      <c r="CH42" s="43">
-        <v>51</v>
-      </c>
-      <c r="CI42" s="43">
+      <c r="DL42" s="43">
+        <v>29.5</v>
+      </c>
+      <c r="DM42" s="43">
+        <v>13.2</v>
+      </c>
+      <c r="DN42" s="43">
+        <v>26.4</v>
+      </c>
+      <c r="DO42" s="43">
+        <v>10</v>
+      </c>
+      <c r="DP42" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DQ42" s="43">
         <v>45</v>
       </c>
-      <c r="CJ42" s="43">
-        <v>100</v>
-      </c>
-      <c r="CK42" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="CL42" s="43">
-        <v>45</v>
-      </c>
-      <c r="CM42" s="43">
-        <v>92</v>
-      </c>
-      <c r="CN42" s="43">
-        <v>40</v>
-      </c>
-      <c r="CO42" s="43">
-        <v>35</v>
-      </c>
-      <c r="CP42" s="43">
-        <v>88</v>
-      </c>
-      <c r="CQ42" s="43">
-        <v>55</v>
-      </c>
-      <c r="CR42" s="43">
-        <v>27.2</v>
-      </c>
-      <c r="CS42" s="43">
-        <v>35</v>
-      </c>
-      <c r="CT42" s="43">
-        <v>45.5</v>
-      </c>
-      <c r="CU42" s="43">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="CV42" s="43">
-        <v>91</v>
-      </c>
-      <c r="CW42" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="CX42" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="CY42" s="43">
-        <v>10</v>
-      </c>
-      <c r="CZ42" s="43">
-        <v>24.947115546147899</v>
-      </c>
-      <c r="DA42" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="DB42" s="43">
-        <v>51.4</v>
-      </c>
-      <c r="DC42" s="43">
-        <v>0</v>
-      </c>
-      <c r="DD42" s="43">
-        <v>90</v>
-      </c>
-      <c r="DE42" s="43">
-        <v>75</v>
-      </c>
-      <c r="DF42" s="43">
-        <v>38</v>
-      </c>
-      <c r="DG42" s="43">
-        <v>61</v>
-      </c>
-      <c r="DH42" s="43">
-        <v>7</v>
-      </c>
-      <c r="DI42" s="43">
-        <v>22</v>
-      </c>
-      <c r="DJ42" s="43">
-        <v>26</v>
-      </c>
-      <c r="DK42" s="43">
-        <v>20</v>
-      </c>
-      <c r="DL42" s="43">
-        <v>27</v>
-      </c>
-      <c r="DM42" s="43">
-        <v>29.5</v>
-      </c>
-      <c r="DN42" s="43">
-        <v>13.2</v>
-      </c>
-      <c r="DO42" s="43">
-        <v>26.4</v>
-      </c>
-      <c r="DP42" s="43">
-        <v>10</v>
-      </c>
-      <c r="DQ42" s="43" t="s">
-        <v>449</v>
-      </c>
       <c r="DR42" s="43">
-        <v>45</v>
-      </c>
-      <c r="DS42" s="43">
         <v>30</v>
       </c>
-      <c r="DT42" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="DU42" s="43">
+      <c r="DS42" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DT42" s="43">
         <v>14.5</v>
       </c>
+      <c r="DU42" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="DV42" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="DW42" s="43" t="s">
-        <v>449</v>
+      <c r="DW42" s="43">
+        <v>50</v>
       </c>
       <c r="DX42" s="43">
         <v>50</v>
       </c>
       <c r="DY42" s="43">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="DZ42" s="43">
+        <v>40</v>
+      </c>
+      <c r="EA42" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="EB42" s="43">
+        <v>50.57</v>
+      </c>
+      <c r="EC42" s="43">
+        <v>10</v>
+      </c>
+      <c r="ED42" s="43">
+        <v>15</v>
+      </c>
+      <c r="EE42" s="43">
+        <v>37.5</v>
+      </c>
+      <c r="EF42" s="43">
+        <v>20</v>
+      </c>
+      <c r="EG42" s="43">
+        <v>36</v>
+      </c>
+      <c r="EH42" s="43">
+        <v>24.7</v>
+      </c>
+      <c r="EI42" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="EJ42" s="43">
         <v>35</v>
       </c>
-      <c r="EA42" s="43">
-        <v>40</v>
-      </c>
-      <c r="EB42" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="EC42" s="43">
-        <v>50.57</v>
-      </c>
-      <c r="ED42" s="43">
-        <v>10</v>
-      </c>
-      <c r="EE42" s="43">
-        <v>15</v>
-      </c>
-      <c r="EF42" s="43">
-        <v>37.5</v>
-      </c>
-      <c r="EG42" s="43">
+      <c r="EK42" s="43">
+        <v>0</v>
+      </c>
+      <c r="EL42" s="43">
         <v>20</v>
       </c>
-      <c r="EH42" s="43">
-        <v>36</v>
-      </c>
-      <c r="EI42" s="43">
-        <v>24.7</v>
-      </c>
-      <c r="EJ42" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="EK42" s="43">
-        <v>35</v>
-      </c>
-      <c r="EL42" s="43">
+      <c r="EM42" s="43">
         <v>0</v>
       </c>
-      <c r="EM42" s="43">
-        <v>20</v>
-      </c>
       <c r="EN42" s="43">
-        <v>0</v>
-      </c>
-      <c r="EO42" s="43">
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
         <v>35</v>
       </c>
@@ -21580,229 +21488,226 @@
         <v>30</v>
       </c>
       <c r="BT43" s="43">
+        <v>14.25</v>
+      </c>
+      <c r="BU43" s="43">
+        <v>25</v>
+      </c>
+      <c r="BV43" s="43">
+        <v>32</v>
+      </c>
+      <c r="BW43" s="43">
+        <v>31.8</v>
+      </c>
+      <c r="BX43" s="43">
+        <v>52</v>
+      </c>
+      <c r="BY43" s="43">
+        <v>40</v>
+      </c>
+      <c r="BZ43" s="43">
+        <v>43.62</v>
+      </c>
+      <c r="CA43" s="43">
+        <v>35</v>
+      </c>
+      <c r="CB43" s="43">
+        <v>64</v>
+      </c>
+      <c r="CC43" s="43">
+        <v>0</v>
+      </c>
+      <c r="CD43" s="43">
+        <v>40</v>
+      </c>
+      <c r="CE43" s="43">
+        <v>51</v>
+      </c>
+      <c r="CF43" s="43">
+        <v>14</v>
+      </c>
+      <c r="CG43" s="43">
+        <v>51</v>
+      </c>
+      <c r="CH43" s="43">
+        <v>45</v>
+      </c>
+      <c r="CI43" s="43">
+        <v>100</v>
+      </c>
+      <c r="CJ43" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="CK43" s="43">
+        <v>45</v>
+      </c>
+      <c r="CL43" s="43">
+        <v>92</v>
+      </c>
+      <c r="CM43" s="43">
+        <v>40</v>
+      </c>
+      <c r="CN43" s="43">
+        <v>35</v>
+      </c>
+      <c r="CO43" s="43">
+        <v>88</v>
+      </c>
+      <c r="CP43" s="43">
+        <v>55</v>
+      </c>
+      <c r="CQ43" s="43">
+        <v>27.2</v>
+      </c>
+      <c r="CR43" s="43">
+        <v>35</v>
+      </c>
+      <c r="CS43" s="43">
+        <v>45.5</v>
+      </c>
+      <c r="CT43" s="43">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="CU43" s="43">
+        <v>91</v>
+      </c>
+      <c r="CV43" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="CW43" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="CX43" s="43">
+        <v>10</v>
+      </c>
+      <c r="CY43" s="43">
+        <v>24.947115546147899</v>
+      </c>
+      <c r="CZ43" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DA43" s="43">
+        <v>51.4</v>
+      </c>
+      <c r="DB43" s="43">
+        <v>0</v>
+      </c>
+      <c r="DC43" s="43">
+        <v>90</v>
+      </c>
+      <c r="DD43" s="43">
+        <v>75</v>
+      </c>
+      <c r="DE43" s="43">
+        <v>38</v>
+      </c>
+      <c r="DF43" s="43">
+        <v>61</v>
+      </c>
+      <c r="DG43" s="43">
+        <v>7</v>
+      </c>
+      <c r="DH43" s="43">
+        <v>22</v>
+      </c>
+      <c r="DI43" s="43">
+        <v>26</v>
+      </c>
+      <c r="DJ43" s="43">
+        <v>20</v>
+      </c>
+      <c r="DK43" s="43">
         <v>27</v>
       </c>
-      <c r="BU43" s="43">
-        <v>14.25</v>
-      </c>
-      <c r="BV43" s="43">
-        <v>25</v>
-      </c>
-      <c r="BW43" s="43">
-        <v>32</v>
-      </c>
-      <c r="BX43" s="43">
-        <v>31.8</v>
-      </c>
-      <c r="BY43" s="43">
-        <v>52</v>
-      </c>
-      <c r="BZ43" s="43">
-        <v>40</v>
-      </c>
-      <c r="CA43" s="43">
-        <v>43.62</v>
-      </c>
-      <c r="CB43" s="43">
-        <v>35</v>
-      </c>
-      <c r="CC43" s="43">
-        <v>64</v>
-      </c>
-      <c r="CD43" s="43">
-        <v>0</v>
-      </c>
-      <c r="CE43" s="43">
-        <v>40</v>
-      </c>
-      <c r="CF43" s="43">
-        <v>51</v>
-      </c>
-      <c r="CG43" s="43">
-        <v>14</v>
-      </c>
-      <c r="CH43" s="43">
-        <v>51</v>
-      </c>
-      <c r="CI43" s="43">
+      <c r="DL43" s="43">
+        <v>29.5</v>
+      </c>
+      <c r="DM43" s="43">
+        <v>13.2</v>
+      </c>
+      <c r="DN43" s="43">
+        <v>26.4</v>
+      </c>
+      <c r="DO43" s="43">
+        <v>10</v>
+      </c>
+      <c r="DP43" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DQ43" s="43">
         <v>45</v>
       </c>
-      <c r="CJ43" s="43">
-        <v>100</v>
-      </c>
-      <c r="CK43" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="CL43" s="43">
-        <v>45</v>
-      </c>
-      <c r="CM43" s="43">
-        <v>92</v>
-      </c>
-      <c r="CN43" s="43">
-        <v>40</v>
-      </c>
-      <c r="CO43" s="43">
-        <v>35</v>
-      </c>
-      <c r="CP43" s="43">
-        <v>88</v>
-      </c>
-      <c r="CQ43" s="43">
-        <v>55</v>
-      </c>
-      <c r="CR43" s="43">
-        <v>27.2</v>
-      </c>
-      <c r="CS43" s="43">
-        <v>35</v>
-      </c>
-      <c r="CT43" s="43">
-        <v>45.5</v>
-      </c>
-      <c r="CU43" s="43">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="CV43" s="43">
-        <v>91</v>
-      </c>
-      <c r="CW43" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="CX43" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="CY43" s="43">
-        <v>10</v>
-      </c>
-      <c r="CZ43" s="43">
-        <v>24.947115546147899</v>
-      </c>
-      <c r="DA43" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="DB43" s="43">
-        <v>51.4</v>
-      </c>
-      <c r="DC43" s="43">
-        <v>0</v>
-      </c>
-      <c r="DD43" s="43">
-        <v>90</v>
-      </c>
-      <c r="DE43" s="43">
-        <v>75</v>
-      </c>
-      <c r="DF43" s="43">
-        <v>38</v>
-      </c>
-      <c r="DG43" s="43">
-        <v>61</v>
-      </c>
-      <c r="DH43" s="43">
-        <v>7</v>
-      </c>
-      <c r="DI43" s="43">
-        <v>22</v>
-      </c>
-      <c r="DJ43" s="43">
-        <v>26</v>
-      </c>
-      <c r="DK43" s="43">
-        <v>20</v>
-      </c>
-      <c r="DL43" s="43">
-        <v>27</v>
-      </c>
-      <c r="DM43" s="43">
-        <v>29.5</v>
-      </c>
-      <c r="DN43" s="43">
-        <v>13.2</v>
-      </c>
-      <c r="DO43" s="43">
-        <v>26.4</v>
-      </c>
-      <c r="DP43" s="43">
-        <v>10</v>
-      </c>
-      <c r="DQ43" s="43" t="s">
-        <v>449</v>
-      </c>
       <c r="DR43" s="43">
-        <v>45</v>
-      </c>
-      <c r="DS43" s="43">
         <v>30</v>
       </c>
-      <c r="DT43" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="DU43" s="43">
+      <c r="DS43" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DT43" s="43">
         <v>14.5</v>
       </c>
+      <c r="DU43" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="DV43" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="DW43" s="43" t="s">
-        <v>449</v>
+      <c r="DW43" s="43">
+        <v>50</v>
       </c>
       <c r="DX43" s="43">
         <v>50</v>
       </c>
       <c r="DY43" s="43">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="DZ43" s="43">
+        <v>40</v>
+      </c>
+      <c r="EA43" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="EB43" s="43">
+        <v>50.57</v>
+      </c>
+      <c r="EC43" s="43">
+        <v>10</v>
+      </c>
+      <c r="ED43" s="43">
+        <v>15</v>
+      </c>
+      <c r="EE43" s="43">
+        <v>37.5</v>
+      </c>
+      <c r="EF43" s="43">
+        <v>20</v>
+      </c>
+      <c r="EG43" s="43">
+        <v>36</v>
+      </c>
+      <c r="EH43" s="43">
+        <v>24.7</v>
+      </c>
+      <c r="EI43" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="EJ43" s="43">
         <v>35</v>
       </c>
-      <c r="EA43" s="43">
-        <v>40</v>
-      </c>
-      <c r="EB43" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="EC43" s="43">
-        <v>50.57</v>
-      </c>
-      <c r="ED43" s="43">
-        <v>10</v>
-      </c>
-      <c r="EE43" s="43">
-        <v>15</v>
-      </c>
-      <c r="EF43" s="43">
-        <v>37.5</v>
-      </c>
-      <c r="EG43" s="43">
+      <c r="EK43" s="43">
+        <v>0</v>
+      </c>
+      <c r="EL43" s="43">
         <v>20</v>
       </c>
-      <c r="EH43" s="43">
-        <v>36</v>
-      </c>
-      <c r="EI43" s="43">
-        <v>24.7</v>
-      </c>
-      <c r="EJ43" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="EK43" s="43">
-        <v>35</v>
-      </c>
-      <c r="EL43" s="43">
+      <c r="EM43" s="43">
         <v>0</v>
       </c>
-      <c r="EM43" s="43">
-        <v>20</v>
-      </c>
       <c r="EN43" s="43">
-        <v>0</v>
-      </c>
-      <c r="EO43" s="43">
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>62</v>
       </c>
@@ -21948,9 +21853,8 @@
       <c r="EL44" s="4"/>
       <c r="EM44" s="4"/>
       <c r="EN44" s="4"/>
-      <c r="EO44" s="4"/>
     </row>
-    <row r="45" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
         <v>63</v>
       </c>
@@ -22096,9 +22000,8 @@
       <c r="EL45" s="4"/>
       <c r="EM45" s="4"/>
       <c r="EN45" s="4"/>
-      <c r="EO45" s="4"/>
     </row>
-    <row r="46" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>64</v>
       </c>
@@ -22244,9 +22147,8 @@
       <c r="EL46" s="4"/>
       <c r="EM46" s="4"/>
       <c r="EN46" s="4"/>
-      <c r="EO46" s="4"/>
     </row>
-    <row r="47" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
         <v>65</v>
       </c>
@@ -22392,9 +22294,8 @@
       <c r="EL47" s="4"/>
       <c r="EM47" s="4"/>
       <c r="EN47" s="4"/>
-      <c r="EO47" s="4"/>
     </row>
-    <row r="48" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>187</v>
       </c>
@@ -22547,9 +22448,8 @@
       <c r="EL48" s="1"/>
       <c r="EM48" s="1"/>
       <c r="EN48" s="1"/>
-      <c r="EO48" s="1"/>
     </row>
-    <row r="49" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>45</v>
       </c>
@@ -22699,9 +22599,8 @@
       <c r="EL49" s="1"/>
       <c r="EM49" s="1"/>
       <c r="EN49" s="1"/>
-      <c r="EO49" s="1"/>
     </row>
-    <row r="50" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
         <v>46</v>
       </c>
@@ -22847,9 +22746,8 @@
       <c r="EL50" s="1"/>
       <c r="EM50" s="1"/>
       <c r="EN50" s="1"/>
-      <c r="EO50" s="1"/>
     </row>
-    <row r="51" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
         <v>47</v>
       </c>
@@ -22995,9 +22893,8 @@
       <c r="EL51" s="1"/>
       <c r="EM51" s="1"/>
       <c r="EN51" s="1"/>
-      <c r="EO51" s="1"/>
     </row>
-    <row r="52" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
         <v>48</v>
       </c>
@@ -23143,9 +23040,8 @@
       <c r="EL52" s="4"/>
       <c r="EM52" s="4"/>
       <c r="EN52" s="4"/>
-      <c r="EO52" s="4"/>
     </row>
-    <row r="53" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
         <v>49</v>
       </c>
@@ -23291,9 +23187,8 @@
       <c r="EL53" s="4"/>
       <c r="EM53" s="4"/>
       <c r="EN53" s="4"/>
-      <c r="EO53" s="4"/>
     </row>
-    <row r="54" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
         <v>50</v>
       </c>
@@ -23439,9 +23334,8 @@
       <c r="EL54" s="4"/>
       <c r="EM54" s="4"/>
       <c r="EN54" s="4"/>
-      <c r="EO54" s="4"/>
     </row>
-    <row r="55" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
         <v>51</v>
       </c>
@@ -23587,9 +23481,8 @@
       <c r="EL55" s="4"/>
       <c r="EM55" s="4"/>
       <c r="EN55" s="4"/>
-      <c r="EO55" s="4"/>
     </row>
-    <row r="56" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B56" s="18" t="s">
         <v>70</v>
       </c>
@@ -23735,9 +23628,8 @@
       <c r="EL56" s="1"/>
       <c r="EM56" s="1"/>
       <c r="EN56" s="1"/>
-      <c r="EO56" s="1"/>
     </row>
-    <row r="57" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
         <v>71</v>
       </c>
@@ -23883,9 +23775,8 @@
       <c r="EL57" s="1"/>
       <c r="EM57" s="1"/>
       <c r="EN57" s="1"/>
-      <c r="EO57" s="1"/>
     </row>
-    <row r="58" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
         <v>72</v>
       </c>
@@ -24031,9 +23922,8 @@
       <c r="EL58" s="1"/>
       <c r="EM58" s="1"/>
       <c r="EN58" s="1"/>
-      <c r="EO58" s="1"/>
     </row>
-    <row r="59" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
         <v>73</v>
       </c>
@@ -24179,9 +24069,8 @@
       <c r="EL59" s="1"/>
       <c r="EM59" s="1"/>
       <c r="EN59" s="1"/>
-      <c r="EO59" s="1"/>
     </row>
-    <row r="60" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>184</v>
       </c>
@@ -24342,9 +24231,8 @@
       <c r="EL60" s="4"/>
       <c r="EM60" s="4"/>
       <c r="EN60" s="4"/>
-      <c r="EO60" s="4"/>
     </row>
-    <row r="61" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B61" s="17" t="s">
         <v>37</v>
       </c>
@@ -24502,9 +24390,8 @@
       <c r="EL61" s="4"/>
       <c r="EM61" s="4"/>
       <c r="EN61" s="4"/>
-      <c r="EO61" s="4"/>
     </row>
-    <row r="62" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B62" s="17" t="s">
         <v>38</v>
       </c>
@@ -24654,9 +24541,8 @@
       <c r="EL62" s="4"/>
       <c r="EM62" s="4"/>
       <c r="EN62" s="4"/>
-      <c r="EO62" s="4"/>
     </row>
-    <row r="63" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B63" s="17" t="s">
         <v>39</v>
       </c>
@@ -24806,9 +24692,8 @@
       <c r="EL63" s="4"/>
       <c r="EM63" s="4"/>
       <c r="EN63" s="4"/>
-      <c r="EO63" s="4"/>
     </row>
-    <row r="64" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B64" s="17" t="s">
         <v>40</v>
       </c>
@@ -25052,12 +24937,12 @@
       <c r="CU64" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="CV64" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="CW64" s="1">
+      <c r="CV64" s="1">
         <v>0</v>
       </c>
+      <c r="CW64" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="CX64" s="1" t="s">
         <v>449</v>
       </c>
@@ -25112,12 +24997,12 @@
       <c r="DO64" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DP64" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="DQ64" s="1">
+      <c r="DP64" s="1">
         <v>60</v>
       </c>
+      <c r="DQ64" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="DR64" s="1" t="s">
         <v>449</v>
       </c>
@@ -25127,12 +25012,12 @@
       <c r="DT64" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DU64" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="DV64" s="1">
+      <c r="DU64" s="1">
         <v>41.905000000000001</v>
       </c>
+      <c r="DV64" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="DW64" s="1" t="s">
         <v>449</v>
       </c>
@@ -25145,12 +25030,12 @@
       <c r="DZ64" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EA64" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="EB64" s="1">
+      <c r="EA64" s="1">
         <v>2</v>
       </c>
+      <c r="EB64" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="EC64" s="1" t="s">
         <v>449</v>
       </c>
@@ -25169,12 +25054,12 @@
       <c r="EH64" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EI64" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="EJ64" s="1">
+      <c r="EI64" s="1">
         <v>40.650999999999996</v>
       </c>
+      <c r="EJ64" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="EK64" s="1" t="s">
         <v>449</v>
       </c>
@@ -25187,11 +25072,8 @@
       <c r="EN64" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EO64" s="1" t="s">
-        <v>449</v>
-      </c>
     </row>
-    <row r="65" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B65" s="17" t="s">
         <v>41</v>
       </c>
@@ -25435,12 +25317,12 @@
       <c r="CU65" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="CV65" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="CW65" s="1">
+      <c r="CV65" s="1">
         <v>0</v>
       </c>
+      <c r="CW65" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="CX65" s="1" t="s">
         <v>449</v>
       </c>
@@ -25495,12 +25377,12 @@
       <c r="DO65" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DP65" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="DQ65" s="1">
+      <c r="DP65" s="1">
         <v>60</v>
       </c>
+      <c r="DQ65" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="DR65" s="1" t="s">
         <v>449</v>
       </c>
@@ -25510,12 +25392,12 @@
       <c r="DT65" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DU65" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="DV65" s="1">
+      <c r="DU65" s="1">
         <v>41.905000000000001</v>
       </c>
+      <c r="DV65" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="DW65" s="1" t="s">
         <v>449</v>
       </c>
@@ -25528,12 +25410,12 @@
       <c r="DZ65" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EA65" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="EB65" s="1">
+      <c r="EA65" s="1">
         <v>2</v>
       </c>
+      <c r="EB65" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="EC65" s="1" t="s">
         <v>449</v>
       </c>
@@ -25552,12 +25434,12 @@
       <c r="EH65" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EI65" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="EJ65" s="1">
+      <c r="EI65" s="1">
         <v>40.650999999999996</v>
       </c>
+      <c r="EJ65" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="EK65" s="1" t="s">
         <v>449</v>
       </c>
@@ -25570,11 +25452,8 @@
       <c r="EN65" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EO65" s="1" t="s">
-        <v>449</v>
-      </c>
     </row>
-    <row r="66" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B66" s="17" t="s">
         <v>42</v>
       </c>
@@ -25816,12 +25695,12 @@
       <c r="CU66" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="CV66" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="CW66" s="1">
+      <c r="CV66" s="1">
         <v>0</v>
       </c>
+      <c r="CW66" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="CX66" s="1" t="s">
         <v>449</v>
       </c>
@@ -25876,12 +25755,12 @@
       <c r="DO66" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DP66" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="DQ66" s="1">
+      <c r="DP66" s="1">
         <v>60</v>
       </c>
+      <c r="DQ66" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="DR66" s="1" t="s">
         <v>449</v>
       </c>
@@ -25891,12 +25770,12 @@
       <c r="DT66" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DU66" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="DV66" s="1">
+      <c r="DU66" s="1">
         <v>41.905000000000001</v>
       </c>
+      <c r="DV66" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="DW66" s="1" t="s">
         <v>449</v>
       </c>
@@ -25909,12 +25788,12 @@
       <c r="DZ66" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EA66" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="EB66" s="1">
+      <c r="EA66" s="1">
         <v>2</v>
       </c>
+      <c r="EB66" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="EC66" s="1" t="s">
         <v>449</v>
       </c>
@@ -25933,12 +25812,12 @@
       <c r="EH66" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EI66" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="EJ66" s="1">
+      <c r="EI66" s="1">
         <v>31.414000000000001</v>
       </c>
+      <c r="EJ66" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="EK66" s="1" t="s">
         <v>449</v>
       </c>
@@ -25951,11 +25830,8 @@
       <c r="EN66" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EO66" s="1" t="s">
-        <v>449</v>
-      </c>
     </row>
-    <row r="67" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B67" s="17" t="s">
         <v>43</v>
       </c>
@@ -26197,12 +26073,12 @@
       <c r="CU67" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="CV67" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="CW67" s="1">
+      <c r="CV67" s="1">
         <v>0</v>
       </c>
+      <c r="CW67" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="CX67" s="1" t="s">
         <v>449</v>
       </c>
@@ -26257,12 +26133,12 @@
       <c r="DO67" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DP67" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="DQ67" s="1">
+      <c r="DP67" s="1">
         <v>60</v>
       </c>
+      <c r="DQ67" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="DR67" s="1" t="s">
         <v>449</v>
       </c>
@@ -26272,12 +26148,12 @@
       <c r="DT67" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DU67" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="DV67" s="1">
+      <c r="DU67" s="1">
         <v>41.905000000000001</v>
       </c>
+      <c r="DV67" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="DW67" s="1" t="s">
         <v>449</v>
       </c>
@@ -26290,12 +26166,12 @@
       <c r="DZ67" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EA67" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="EB67" s="1">
+      <c r="EA67" s="1">
         <v>2</v>
       </c>
+      <c r="EB67" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="EC67" s="1" t="s">
         <v>449</v>
       </c>
@@ -26314,12 +26190,12 @@
       <c r="EH67" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EI67" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="EJ67" s="1">
+      <c r="EI67" s="1">
         <v>31.414000000000001</v>
       </c>
+      <c r="EJ67" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="EK67" s="1" t="s">
         <v>449</v>
       </c>
@@ -26332,11 +26208,8 @@
       <c r="EN67" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EO67" s="1" t="s">
-        <v>449</v>
-      </c>
     </row>
-    <row r="68" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B68" s="17" t="s">
         <v>66</v>
       </c>
@@ -26495,9 +26368,8 @@
       <c r="EL68" s="4"/>
       <c r="EM68" s="4"/>
       <c r="EN68" s="4"/>
-      <c r="EO68" s="4"/>
     </row>
-    <row r="69" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B69" s="17" t="s">
         <v>67</v>
       </c>
@@ -26656,9 +26528,8 @@
       <c r="EL69" s="4"/>
       <c r="EM69" s="4"/>
       <c r="EN69" s="4"/>
-      <c r="EO69" s="4"/>
     </row>
-    <row r="70" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B70" s="17" t="s">
         <v>68</v>
       </c>
@@ -26811,9 +26682,8 @@
       <c r="EL70" s="4"/>
       <c r="EM70" s="4"/>
       <c r="EN70" s="4"/>
-      <c r="EO70" s="4"/>
     </row>
-    <row r="71" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B71" s="17" t="s">
         <v>69</v>
       </c>
@@ -26966,9 +26836,8 @@
       <c r="EL71" s="4"/>
       <c r="EM71" s="4"/>
       <c r="EN71" s="4"/>
-      <c r="EO71" s="4"/>
     </row>
-    <row r="72" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>185</v>
       </c>
@@ -27117,9 +26986,8 @@
       <c r="EL72" s="1"/>
       <c r="EM72" s="1"/>
       <c r="EN72" s="1"/>
-      <c r="EO72" s="1"/>
     </row>
-    <row r="73" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B73" s="18" t="s">
         <v>53</v>
       </c>
@@ -27265,9 +27133,8 @@
       <c r="EL73" s="1"/>
       <c r="EM73" s="1"/>
       <c r="EN73" s="1"/>
-      <c r="EO73" s="1"/>
     </row>
-    <row r="74" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
         <v>54</v>
       </c>
@@ -27413,9 +27280,8 @@
       <c r="EL74" s="1"/>
       <c r="EM74" s="1"/>
       <c r="EN74" s="1"/>
-      <c r="EO74" s="1"/>
     </row>
-    <row r="75" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
         <v>55</v>
       </c>
@@ -27561,9 +27427,8 @@
       <c r="EL75" s="1"/>
       <c r="EM75" s="1"/>
       <c r="EN75" s="1"/>
-      <c r="EO75" s="1"/>
     </row>
-    <row r="76" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
         <v>56</v>
       </c>
@@ -27709,9 +27574,8 @@
       <c r="EL76" s="4"/>
       <c r="EM76" s="4"/>
       <c r="EN76" s="4"/>
-      <c r="EO76" s="4"/>
     </row>
-    <row r="77" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B77" s="18" t="s">
         <v>57</v>
       </c>
@@ -27857,9 +27721,8 @@
       <c r="EL77" s="4"/>
       <c r="EM77" s="4"/>
       <c r="EN77" s="4"/>
-      <c r="EO77" s="4"/>
     </row>
-    <row r="78" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
         <v>58</v>
       </c>
@@ -28005,9 +27868,8 @@
       <c r="EL78" s="4"/>
       <c r="EM78" s="4"/>
       <c r="EN78" s="4"/>
-      <c r="EO78" s="4"/>
     </row>
-    <row r="79" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B79" s="18" t="s">
         <v>59</v>
       </c>
@@ -28153,9 +28015,8 @@
       <c r="EL79" s="4"/>
       <c r="EM79" s="4"/>
       <c r="EN79" s="4"/>
-      <c r="EO79" s="4"/>
     </row>
-    <row r="80" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B80" s="18" t="s">
         <v>74</v>
       </c>
@@ -28301,9 +28162,8 @@
       <c r="EL80" s="1"/>
       <c r="EM80" s="1"/>
       <c r="EN80" s="1"/>
-      <c r="EO80" s="1"/>
     </row>
-    <row r="81" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B81" s="18" t="s">
         <v>75</v>
       </c>
@@ -28449,9 +28309,8 @@
       <c r="EL81" s="1"/>
       <c r="EM81" s="1"/>
       <c r="EN81" s="1"/>
-      <c r="EO81" s="1"/>
     </row>
-    <row r="82" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B82" s="18" t="s">
         <v>76</v>
       </c>
@@ -28597,9 +28456,8 @@
       <c r="EL82" s="1"/>
       <c r="EM82" s="1"/>
       <c r="EN82" s="1"/>
-      <c r="EO82" s="1"/>
     </row>
-    <row r="83" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B83" s="18" t="s">
         <v>77</v>
       </c>
@@ -28745,9 +28603,8 @@
       <c r="EL83" s="1"/>
       <c r="EM83" s="1"/>
       <c r="EN83" s="1"/>
-      <c r="EO83" s="1"/>
     </row>
-    <row r="84" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>133</v>
       </c>
@@ -28962,88 +28819,88 @@
         <v>6</v>
       </c>
       <c r="BT84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="BU84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="BV84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="BW84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BX84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="BZ84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="CA84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="CC84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="CD84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="CF84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="CG84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="CH84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="CI84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="CJ84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="CK84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="CL84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="CM84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="CN84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="CO84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="CP84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="CQ84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU84" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="CR84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="CS84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="CU84" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="CV84" s="5" t="s">
         <v>6</v>
@@ -29052,16 +28909,16 @@
         <v>6</v>
       </c>
       <c r="CX84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CY84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DA84" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="CY84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="CZ84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DA84" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="DB84" s="5" t="s">
         <v>6</v>
@@ -29070,109 +28927,109 @@
         <v>6</v>
       </c>
       <c r="DD84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DF84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DI84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DJ84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DK84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DL84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="DE84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DF84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DG84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DH84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DI84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DJ84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DK84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DL84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DM84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DN84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="DO84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP84" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="DP84" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="DQ84" s="5" t="s">
         <v>6</v>
       </c>
       <c r="DR84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DS84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="DS84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DT84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="DU84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DV84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DW84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="DV84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DW84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="DX84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DY84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="DY84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DZ84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="EA84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EB84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EC84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="ED84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EE84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="EB84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="EC84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="ED84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="EE84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="EF84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EG84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="EG84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="EH84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EI84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="EI84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="EJ84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EK84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="EK84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="EL84" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="EM84" s="5" t="s">
         <v>7</v>
@@ -29180,11 +29037,8 @@
       <c r="EN84" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="EO84" s="5" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="85" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85" s="10" t="s">
         <v>60</v>
@@ -29370,107 +29224,107 @@
       <c r="BS85" s="5">
         <v>2050</v>
       </c>
-      <c r="BT85" s="5">
+      <c r="BT85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="BU85" s="5">
+        <v>2060</v>
+      </c>
+      <c r="BV85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="BW85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="BX85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="BY85" s="5">
         <v>2050</v>
       </c>
-      <c r="BU85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="BV85" s="5">
-        <v>2060</v>
-      </c>
-      <c r="BW85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="BX85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="BY85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="BZ85" s="5">
+      <c r="BZ85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CA85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CB85" s="5">
         <v>2050</v>
       </c>
-      <c r="CA85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CB85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CC85" s="5">
+      <c r="CC85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CD85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CE85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CF85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CG85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CH85" s="5">
         <v>2050</v>
       </c>
-      <c r="CD85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CE85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CF85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CG85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CH85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CI85" s="5">
+      <c r="CI85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CJ85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CK85" s="5">
         <v>2050</v>
       </c>
-      <c r="CJ85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CK85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CL85" s="5">
+      <c r="CL85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CM85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CN85" s="5">
         <v>2050</v>
       </c>
-      <c r="CM85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CN85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CO85" s="5">
+      <c r="CO85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CP85" s="5">
         <v>2050</v>
       </c>
-      <c r="CP85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CQ85" s="5">
+      <c r="CQ85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CR85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CS85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CT85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CU85" s="5">
         <v>2050</v>
-      </c>
-      <c r="CR85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CS85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CT85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CU85" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="CV85" s="5">
         <v>2050</v>
       </c>
       <c r="CW85" s="5">
+        <v>2045</v>
+      </c>
+      <c r="CX85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CY85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CZ85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DA85" s="5">
         <v>2050</v>
-      </c>
-      <c r="CX85" s="5">
-        <v>2045</v>
-      </c>
-      <c r="CY85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CZ85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DA85" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="DB85" s="5">
         <v>2050</v>
@@ -29478,110 +29332,110 @@
       <c r="DC85" s="5">
         <v>2050</v>
       </c>
-      <c r="DD85" s="5">
+      <c r="DD85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DE85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DF85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DG85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DH85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DI85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DJ85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DK85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DL85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DM85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DN85" s="5">
         <v>2050</v>
       </c>
-      <c r="DE85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DF85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DG85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DH85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DI85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DJ85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DK85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DL85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DM85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DN85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DO85" s="5">
+      <c r="DO85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DP85" s="5">
         <v>2050</v>
-      </c>
-      <c r="DP85" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="DQ85" s="5">
         <v>2050</v>
       </c>
-      <c r="DR85" s="5">
+      <c r="DR85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DS85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DT85" s="5">
         <v>2050</v>
       </c>
-      <c r="DS85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DT85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DU85" s="5">
+      <c r="DU85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DV85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DW85" s="5">
         <v>2050</v>
       </c>
-      <c r="DV85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DW85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DX85" s="5">
+      <c r="DX85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DY85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DZ85" s="5">
+        <v>2065</v>
+      </c>
+      <c r="EA85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EB85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EC85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="ED85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EE85" s="5">
         <v>2050</v>
       </c>
-      <c r="DY85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DZ85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EA85" s="5">
-        <v>2065</v>
-      </c>
-      <c r="EB85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EC85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="ED85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EE85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EF85" s="5">
+      <c r="EF85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EG85" s="5">
         <v>2050</v>
       </c>
-      <c r="EG85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EH85" s="5">
+      <c r="EH85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EI85" s="5">
         <v>2050</v>
       </c>
-      <c r="EI85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EJ85" s="5">
+      <c r="EJ85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EK85" s="5">
         <v>2050</v>
       </c>
-      <c r="EK85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EL85" s="5">
-        <v>2050</v>
+      <c r="EL85" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="EM85" s="5" t="s">
         <v>449</v>
@@ -29589,11 +29443,8 @@
       <c r="EN85" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="EO85" s="5" t="s">
-        <v>449</v>
-      </c>
     </row>
-    <row r="86" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
       <c r="B86" s="10" t="s">
         <v>196</v>
@@ -29780,88 +29631,88 @@
         <v>119</v>
       </c>
       <c r="BT86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="BU86" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BV86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="BW86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="BX86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="BY86" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CA86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CB86" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="BU86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="BV86" s="5" t="s">
+      <c r="CC86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CD86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CE86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CF86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CG86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CH86" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="BW86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="BX86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="BY86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="BZ86" s="5" t="s">
+      <c r="CI86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CJ86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CK86" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="CA86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CB86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CC86" s="5" t="s">
+      <c r="CL86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CM86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CN86" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="CO86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CP86" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="CD86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CE86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CF86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CG86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CH86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CI86" s="5" t="s">
+      <c r="CQ86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CR86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CS86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CT86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CU86" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="CJ86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CK86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CL86" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="CM86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CN86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CO86" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="CP86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CQ86" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="CR86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CS86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CT86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CU86" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="CV86" s="5" t="s">
         <v>119</v>
@@ -29870,16 +29721,16 @@
         <v>119</v>
       </c>
       <c r="CX86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CY86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CZ86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DA86" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="CY86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CZ86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DA86" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="DB86" s="5" t="s">
         <v>119</v>
@@ -29888,109 +29739,109 @@
         <v>119</v>
       </c>
       <c r="DD86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DE86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DF86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DG86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DH86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DI86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DJ86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DK86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DL86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DM86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DN86" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DE86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DF86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DG86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DH86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DI86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DJ86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DK86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DL86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DM86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DN86" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="DO86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DP86" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DP86" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="DQ86" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DS86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DT86" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DR86" s="5" t="s">
+      <c r="DU86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DV86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DW86" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="DX86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DY86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DZ86" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="EA86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EB86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EC86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="ED86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EE86" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="DS86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DT86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DU86" s="5" t="s">
+      <c r="EF86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EG86" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DV86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DW86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DX86" s="5" t="s">
+      <c r="EH86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EI86" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DY86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DZ86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EA86" s="5" t="s">
+      <c r="EJ86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EK86" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="EB86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EC86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="ED86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EE86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EF86" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EG86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EH86" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="EI86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EJ86" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="EK86" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="EL86" s="5" t="s">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="EM86" s="5" t="s">
         <v>449</v>
@@ -29998,11 +29849,8 @@
       <c r="EN86" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="EO86" s="5" t="s">
-        <v>449</v>
-      </c>
     </row>
-    <row r="87" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="B87" s="10" t="s">
         <v>197</v>
@@ -30189,88 +30037,88 @@
         <v>161</v>
       </c>
       <c r="BT87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="BU87" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BV87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="BW87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="BX87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="BY87" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BZ87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CA87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CB87" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="BU87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="BV87" s="5" t="s">
+      <c r="CC87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CD87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CE87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CF87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CG87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CH87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="BW87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="BX87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="BY87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="BZ87" s="5" t="s">
+      <c r="CI87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CJ87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CK87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="CA87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CB87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CC87" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="CD87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CE87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CF87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CG87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CH87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CI87" s="5" t="s">
+      <c r="CL87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CM87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CN87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="CJ87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CK87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CL87" s="5" t="s">
+      <c r="CO87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CP87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="CM87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CN87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CO87" s="5" t="s">
+      <c r="CQ87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CR87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CS87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CT87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CU87" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="CP87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CQ87" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="CR87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CS87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CT87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CU87" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="CV87" s="5" t="s">
         <v>161</v>
@@ -30279,16 +30127,16 @@
         <v>161</v>
       </c>
       <c r="CX87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CY87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CZ87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DA87" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="CY87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="CZ87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DA87" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="DB87" s="5" t="s">
         <v>161</v>
@@ -30297,109 +30145,109 @@
         <v>161</v>
       </c>
       <c r="DD87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DE87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DF87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DG87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DH87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DI87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DJ87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DK87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DL87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DM87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DN87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="DE87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DF87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DG87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DH87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DI87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DJ87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DK87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DL87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DM87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DN87" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="DO87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DP87" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="DP87" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="DQ87" s="5" t="s">
         <v>161</v>
       </c>
       <c r="DR87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DS87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DT87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="DS87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DT87" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="DU87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DV87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DW87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="DV87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DW87" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="DX87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DY87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DZ87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="DY87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DZ87" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="EA87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EB87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EC87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="ED87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EE87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="EB87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EC87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="ED87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EE87" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="EF87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EG87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="EG87" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="EH87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EI87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="EI87" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="EJ87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EK87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="EK87" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="EL87" s="5" t="s">
-        <v>161</v>
+        <v>449</v>
       </c>
       <c r="EM87" s="5" t="s">
         <v>449</v>
@@ -30407,11 +30255,8 @@
       <c r="EN87" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="EO87" s="5" t="s">
-        <v>449</v>
-      </c>
     </row>
-    <row r="88" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
         <v>171</v>
       </c>
@@ -30626,31 +30471,31 @@
         <v>6</v>
       </c>
       <c r="BT88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW88" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="BU88" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV88" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BW88" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="BX88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY88" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="BY88" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="BZ88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB88" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="CA88" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB88" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="CC88" s="5" t="s">
         <v>6</v>
@@ -30671,22 +30516,22 @@
         <v>6</v>
       </c>
       <c r="CI88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK88" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="CJ88" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="CK88" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="CL88" s="5" t="s">
         <v>6</v>
       </c>
       <c r="CM88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN88" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="CN88" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="CO88" s="5" t="s">
         <v>6</v>
@@ -30704,10 +30549,10 @@
         <v>6</v>
       </c>
       <c r="CT88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU88" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="CU88" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="CV88" s="5" t="s">
         <v>6</v>
@@ -30722,22 +30567,22 @@
         <v>6</v>
       </c>
       <c r="CZ88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DA88" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="DA88" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="DB88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC88" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="DC88" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="DD88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE88" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="DE88" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="DF88" s="5" t="s">
         <v>6</v>
@@ -30752,43 +30597,43 @@
         <v>6</v>
       </c>
       <c r="DJ88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DK88" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="DK88" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="DL88" s="5" t="s">
         <v>6</v>
       </c>
       <c r="DM88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DO88" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="DN88" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DO88" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="DP88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DQ88" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="DQ88" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="DR88" s="5" t="s">
         <v>6</v>
       </c>
       <c r="DS88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT88" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="DT88" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="DU88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DV88" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="DV88" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="DW88" s="5" t="s">
         <v>6</v>
@@ -30800,10 +30645,10 @@
         <v>6</v>
       </c>
       <c r="DZ88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EA88" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="EA88" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="EB88" s="5" t="s">
         <v>6</v>
@@ -30818,10 +30663,10 @@
         <v>6</v>
       </c>
       <c r="EF88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EG88" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="EG88" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="EH88" s="5" t="s">
         <v>6</v>
@@ -30844,11 +30689,8 @@
       <c r="EN88" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="EO88" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="89" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
       <c r="B89" s="10" t="s">
         <v>23</v>
@@ -31047,196 +30889,196 @@
         <v>2008</v>
       </c>
       <c r="BT89" s="3">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="BU89" s="3">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="BV89" s="3">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="BW89" s="3">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="BX89" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="BY89" s="3">
         <v>2018</v>
       </c>
       <c r="BZ89" s="3">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="CA89" s="3">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="CB89" s="3">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="CC89" s="3">
         <v>2015</v>
       </c>
       <c r="CD89" s="3">
-        <v>2015</v>
+        <v>1990</v>
       </c>
       <c r="CE89" s="3">
         <v>1990</v>
       </c>
       <c r="CF89" s="3">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="CG89" s="3">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="CH89" s="3">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="CI89" s="3">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="CJ89" s="3">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="CK89" s="3">
         <v>2010</v>
       </c>
       <c r="CL89" s="3">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="CM89" s="3">
         <v>2018</v>
       </c>
       <c r="CN89" s="3">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="CO89" s="3">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="CP89" s="3">
         <v>1990</v>
       </c>
       <c r="CQ89" s="3">
+        <v>2010</v>
+      </c>
+      <c r="CR89" s="3">
         <v>1990</v>
       </c>
-      <c r="CR89" s="3">
+      <c r="CS89" s="3">
         <v>2010</v>
       </c>
-      <c r="CS89" s="3">
-        <v>1990</v>
-      </c>
       <c r="CT89" s="3">
+        <v>2018</v>
+      </c>
+      <c r="CU89" s="3">
+        <v>2015</v>
+      </c>
+      <c r="CV89" s="3">
+        <v>2014</v>
+      </c>
+      <c r="CW89" s="3">
+        <v>2011</v>
+      </c>
+      <c r="CX89" s="3">
+        <v>2018</v>
+      </c>
+      <c r="CY89" s="3">
+        <v>2014</v>
+      </c>
+      <c r="CZ89" s="3">
+        <v>2009</v>
+      </c>
+      <c r="DA89" s="3">
+        <v>2005</v>
+      </c>
+      <c r="DB89" s="3">
+        <v>2018</v>
+      </c>
+      <c r="DC89" s="3">
+        <v>2015</v>
+      </c>
+      <c r="DD89" s="3">
+        <v>2018</v>
+      </c>
+      <c r="DE89" s="3">
+        <v>2015</v>
+      </c>
+      <c r="DF89" s="3">
         <v>2010</v>
-      </c>
-      <c r="CU89" s="3">
-        <v>2018</v>
-      </c>
-      <c r="CV89" s="3">
-        <v>2015</v>
-      </c>
-      <c r="CW89" s="3">
-        <v>2014</v>
-      </c>
-      <c r="CX89" s="3">
-        <v>2011</v>
-      </c>
-      <c r="CY89" s="3">
-        <v>2018</v>
-      </c>
-      <c r="CZ89" s="3">
-        <v>2014</v>
-      </c>
-      <c r="DA89" s="3">
-        <v>2009</v>
-      </c>
-      <c r="DB89" s="3">
-        <v>2005</v>
-      </c>
-      <c r="DC89" s="3">
-        <v>2018</v>
-      </c>
-      <c r="DD89" s="3">
-        <v>2015</v>
-      </c>
-      <c r="DE89" s="3">
-        <v>2018</v>
-      </c>
-      <c r="DF89" s="3">
-        <v>2015</v>
       </c>
       <c r="DG89" s="3">
         <v>2010</v>
       </c>
       <c r="DH89" s="3">
+        <v>2000</v>
+      </c>
+      <c r="DI89" s="3">
+        <v>2007</v>
+      </c>
+      <c r="DJ89" s="3">
+        <v>2005</v>
+      </c>
+      <c r="DK89" s="3">
+        <v>2012</v>
+      </c>
+      <c r="DL89" s="3">
         <v>2010</v>
-      </c>
-      <c r="DI89" s="3">
-        <v>2000</v>
-      </c>
-      <c r="DJ89" s="3">
-        <v>2007</v>
-      </c>
-      <c r="DK89" s="3">
-        <v>2005</v>
-      </c>
-      <c r="DL89" s="3">
-        <v>2012</v>
       </c>
       <c r="DM89" s="3">
         <v>2010</v>
       </c>
       <c r="DN89" s="3">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="DO89" s="3">
+        <v>2005</v>
+      </c>
+      <c r="DP89" s="3">
         <v>2018</v>
       </c>
-      <c r="DP89" s="3">
-        <v>2005</v>
-      </c>
       <c r="DQ89" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="DR89" s="3">
         <v>2015</v>
       </c>
       <c r="DS89" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="DT89" s="3">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="DU89" s="3">
         <v>2018</v>
       </c>
       <c r="DV89" s="3">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="DW89" s="3">
-        <v>2008</v>
+        <v>1990</v>
       </c>
       <c r="DX89" s="3">
         <v>1990</v>
       </c>
       <c r="DY89" s="3">
-        <v>1990</v>
+        <v>2014</v>
       </c>
       <c r="DZ89" s="3">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="EA89" s="3">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="EB89" s="3">
         <v>2010</v>
       </c>
       <c r="EC89" s="3">
+        <v>2006</v>
+      </c>
+      <c r="ED89" s="3">
+        <v>2013</v>
+      </c>
+      <c r="EE89" s="3">
         <v>2010</v>
-      </c>
-      <c r="ED89" s="3">
-        <v>2006</v>
-      </c>
-      <c r="EE89" s="3">
-        <v>2013</v>
       </c>
       <c r="EF89" s="3">
         <v>2010</v>
@@ -31245,31 +31087,28 @@
         <v>2010</v>
       </c>
       <c r="EH89" s="3">
+        <v>2015</v>
+      </c>
+      <c r="EI89" s="3">
+        <v>2019</v>
+      </c>
+      <c r="EJ89" s="3">
         <v>2010</v>
-      </c>
-      <c r="EI89" s="3">
-        <v>2015</v>
-      </c>
-      <c r="EJ89" s="3">
-        <v>2019</v>
       </c>
       <c r="EK89" s="3">
         <v>2010</v>
       </c>
       <c r="EL89" s="3">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="EM89" s="3">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="EN89" s="3">
-        <v>2015</v>
-      </c>
-      <c r="EO89" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="90" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A90" s="20"/>
       <c r="B90" s="10" t="s">
         <v>113</v>
@@ -31452,9 +31291,8 @@
       <c r="EL90" s="3"/>
       <c r="EM90" s="3"/>
       <c r="EN90" s="3"/>
-      <c r="EO90" s="3"/>
     </row>
-    <row r="91" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="B91" s="10" t="s">
         <v>114</v>
@@ -31607,9 +31445,8 @@
       <c r="EL91" s="3"/>
       <c r="EM91" s="3"/>
       <c r="EN91" s="3"/>
-      <c r="EO91" s="3"/>
     </row>
-    <row r="92" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
       <c r="B92" s="10" t="s">
         <v>127</v>
@@ -31792,9 +31629,8 @@
       <c r="EL92" s="3"/>
       <c r="EM92" s="3"/>
       <c r="EN92" s="3"/>
-      <c r="EO92" s="3"/>
     </row>
-    <row r="93" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A93" s="20" t="s">
         <v>172</v>
       </c>
@@ -31976,9 +31812,8 @@
       <c r="EL93" s="31"/>
       <c r="EM93" s="31"/>
       <c r="EN93" s="31"/>
-      <c r="EO93" s="31"/>
     </row>
-    <row r="94" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
       <c r="B94" s="14" t="s">
         <v>80</v>
@@ -32157,8 +31992,8 @@
       <c r="BS94" s="31">
         <v>794</v>
       </c>
-      <c r="BT94" s="31">
-        <v>79.45</v>
+      <c r="BT94" s="31" t="s">
+        <v>449</v>
       </c>
       <c r="BU94" s="31" t="s">
         <v>449</v>
@@ -32166,221 +32001,218 @@
       <c r="BV94" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="BW94" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="BX94" s="31">
+      <c r="BW94" s="31">
         <v>9.6500000000000002E-2</v>
       </c>
-      <c r="BY94" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="BZ94" s="31">
+      <c r="BX94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="BY94" s="31">
         <v>727.6</v>
       </c>
+      <c r="BZ94" s="31" t="s">
+        <v>449</v>
+      </c>
       <c r="CA94" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="CB94" s="31" t="s">
-        <v>449</v>
+      <c r="CB94" s="31">
+        <v>5.37575</v>
       </c>
       <c r="CC94" s="31">
-        <v>5.37575</v>
+        <v>100</v>
       </c>
       <c r="CD94" s="31">
-        <v>100</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="CE94" s="31">
-        <v>0.22800000000000001</v>
+        <v>12.478</v>
       </c>
       <c r="CF94" s="31">
-        <v>12.478</v>
+        <v>87</v>
       </c>
       <c r="CG94" s="31">
-        <v>87</v>
+        <v>9.33</v>
       </c>
       <c r="CH94" s="31">
-        <v>9.33</v>
-      </c>
-      <c r="CI94" s="31">
         <v>250.04300000000001</v>
       </c>
+      <c r="CI94" s="31" t="s">
+        <v>449</v>
+      </c>
       <c r="CJ94" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="CK94" s="31" t="s">
-        <v>449</v>
+      <c r="CK94" s="31">
+        <v>0.185</v>
       </c>
       <c r="CL94" s="31">
-        <v>0.185</v>
-      </c>
-      <c r="CM94" s="31">
         <v>9.9440000000000008</v>
       </c>
-      <c r="CN94" s="31" t="s">
-        <v>449</v>
+      <c r="CM94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="CN94" s="31">
+        <v>0.108</v>
       </c>
       <c r="CO94" s="31">
-        <v>0.108</v>
+        <v>44.9</v>
       </c>
       <c r="CP94" s="31">
-        <v>44.9</v>
+        <v>0.1</v>
       </c>
       <c r="CQ94" s="31">
-        <v>0.1</v>
+        <v>25.8</v>
       </c>
       <c r="CR94" s="31">
-        <v>25.8</v>
+        <v>5.383</v>
       </c>
       <c r="CS94" s="31">
-        <v>5.383</v>
-      </c>
-      <c r="CT94" s="31">
         <v>72.978999999999999</v>
       </c>
-      <c r="CU94" s="31" t="s">
-        <v>449</v>
+      <c r="CT94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="CU94" s="31">
+        <v>21.08</v>
       </c>
       <c r="CV94" s="31">
-        <v>21.08</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="CW94" s="31">
-        <v>6.0999999999999999E-2</v>
+        <v>31.998000000000001</v>
       </c>
       <c r="CX94" s="31">
-        <v>31.998000000000001</v>
+        <v>35</v>
       </c>
       <c r="CY94" s="31">
+        <v>28.777000000000001</v>
+      </c>
+      <c r="CZ94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="DA94" s="31">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="DB94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="DC94" s="31">
+        <v>15.193</v>
+      </c>
+      <c r="DD94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="DE94" s="31">
+        <v>5.33</v>
+      </c>
+      <c r="DF94" s="31">
+        <v>0.253</v>
+      </c>
+      <c r="DG94" s="31">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="DH94" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="DI94" s="31">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="DJ94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="DK94" s="31">
+        <v>0.154</v>
+      </c>
+      <c r="DL94" s="31">
+        <v>16.751999999999999</v>
+      </c>
+      <c r="DM94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="DN94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="DO94" s="31">
+        <v>20.34</v>
+      </c>
+      <c r="DP94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="DQ94" s="31">
+        <v>0.70742499999999997</v>
+      </c>
+      <c r="DR94" s="31">
+        <v>53.7</v>
+      </c>
+      <c r="DS94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="DT94" s="31">
+        <v>25</v>
+      </c>
+      <c r="DU94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="DV94" s="31">
+        <v>5.3405699999999996</v>
+      </c>
+      <c r="DW94" s="31">
+        <v>54.158000000000001</v>
+      </c>
+      <c r="DX94" s="31">
+        <v>35.53</v>
+      </c>
+      <c r="DY94" s="31">
+        <v>84.455800000000011</v>
+      </c>
+      <c r="DZ94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="EA94" s="31">
+        <v>1.4830000000000001</v>
+      </c>
+      <c r="EB94" s="31">
+        <v>16.802</v>
+      </c>
+      <c r="EC94" s="31">
+        <v>0.31</v>
+      </c>
+      <c r="ED94" s="31">
+        <v>34.234000000000002</v>
+      </c>
+      <c r="EE94" s="31">
         <v>35</v>
       </c>
-      <c r="CZ94" s="31">
-        <v>28.777000000000001</v>
-      </c>
-      <c r="DA94" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="DB94" s="31">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="DC94" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="DD94" s="31">
-        <v>15.193</v>
-      </c>
-      <c r="DE94" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="DF94" s="31">
-        <v>5.33</v>
-      </c>
-      <c r="DG94" s="31">
-        <v>0.253</v>
-      </c>
-      <c r="DH94" s="31">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="DI94" s="31">
-        <v>0.2</v>
-      </c>
-      <c r="DJ94" s="31">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="DK94" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="DL94" s="31">
-        <v>0.154</v>
-      </c>
-      <c r="DM94" s="31">
-        <v>16.751999999999999</v>
-      </c>
-      <c r="DN94" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="DO94" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="DP94" s="31">
-        <v>20.34</v>
-      </c>
-      <c r="DQ94" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="DR94" s="31">
-        <v>0.70742499999999997</v>
-      </c>
-      <c r="DS94" s="31">
-        <v>53.7</v>
-      </c>
-      <c r="DT94" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="DU94" s="31">
-        <v>25</v>
-      </c>
-      <c r="DV94" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="DW94" s="31">
-        <v>5.3405699999999996</v>
-      </c>
-      <c r="DX94" s="31">
-        <v>54.158000000000001</v>
-      </c>
-      <c r="DY94" s="31">
-        <v>35.53</v>
-      </c>
-      <c r="DZ94" s="31">
-        <v>84.455800000000011</v>
-      </c>
-      <c r="EA94" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="EB94" s="31">
-        <v>1.4830000000000001</v>
-      </c>
-      <c r="EC94" s="31">
-        <v>16.802</v>
-      </c>
-      <c r="ED94" s="31">
-        <v>0.31</v>
-      </c>
-      <c r="EE94" s="31">
-        <v>34.234000000000002</v>
-      </c>
-      <c r="EF94" s="31">
-        <v>35</v>
-      </c>
-      <c r="EG94" s="31" t="s">
-        <v>449</v>
+      <c r="EF94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="EG94" s="31">
+        <v>0.02</v>
       </c>
       <c r="EH94" s="31">
-        <v>0.02</v>
+        <v>90.1</v>
       </c>
       <c r="EI94" s="31">
-        <v>90.1</v>
+        <v>34.612000000000002</v>
       </c>
       <c r="EJ94" s="31">
-        <v>34.612000000000002</v>
+        <v>200.1</v>
       </c>
       <c r="EK94" s="31">
-        <v>200.1</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="EL94" s="31">
-        <v>0.72799999999999998</v>
+        <v>240</v>
       </c>
       <c r="EM94" s="31">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="EN94" s="31">
-        <v>60</v>
-      </c>
-      <c r="EO94" s="31">
         <v>35.840000000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
       <c r="B95" s="14" t="s">
         <v>81</v>
@@ -32544,9 +32376,8 @@
       <c r="EL95" s="31"/>
       <c r="EM95" s="31"/>
       <c r="EN95" s="31"/>
-      <c r="EO95" s="31"/>
     </row>
-    <row r="96" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
         <v>247</v>
       </c>
@@ -32697,9 +32528,8 @@
       <c r="EL96" s="31"/>
       <c r="EM96" s="31"/>
       <c r="EN96" s="31"/>
-      <c r="EO96" s="31"/>
     </row>
-    <row r="97" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
       <c r="B97" s="14" t="s">
         <v>83</v>
@@ -32848,9 +32678,8 @@
       <c r="EL97" s="31"/>
       <c r="EM97" s="31"/>
       <c r="EN97" s="31"/>
-      <c r="EO97" s="31"/>
     </row>
-    <row r="98" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A98" s="20"/>
       <c r="B98" s="14" t="s">
         <v>84</v>
@@ -32999,9 +32828,8 @@
       <c r="EL98" s="31"/>
       <c r="EM98" s="31"/>
       <c r="EN98" s="31"/>
-      <c r="EO98" s="31"/>
     </row>
-    <row r="99" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
       <c r="B99" s="14" t="s">
         <v>85</v>
@@ -33150,9 +32978,8 @@
       <c r="EL99" s="31"/>
       <c r="EM99" s="31"/>
       <c r="EN99" s="31"/>
-      <c r="EO99" s="31"/>
     </row>
-    <row r="100" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
         <v>134</v>
       </c>
@@ -33305,9 +33132,8 @@
       <c r="EL100" s="30"/>
       <c r="EM100" s="30"/>
       <c r="EN100" s="30"/>
-      <c r="EO100" s="30"/>
     </row>
-    <row r="101" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A101" s="20"/>
       <c r="B101" s="14" t="s">
         <v>87</v>
@@ -33459,9 +33285,8 @@
       <c r="EL101" s="30"/>
       <c r="EM101" s="30"/>
       <c r="EN101" s="30"/>
-      <c r="EO101" s="30"/>
     </row>
-    <row r="102" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A102" s="20"/>
       <c r="B102" s="14" t="s">
         <v>88</v>
@@ -33612,9 +33437,8 @@
       <c r="EL102" s="30"/>
       <c r="EM102" s="30"/>
       <c r="EN102" s="30"/>
-      <c r="EO102" s="30"/>
     </row>
-    <row r="103" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A103" s="20"/>
       <c r="B103" s="14" t="s">
         <v>89</v>
@@ -33761,9 +33585,8 @@
       <c r="EL103" s="30"/>
       <c r="EM103" s="30"/>
       <c r="EN103" s="30"/>
-      <c r="EO103" s="30"/>
     </row>
-    <row r="104" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A104" s="20"/>
       <c r="B104" s="14" t="s">
         <v>90</v>
@@ -33910,9 +33733,8 @@
       <c r="EL104" s="30"/>
       <c r="EM104" s="30"/>
       <c r="EN104" s="30"/>
-      <c r="EO104" s="30"/>
     </row>
-    <row r="105" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A105" s="20"/>
       <c r="B105" s="14" t="s">
         <v>91</v>
@@ -34059,9 +33881,8 @@
       <c r="EL105" s="30"/>
       <c r="EM105" s="30"/>
       <c r="EN105" s="30"/>
-      <c r="EO105" s="30"/>
     </row>
-    <row r="106" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A106" s="20"/>
       <c r="B106" s="14" t="s">
         <v>92</v>
@@ -34208,9 +34029,8 @@
       <c r="EL106" s="30"/>
       <c r="EM106" s="30"/>
       <c r="EN106" s="30"/>
-      <c r="EO106" s="30"/>
     </row>
-    <row r="107" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A107" s="22"/>
       <c r="B107" s="36" t="s">
         <v>272</v>
@@ -34357,9 +34177,8 @@
       <c r="EL107" s="30"/>
       <c r="EM107" s="30"/>
       <c r="EN107" s="30"/>
-      <c r="EO107" s="30"/>
     </row>
-    <row r="108" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>173</v>
       </c>
@@ -34574,13 +34393,13 @@
         <v>7</v>
       </c>
       <c r="BT108" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BU108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="BV108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="BW108" s="21" t="s">
         <v>6</v>
@@ -34589,10 +34408,10 @@
         <v>6</v>
       </c>
       <c r="BY108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="BZ108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="CA108" s="21" t="s">
         <v>6</v>
@@ -34601,55 +34420,55 @@
         <v>6</v>
       </c>
       <c r="CC108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="CD108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="CF108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="CG108" s="21" t="s">
         <v>6</v>
       </c>
       <c r="CH108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI108" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="CI108" s="21" t="s">
-        <v>7</v>
-      </c>
       <c r="CJ108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="CK108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="CL108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="CM108" s="21" t="s">
         <v>6</v>
       </c>
       <c r="CN108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ108" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="CO108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="CQ108" s="21" t="s">
-        <v>7</v>
-      </c>
       <c r="CR108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="CS108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="CT108" s="21" t="s">
         <v>6</v>
@@ -34658,109 +34477,109 @@
         <v>6</v>
       </c>
       <c r="CV108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CX108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="CW108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="CX108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="CY108" s="21" t="s">
         <v>6</v>
       </c>
       <c r="CZ108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="DA108" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="DA108" s="21" t="s">
-        <v>7</v>
-      </c>
       <c r="DB108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="DD108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="DC108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="DD108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="DE108" s="21" t="s">
         <v>6</v>
       </c>
       <c r="DF108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="DG108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="DH108" s="21" t="s">
         <v>6</v>
       </c>
       <c r="DI108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="DJ108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="DK108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="DJ108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="DK108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="DL108" s="21" t="s">
         <v>6</v>
       </c>
       <c r="DM108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="DN108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="DO108" s="21" t="s">
         <v>6</v>
       </c>
       <c r="DP108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="DQ108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="DQ108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="DR108" s="21" t="s">
         <v>6</v>
       </c>
       <c r="DS108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="DT108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="DU108" s="21" t="s">
         <v>6</v>
       </c>
       <c r="DV108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="DW108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="DY108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="DW108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="DX108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="DY108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="DZ108" s="21" t="s">
         <v>6</v>
       </c>
       <c r="EA108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="EB108" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="EB108" s="21" t="s">
-        <v>7</v>
-      </c>
       <c r="EC108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="ED108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="ED108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="EE108" s="21" t="s">
         <v>6</v>
@@ -34769,34 +34588,31 @@
         <v>6</v>
       </c>
       <c r="EG108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="EH108" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="EH108" s="21" t="s">
-        <v>7</v>
-      </c>
       <c r="EI108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="EJ108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="EK108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL108" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="EJ108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="EK108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="EL108" s="21" t="s">
-        <v>7</v>
-      </c>
       <c r="EM108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="EN108" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="EN108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="EO108" s="21" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="109" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
         <v>24</v>
       </c>
@@ -35190,11 +35006,8 @@
       <c r="EN109" s="3">
         <v>2030</v>
       </c>
-      <c r="EO109" s="3">
-        <v>2030</v>
-      </c>
     </row>
-    <row r="110" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>117</v>
       </c>
@@ -35360,9 +35173,8 @@
       <c r="EL110" s="3"/>
       <c r="EM110" s="3"/>
       <c r="EN110" s="3"/>
-      <c r="EO110" s="3"/>
     </row>
-    <row r="111" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
         <v>118</v>
       </c>
@@ -35508,9 +35320,8 @@
       <c r="EL111" s="3"/>
       <c r="EM111" s="3"/>
       <c r="EN111" s="3"/>
-      <c r="EO111" s="3"/>
     </row>
-    <row r="112" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
         <v>127</v>
       </c>
@@ -35676,9 +35487,8 @@
       <c r="EL112" s="3"/>
       <c r="EM112" s="3"/>
       <c r="EN112" s="3"/>
-      <c r="EO112" s="3"/>
     </row>
-    <row r="113" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="s">
         <v>174</v>
       </c>
@@ -35847,9 +35657,8 @@
       <c r="EL113" s="2"/>
       <c r="EM113" s="2"/>
       <c r="EN113" s="2"/>
-      <c r="EO113" s="2"/>
     </row>
-    <row r="114" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B114" s="14" t="s">
         <v>94</v>
       </c>
@@ -36012,230 +35821,227 @@
       <c r="BS114" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="BT114" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="BU114" s="2">
+      <c r="BT114" s="2">
         <v>14.4</v>
       </c>
-      <c r="BV114" s="2" t="s">
-        <v>449</v>
+      <c r="BU114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="BV114" s="2">
+        <v>143</v>
       </c>
       <c r="BW114" s="2">
-        <v>143</v>
+        <v>0.1381</v>
       </c>
       <c r="BX114" s="2">
-        <v>0.1381</v>
-      </c>
-      <c r="BY114" s="2">
         <v>218</v>
       </c>
-      <c r="BZ114" s="2" t="s">
-        <v>449</v>
+      <c r="BY114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="BZ114" s="2">
+        <v>26</v>
       </c>
       <c r="CA114" s="2">
-        <v>26</v>
+        <v>5.7130000000000001</v>
       </c>
       <c r="CB114" s="2">
-        <v>5.7130000000000001</v>
-      </c>
-      <c r="CC114" s="2">
         <v>12.429</v>
       </c>
+      <c r="CC114" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="CD114" s="2" t="s">
         <v>449</v>
       </c>
       <c r="CE114" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="CF114" s="2" t="s">
-        <v>449</v>
+      <c r="CF114" s="2">
+        <v>214</v>
       </c>
       <c r="CG114" s="2">
-        <v>214</v>
-      </c>
-      <c r="CH114" s="2">
         <v>23.6</v>
       </c>
-      <c r="CI114" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="CJ114" s="2">
+      <c r="CH114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="CI114" s="2">
         <v>3.2839999999999998</v>
       </c>
+      <c r="CJ114" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="CK114" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="CL114" s="2" t="s">
-        <v>449</v>
+      <c r="CL114" s="2">
+        <v>17.5</v>
       </c>
       <c r="CM114" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="CN114" s="2">
         <v>6.9</v>
       </c>
+      <c r="CN114" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="CO114" s="2" t="s">
         <v>449</v>
       </c>
       <c r="CP114" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="CQ114" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="CR114" s="2">
+      <c r="CQ114" s="2">
         <v>74.3</v>
       </c>
-      <c r="CS114" s="2" t="s">
-        <v>449</v>
+      <c r="CR114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="CS114" s="2">
+        <v>142.30000000000001</v>
       </c>
       <c r="CT114" s="2">
-        <v>142.30000000000001</v>
+        <v>60</v>
       </c>
       <c r="CU114" s="2">
-        <v>60</v>
-      </c>
-      <c r="CV114" s="2">
         <v>24.167000000000002</v>
       </c>
+      <c r="CV114" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="CW114" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="CX114" s="2" t="s">
-        <v>449</v>
+      <c r="CX114" s="2">
+        <v>77.331000000000003</v>
       </c>
       <c r="CY114" s="2">
-        <v>77.331000000000003</v>
-      </c>
-      <c r="CZ114" s="2">
         <v>119.05200000000001</v>
       </c>
-      <c r="DA114" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="DB114" s="2">
+      <c r="CZ114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="DA114" s="2">
         <v>0.14000000000000001</v>
       </c>
+      <c r="DB114" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="DC114" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="DD114" s="2" t="s">
-        <v>449</v>
+      <c r="DD114" s="2">
+        <v>347.5</v>
       </c>
       <c r="DE114" s="2">
-        <v>347.5</v>
-      </c>
-      <c r="DF114" s="2">
         <v>12.1</v>
       </c>
-      <c r="DG114" s="2" t="s">
-        <v>449</v>
+      <c r="DF114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="DG114" s="2">
+        <v>0.81599999999999995</v>
       </c>
       <c r="DH114" s="2">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="DI114" s="2">
         <v>0.6</v>
       </c>
+      <c r="DI114" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="DJ114" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="DK114" s="2" t="s">
-        <v>449</v>
+      <c r="DK114" s="2">
+        <v>0.4037</v>
       </c>
       <c r="DL114" s="2">
-        <v>0.4037</v>
-      </c>
-      <c r="DM114" s="2">
         <v>37.761000000000003</v>
       </c>
-      <c r="DN114" s="2" t="s">
-        <v>449</v>
+      <c r="DM114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="DN114" s="2">
+        <v>1.1100543478260869</v>
       </c>
       <c r="DO114" s="2">
-        <v>1.1100543478260869</v>
-      </c>
-      <c r="DP114" s="2">
         <v>138.92000000000002</v>
       </c>
-      <c r="DQ114" s="2" t="s">
-        <v>449</v>
+      <c r="DP114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="DQ114" s="2">
+        <v>1.00285</v>
       </c>
       <c r="DR114" s="2">
-        <v>1.00285</v>
-      </c>
-      <c r="DS114" s="2">
         <v>107.4</v>
       </c>
-      <c r="DT114" s="2" t="s">
-        <v>449</v>
+      <c r="DS114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="DT114" s="2">
+        <v>55.9</v>
       </c>
       <c r="DU114" s="2">
-        <v>55.9</v>
-      </c>
-      <c r="DV114" s="2">
         <v>69.025000000000006</v>
       </c>
+      <c r="DV114" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="DW114" s="2" t="s">
         <v>449</v>
       </c>
       <c r="DX114" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="DY114" s="2" t="s">
-        <v>449</v>
+      <c r="DY114" s="2">
+        <v>153.6283</v>
       </c>
       <c r="DZ114" s="2">
-        <v>153.6283</v>
-      </c>
-      <c r="EA114" s="2">
         <v>555</v>
       </c>
-      <c r="EB114" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="EC114" s="2">
+      <c r="EA114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="EB114" s="2">
         <v>30.41</v>
       </c>
-      <c r="ED114" s="2" t="s">
-        <v>449</v>
+      <c r="EC114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="ED114" s="2">
+        <v>103</v>
       </c>
       <c r="EE114" s="2">
-        <v>103</v>
+        <v>49.6</v>
       </c>
       <c r="EF114" s="2">
-        <v>49.6</v>
-      </c>
-      <c r="EG114" s="2">
         <v>135.80000000000001</v>
       </c>
-      <c r="EH114" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="EI114" s="2">
+      <c r="EG114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="EH114" s="2">
         <v>148.80000000000001</v>
       </c>
+      <c r="EI114" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="EJ114" s="2" t="s">
         <v>449</v>
       </c>
       <c r="EK114" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="EL114" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="EM114" s="2">
+      <c r="EL114" s="2">
         <v>330</v>
       </c>
-      <c r="EN114" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="EO114" s="2">
+      <c r="EM114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="EN114" s="2">
         <v>75.39</v>
       </c>
     </row>
-    <row r="115" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B115" s="14" t="s">
         <v>95</v>
       </c>
@@ -36386,9 +36192,8 @@
       <c r="EL115" s="2"/>
       <c r="EM115" s="2"/>
       <c r="EN115" s="2"/>
-      <c r="EO115" s="2"/>
     </row>
-    <row r="116" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B116" s="14" t="s">
         <v>96</v>
       </c>
@@ -36536,9 +36341,8 @@
       <c r="EL116" s="2"/>
       <c r="EM116" s="2"/>
       <c r="EN116" s="2"/>
-      <c r="EO116" s="2"/>
     </row>
-    <row r="117" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B117" s="14" t="s">
         <v>97</v>
       </c>
@@ -36686,9 +36490,8 @@
       <c r="EL117" s="2"/>
       <c r="EM117" s="2"/>
       <c r="EN117" s="2"/>
-      <c r="EO117" s="2"/>
     </row>
-    <row r="118" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B118" s="14" t="s">
         <v>98</v>
       </c>
@@ -36836,9 +36639,8 @@
       <c r="EL118" s="2"/>
       <c r="EM118" s="2"/>
       <c r="EN118" s="2"/>
-      <c r="EO118" s="2"/>
     </row>
-    <row r="119" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B119" s="14" t="s">
         <v>99</v>
       </c>
@@ -36986,9 +36788,8 @@
       <c r="EL119" s="2"/>
       <c r="EM119" s="2"/>
       <c r="EN119" s="2"/>
-      <c r="EO119" s="2"/>
     </row>
-    <row r="120" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A120" s="20" t="s">
         <v>135</v>
       </c>
@@ -36996,49 +36797,49 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A121" s="20"/>
       <c r="B121" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A122" s="20"/>
       <c r="B122" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="123" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A123" s="20"/>
       <c r="B123" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="124" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A124" s="20"/>
       <c r="B124" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A125" s="20"/>
       <c r="B125" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="126" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A126" s="20"/>
       <c r="B126" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="127" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A127" s="22"/>
       <c r="B127" s="37" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="128" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="s">
         <v>175</v>
       </c>
@@ -37241,9 +37042,8 @@
       <c r="EL128" s="4"/>
       <c r="EM128" s="4"/>
       <c r="EN128" s="4"/>
-      <c r="EO128" s="4"/>
     </row>
-    <row r="129" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B129" s="16" t="s">
         <v>141</v>
       </c>
@@ -37395,9 +37195,8 @@
       <c r="EL129" s="4"/>
       <c r="EM129" s="4"/>
       <c r="EN129" s="4"/>
-      <c r="EO129" s="4"/>
     </row>
-    <row r="130" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B130" s="16" t="s">
         <v>142</v>
       </c>
@@ -37549,9 +37348,8 @@
       <c r="EL130" s="4"/>
       <c r="EM130" s="4"/>
       <c r="EN130" s="4"/>
-      <c r="EO130" s="4"/>
     </row>
-    <row r="131" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B131" s="16" t="s">
         <v>151</v>
       </c>
@@ -37703,9 +37501,8 @@
       <c r="EL131" s="4"/>
       <c r="EM131" s="4"/>
       <c r="EN131" s="4"/>
-      <c r="EO131" s="4"/>
     </row>
-    <row r="132" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B132" s="16" t="s">
         <v>136</v>
       </c>
@@ -37857,9 +37654,8 @@
       <c r="EL132" s="4"/>
       <c r="EM132" s="4"/>
       <c r="EN132" s="4"/>
-      <c r="EO132" s="4"/>
     </row>
-    <row r="133" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B133" s="16" t="s">
         <v>137</v>
       </c>
@@ -38007,9 +37803,8 @@
       <c r="EL133" s="4"/>
       <c r="EM133" s="4"/>
       <c r="EN133" s="4"/>
-      <c r="EO133" s="4"/>
     </row>
-    <row r="134" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B134" s="16" t="s">
         <v>138</v>
       </c>
@@ -38155,9 +37950,8 @@
       <c r="EL134" s="4"/>
       <c r="EM134" s="4"/>
       <c r="EN134" s="4"/>
-      <c r="EO134" s="4"/>
     </row>
-    <row r="135" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B135" s="16" t="s">
         <v>139</v>
       </c>
@@ -38303,9 +38097,8 @@
       <c r="EL135" s="4"/>
       <c r="EM135" s="4"/>
       <c r="EN135" s="4"/>
-      <c r="EO135" s="4"/>
     </row>
-    <row r="136" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B136" s="16" t="s">
         <v>140</v>
       </c>
@@ -38451,9 +38244,8 @@
       <c r="EL136" s="4"/>
       <c r="EM136" s="4"/>
       <c r="EN136" s="4"/>
-      <c r="EO136" s="4"/>
     </row>
-    <row r="137" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A137" s="23" t="s">
         <v>176</v>
       </c>
@@ -38656,9 +38448,8 @@
       <c r="EL137" s="4"/>
       <c r="EM137" s="4"/>
       <c r="EN137" s="4"/>
-      <c r="EO137" s="4"/>
     </row>
-    <row r="138" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B138" s="16" t="s">
         <v>149</v>
       </c>
@@ -38804,9 +38595,8 @@
       <c r="EL138" s="4"/>
       <c r="EM138" s="4"/>
       <c r="EN138" s="4"/>
-      <c r="EO138" s="4"/>
     </row>
-    <row r="139" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B139" s="16" t="s">
         <v>150</v>
       </c>
@@ -38952,9 +38742,8 @@
       <c r="EL139" s="4"/>
       <c r="EM139" s="4"/>
       <c r="EN139" s="4"/>
-      <c r="EO139" s="4"/>
     </row>
-    <row r="140" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B140" s="16" t="s">
         <v>144</v>
       </c>
@@ -39100,9 +38889,8 @@
       <c r="EL140" s="4"/>
       <c r="EM140" s="4"/>
       <c r="EN140" s="4"/>
-      <c r="EO140" s="4"/>
     </row>
-    <row r="141" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B141" s="16" t="s">
         <v>152</v>
       </c>
@@ -39248,9 +39036,8 @@
       <c r="EL141" s="4"/>
       <c r="EM141" s="4"/>
       <c r="EN141" s="4"/>
-      <c r="EO141" s="4"/>
     </row>
-    <row r="142" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B142" s="16" t="s">
         <v>145</v>
       </c>
@@ -39396,9 +39183,8 @@
       <c r="EL142" s="4"/>
       <c r="EM142" s="4"/>
       <c r="EN142" s="4"/>
-      <c r="EO142" s="4"/>
     </row>
-    <row r="143" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B143" s="16" t="s">
         <v>146</v>
       </c>
@@ -39544,9 +39330,8 @@
       <c r="EL143" s="4"/>
       <c r="EM143" s="4"/>
       <c r="EN143" s="4"/>
-      <c r="EO143" s="4"/>
     </row>
-    <row r="144" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B144" s="16" t="s">
         <v>147</v>
       </c>
@@ -39692,9 +39477,8 @@
       <c r="EL144" s="4"/>
       <c r="EM144" s="4"/>
       <c r="EN144" s="4"/>
-      <c r="EO144" s="4"/>
     </row>
-    <row r="145" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B145" s="16" t="s">
         <v>148</v>
       </c>
@@ -39840,9 +39624,8 @@
       <c r="EL145" s="4"/>
       <c r="EM145" s="4"/>
       <c r="EN145" s="4"/>
-      <c r="EO145" s="4"/>
     </row>
-    <row r="146" spans="1:145" s="24" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:144" s="24" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A146" s="33" t="s">
         <v>0</v>
       </c>
@@ -39907,7 +39690,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="147" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A147" s="20" t="s">
         <v>274</v>
       </c>
@@ -39963,7 +39746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B148" s="14" t="s">
         <v>298</v>
       </c>
@@ -40016,7 +39799,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="149" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A149" s="20"/>
       <c r="B149" s="14" t="s">
         <v>297</v>
@@ -40034,7 +39817,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="150" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B150" s="14" t="s">
         <v>300</v>
       </c>
@@ -40051,7 +39834,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="151" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A151" s="20"/>
       <c r="B151" s="14" t="s">
         <v>296</v>
@@ -40063,7 +39846,7 @@
         <v>-308</v>
       </c>
     </row>
-    <row r="152" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B152" s="14" t="s">
         <v>299</v>
       </c>
@@ -40074,18 +39857,18 @@
         <v>-308</v>
       </c>
     </row>
-    <row r="153" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A153" s="20"/>
       <c r="B153" s="14" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="154" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:144" x14ac:dyDescent="0.25">
       <c r="B154" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="155" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A155" s="20"/>
       <c r="B155" s="14" t="s">
         <v>275</v>
@@ -40093,7 +39876,7 @@
       <c r="K155" s="35"/>
       <c r="L155" s="35"/>
     </row>
-    <row r="156" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
       <c r="B156" s="14" t="s">
         <v>283</v>
@@ -40101,7 +39884,7 @@
       <c r="K156" s="35"/>
       <c r="L156" s="35"/>
     </row>
-    <row r="157" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
       <c r="B157" s="14" t="s">
         <v>276</v>
@@ -40109,7 +39892,7 @@
       <c r="K157" s="35"/>
       <c r="L157" s="35"/>
     </row>
-    <row r="158" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A158" s="20"/>
       <c r="B158" s="14" t="s">
         <v>284</v>
@@ -40117,7 +39900,7 @@
       <c r="K158" s="35"/>
       <c r="L158" s="35"/>
     </row>
-    <row r="159" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A159" s="20"/>
       <c r="B159" s="14" t="s">
         <v>277</v>
@@ -40125,7 +39908,7 @@
       <c r="K159" s="35"/>
       <c r="L159" s="35"/>
     </row>
-    <row r="160" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A160" s="20"/>
       <c r="B160" s="14" t="s">
         <v>285</v>

--- a/data/NDCdata_As12Jun2024_Upd29Jul2024_v2_othercountries.xlsx
+++ b/data/NDCdata_As12Jun2024_Upd29Jul2024_v2_othercountries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktibrewa\Documents\GitHub\demo01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB548CC-C180-4524-B447-D6B5B5035ED6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF8AA38-C2C9-409E-9B9B-513C16583C24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19392" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4236" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="457">
   <si>
     <t>Notes</t>
   </si>
@@ -10344,13 +10344,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DA975E-BDEC-4C1E-83C8-A4ABE97F34FE}">
-  <dimension ref="A1:EN185"/>
+  <dimension ref="A1:EM185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BR4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="DF4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BT5" sqref="BT5"/>
+      <selection pane="bottomRight" activeCell="DJ1" sqref="DJ1:DJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10358,11 +10358,11 @@
     <col min="1" max="1" width="22.69921875" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.59765625" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="15.69921875" style="21" customWidth="1"/>
-    <col min="13" max="144" width="18" style="21" bestFit="1" customWidth="1"/>
-    <col min="145" max="16384" width="8.796875" style="21"/>
+    <col min="13" max="143" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="144" max="16384" width="8.796875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>132</v>
       </c>
@@ -10703,100 +10703,97 @@
         <v>415</v>
       </c>
       <c r="DJ1" s="39" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="DK1" s="39" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="DL1" s="39" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="DM1" s="39" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="DN1" s="39" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="DO1" s="39" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="DP1" s="39" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="DQ1" s="39" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="DR1" s="39" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DS1" s="39" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="DT1" s="39" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="DU1" s="39" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="DV1" s="39" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="DW1" s="39" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="DX1" s="39" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="DY1" s="39" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="DZ1" s="39" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="EA1" s="39" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="EB1" s="39" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="EC1" s="39" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="ED1" s="39" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="EE1" s="39" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="EF1" s="39" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="EG1" s="39" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="EH1" s="39" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="EI1" s="39" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="EJ1" s="39" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="EK1" s="39" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EL1" s="39" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EM1" s="39" t="s">
-        <v>445</v>
-      </c>
-      <c r="EN1" s="39" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="8" t="s">
         <v>22</v>
@@ -10942,9 +10939,8 @@
       <c r="EK2" s="39"/>
       <c r="EL2" s="39"/>
       <c r="EM2" s="39"/>
-      <c r="EN2" s="39"/>
     </row>
-    <row r="3" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -11146,9 +11142,8 @@
       <c r="EK3" s="39"/>
       <c r="EL3" s="39"/>
       <c r="EM3" s="39"/>
-      <c r="EN3" s="39"/>
     </row>
-    <row r="4" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>177</v>
       </c>
@@ -11350,9 +11345,8 @@
       <c r="EK4" s="6"/>
       <c r="EL4" s="6"/>
       <c r="EM4" s="6"/>
-      <c r="EN4" s="6"/>
     </row>
-    <row r="5" spans="1:144" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:143" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="27" t="s">
         <v>17</v>
@@ -11554,9 +11548,8 @@
       <c r="EK5" s="7"/>
       <c r="EL5" s="7"/>
       <c r="EM5" s="7"/>
-      <c r="EN5" s="7"/>
     </row>
-    <row r="6" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="9" t="s">
         <v>18</v>
@@ -11756,9 +11749,8 @@
       <c r="EK6" s="5"/>
       <c r="EL6" s="5"/>
       <c r="EM6" s="5"/>
-      <c r="EN6" s="5"/>
     </row>
-    <row r="7" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>178</v>
       </c>
@@ -12123,19 +12115,19 @@
         <v>6</v>
       </c>
       <c r="DR7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DS7" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="DS7" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="DT7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="DU7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DV7" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="DV7" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="DW7" s="5" t="s">
         <v>6</v>
@@ -12188,11 +12180,8 @@
       <c r="EM7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="EN7" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="8" spans="1:144" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:143" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="11" t="s">
         <v>19</v>
@@ -12540,17 +12529,17 @@
       <c r="DQ8" s="34">
         <v>2030</v>
       </c>
-      <c r="DR8" s="34">
+      <c r="DR8" s="34"/>
+      <c r="DS8" s="34">
         <v>2030</v>
       </c>
-      <c r="DS8" s="34"/>
       <c r="DT8" s="34">
         <v>2030</v>
       </c>
-      <c r="DU8" s="34">
+      <c r="DU8" s="34"/>
+      <c r="DV8" s="34">
         <v>2030</v>
       </c>
-      <c r="DV8" s="34"/>
       <c r="DW8" s="34">
         <v>2030</v>
       </c>
@@ -12602,11 +12591,8 @@
       <c r="EM8" s="34">
         <v>2030</v>
       </c>
-      <c r="EN8" s="34">
-        <v>2030</v>
-      </c>
     </row>
-    <row r="9" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="10" t="s">
         <v>20</v>
@@ -12954,17 +12940,17 @@
       <c r="DQ9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="DR9" s="5" t="s">
+      <c r="DR9" s="5"/>
+      <c r="DS9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="DS9" s="5"/>
       <c r="DT9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="DU9" s="5" t="s">
+      <c r="DU9" s="5"/>
+      <c r="DV9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="DV9" s="5"/>
       <c r="DW9" s="5" t="s">
         <v>8</v>
       </c>
@@ -13002,10 +12988,10 @@
         <v>8</v>
       </c>
       <c r="EI9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="EJ9" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="EJ9" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="EK9" s="5" t="s">
         <v>8</v>
@@ -13016,11 +13002,8 @@
       <c r="EM9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="EN9" s="5" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="10" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="10" t="s">
         <v>109</v>
@@ -13345,60 +13328,60 @@
         <v>110</v>
       </c>
       <c r="DJ10" s="5" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="DK10" s="5" t="s">
         <v>122</v>
       </c>
       <c r="DL10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="DM10" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="DM10" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="DN10" s="5" t="s">
         <v>122</v>
       </c>
       <c r="DO10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="DP10" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="DP10" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="DQ10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="DR10" s="5" t="s">
+      <c r="DR10" s="5"/>
+      <c r="DS10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="DS10" s="5"/>
       <c r="DT10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU10" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="DV10" s="5"/>
+      <c r="DU10" s="5"/>
+      <c r="DV10" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="DW10" s="5" t="s">
         <v>110</v>
       </c>
       <c r="DX10" s="5" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="DY10" s="5" t="s">
         <v>122</v>
       </c>
       <c r="DZ10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="EA10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="EA10" s="5" t="s">
+      <c r="EB10" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="EB10" s="5" t="s">
+      <c r="EC10" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="EC10" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="ED10" s="5" t="s">
         <v>122</v>
@@ -13407,13 +13390,13 @@
         <v>122</v>
       </c>
       <c r="EF10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="EG10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="EG10" s="5" t="s">
+      <c r="EH10" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="EH10" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="EI10" s="5" t="s">
         <v>110</v>
@@ -13422,19 +13405,16 @@
         <v>110</v>
       </c>
       <c r="EK10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="EL10" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="EL10" s="5" t="s">
+      <c r="EM10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="EM10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="EN10" s="5" t="s">
-        <v>122</v>
-      </c>
     </row>
-    <row r="11" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="10" t="s">
         <v>21</v>
@@ -13782,17 +13762,17 @@
       <c r="DQ11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DR11" s="5" t="s">
+      <c r="DR11" s="5"/>
+      <c r="DS11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DS11" s="5"/>
       <c r="DT11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DU11" s="5" t="s">
+      <c r="DU11" s="5"/>
+      <c r="DV11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DV11" s="5"/>
       <c r="DW11" s="5" t="s">
         <v>119</v>
       </c>
@@ -13844,11 +13824,8 @@
       <c r="EM11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="EN11" s="5" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="12" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="10" t="s">
         <v>111</v>
@@ -14188,25 +14165,25 @@
         <v>112</v>
       </c>
       <c r="DO12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="DP12" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="DP12" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="DQ12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="DR12" s="5" t="s">
+      <c r="DR12" s="5"/>
+      <c r="DS12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="DS12" s="5"/>
       <c r="DT12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="DU12" s="5"/>
+      <c r="DV12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="DU12" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="DV12" s="5"/>
       <c r="DW12" s="5" t="s">
         <v>112</v>
       </c>
@@ -14217,10 +14194,10 @@
         <v>112</v>
       </c>
       <c r="DZ12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="EA12" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="EA12" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="EB12" s="5" t="s">
         <v>112</v>
@@ -14241,10 +14218,10 @@
         <v>112</v>
       </c>
       <c r="EH12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="EI12" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="EI12" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="EJ12" s="5" t="s">
         <v>112</v>
@@ -14258,11 +14235,8 @@
       <c r="EM12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="EN12" s="5" t="s">
-        <v>112</v>
-      </c>
     </row>
-    <row r="13" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="10" t="s">
         <v>120</v>
@@ -14610,17 +14584,17 @@
       <c r="DQ13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="DR13" s="5" t="s">
+      <c r="DR13" s="5"/>
+      <c r="DS13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="DS13" s="5"/>
       <c r="DT13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="DU13" s="5" t="s">
+      <c r="DU13" s="5"/>
+      <c r="DV13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="DV13" s="5"/>
       <c r="DW13" s="5" t="s">
         <v>209</v>
       </c>
@@ -14672,11 +14646,8 @@
       <c r="EM13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="EN13" s="5" t="s">
-        <v>209</v>
-      </c>
     </row>
-    <row r="14" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="10" t="s">
         <v>160</v>
@@ -15024,17 +14995,17 @@
       <c r="DQ14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="DR14" s="5" t="s">
+      <c r="DR14" s="5"/>
+      <c r="DS14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="DS14" s="5"/>
       <c r="DT14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="DU14" s="5" t="s">
+      <c r="DU14" s="5"/>
+      <c r="DV14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="DV14" s="5"/>
       <c r="DW14" s="5" t="s">
         <v>161</v>
       </c>
@@ -15086,11 +15057,8 @@
       <c r="EM14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="EN14" s="5" t="s">
-        <v>161</v>
-      </c>
     </row>
-    <row r="15" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="32" t="s">
         <v>218</v>
@@ -15444,17 +15412,17 @@
       <c r="DQ15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="DR15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DS15" s="5"/>
+      <c r="DR15" s="5"/>
+      <c r="DS15" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="DT15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="DU15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DV15" s="5"/>
+      <c r="DU15" s="5"/>
+      <c r="DV15" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="DW15" s="5" t="s">
         <v>7</v>
       </c>
@@ -15506,11 +15474,8 @@
       <c r="EM15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="EN15" s="5" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="16" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>130</v>
       </c>
@@ -15706,9 +15671,8 @@
       <c r="EK16" s="5"/>
       <c r="EL16" s="5"/>
       <c r="EM16" s="5"/>
-      <c r="EN16" s="5"/>
     </row>
-    <row r="17" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="12" t="s">
         <v>2</v>
@@ -15900,9 +15864,8 @@
       <c r="EK17" s="5"/>
       <c r="EL17" s="5"/>
       <c r="EM17" s="5"/>
-      <c r="EN17" s="5"/>
     </row>
-    <row r="18" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="12" t="s">
         <v>12</v>
@@ -16094,9 +16057,8 @@
       <c r="EK18" s="5"/>
       <c r="EL18" s="5"/>
       <c r="EM18" s="5"/>
-      <c r="EN18" s="5"/>
     </row>
-    <row r="19" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="12" t="s">
         <v>13</v>
@@ -16268,9 +16230,8 @@
       <c r="EK19" s="5"/>
       <c r="EL19" s="5"/>
       <c r="EM19" s="5"/>
-      <c r="EN19" s="5"/>
     </row>
-    <row r="20" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="12" t="s">
         <v>3</v>
@@ -16442,9 +16403,8 @@
       <c r="EK20" s="5"/>
       <c r="EL20" s="5"/>
       <c r="EM20" s="5"/>
-      <c r="EN20" s="5"/>
     </row>
-    <row r="21" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="12" t="s">
         <v>4</v>
@@ -16616,9 +16576,8 @@
       <c r="EK21" s="5"/>
       <c r="EL21" s="5"/>
       <c r="EM21" s="5"/>
-      <c r="EN21" s="5"/>
     </row>
-    <row r="22" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="13" t="s">
         <v>5</v>
@@ -16764,9 +16723,8 @@
       <c r="EK22" s="5"/>
       <c r="EL22" s="5"/>
       <c r="EM22" s="5"/>
-      <c r="EN22" s="5"/>
     </row>
-    <row r="23" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="13" t="s">
         <v>129</v>
@@ -16912,9 +16870,8 @@
       <c r="EK23" s="5"/>
       <c r="EL23" s="5"/>
       <c r="EM23" s="5"/>
-      <c r="EN23" s="5"/>
     </row>
-    <row r="24" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>131</v>
       </c>
@@ -17110,9 +17067,8 @@
       <c r="EK24" s="5"/>
       <c r="EL24" s="5"/>
       <c r="EM24" s="5"/>
-      <c r="EN24" s="5"/>
     </row>
-    <row r="25" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="13" t="s">
         <v>25</v>
@@ -17306,9 +17262,8 @@
       <c r="EK25" s="5"/>
       <c r="EL25" s="5"/>
       <c r="EM25" s="5"/>
-      <c r="EN25" s="5"/>
     </row>
-    <row r="26" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="13" t="s">
         <v>26</v>
@@ -17502,9 +17457,8 @@
       <c r="EK26" s="5"/>
       <c r="EL26" s="5"/>
       <c r="EM26" s="5"/>
-      <c r="EN26" s="5"/>
     </row>
-    <row r="27" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="13" t="s">
         <v>27</v>
@@ -17694,9 +17648,8 @@
       <c r="EK27" s="5"/>
       <c r="EL27" s="5"/>
       <c r="EM27" s="5"/>
-      <c r="EN27" s="5"/>
     </row>
-    <row r="28" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="10" t="s">
         <v>159</v>
@@ -17884,9 +17837,8 @@
       <c r="EK28" s="5"/>
       <c r="EL28" s="5"/>
       <c r="EM28" s="5"/>
-      <c r="EN28" s="5"/>
     </row>
-    <row r="29" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>159</v>
       </c>
@@ -18316,11 +18268,8 @@
       <c r="EM29" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="EN29" s="5" t="s">
-        <v>234</v>
-      </c>
     </row>
-    <row r="30" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="19" t="s">
         <v>204</v>
@@ -18748,11 +18697,8 @@
       <c r="EM30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="EN30" s="5" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="31" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="19" t="s">
         <v>203</v>
@@ -18908,9 +18854,8 @@
       <c r="EK31" s="5"/>
       <c r="EL31" s="5"/>
       <c r="EM31" s="5"/>
-      <c r="EN31" s="5"/>
     </row>
-    <row r="32" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="19" t="s">
         <v>205</v>
@@ -19056,9 +19001,8 @@
       <c r="EK32" s="5"/>
       <c r="EL32" s="5"/>
       <c r="EM32" s="5"/>
-      <c r="EN32" s="5"/>
     </row>
-    <row r="33" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="19" t="s">
         <v>169</v>
@@ -19214,9 +19158,8 @@
       <c r="EK33" s="5"/>
       <c r="EL33" s="5"/>
       <c r="EM33" s="5"/>
-      <c r="EN33" s="5"/>
     </row>
-    <row r="34" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="19" t="s">
         <v>170</v>
@@ -19372,9 +19315,8 @@
       <c r="EK34" s="5"/>
       <c r="EL34" s="5"/>
       <c r="EM34" s="5"/>
-      <c r="EN34" s="5"/>
     </row>
-    <row r="35" spans="1:144" s="24" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:143" s="24" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="29" t="s">
         <v>163</v>
@@ -19530,9 +19472,8 @@
       <c r="EK35" s="7"/>
       <c r="EL35" s="7"/>
       <c r="EM35" s="7"/>
-      <c r="EN35" s="7"/>
     </row>
-    <row r="36" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>186</v>
       </c>
@@ -19704,9 +19645,8 @@
       <c r="EK36" s="4"/>
       <c r="EL36" s="4"/>
       <c r="EM36" s="4"/>
-      <c r="EN36" s="4"/>
     </row>
-    <row r="37" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
         <v>29</v>
       </c>
@@ -19875,9 +19815,8 @@
       <c r="EK37" s="4"/>
       <c r="EL37" s="4"/>
       <c r="EM37" s="4"/>
-      <c r="EN37" s="4"/>
     </row>
-    <row r="38" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
         <v>30</v>
       </c>
@@ -20030,9 +19969,8 @@
       <c r="EK38" s="4"/>
       <c r="EL38" s="4"/>
       <c r="EM38" s="4"/>
-      <c r="EN38" s="4"/>
     </row>
-    <row r="39" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
         <v>31</v>
       </c>
@@ -20185,9 +20123,8 @@
       <c r="EK39" s="4"/>
       <c r="EL39" s="4"/>
       <c r="EM39" s="4"/>
-      <c r="EN39" s="4"/>
     </row>
-    <row r="40" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
         <v>32</v>
       </c>
@@ -20477,46 +20414,46 @@
         <v>26</v>
       </c>
       <c r="DJ40" s="43">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="DK40" s="43">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="DL40" s="43">
-        <v>7</v>
+        <v>13.2</v>
       </c>
       <c r="DM40" s="43">
-        <v>13.2</v>
+        <v>26.4</v>
       </c>
       <c r="DN40" s="43">
-        <v>26.4</v>
-      </c>
-      <c r="DO40" s="43">
         <v>10</v>
       </c>
-      <c r="DP40" s="43" t="s">
-        <v>449</v>
+      <c r="DO40" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DP40" s="43">
+        <v>33</v>
       </c>
       <c r="DQ40" s="43">
-        <v>33</v>
-      </c>
-      <c r="DR40" s="43">
         <v>30</v>
       </c>
-      <c r="DS40" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="DT40" s="43">
+      <c r="DR40" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DS40" s="43">
         <v>4</v>
       </c>
+      <c r="DT40" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="DU40" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="DV40" s="43" t="s">
-        <v>449</v>
+      <c r="DV40" s="43">
+        <v>50</v>
       </c>
       <c r="DW40" s="43">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="DX40" s="43">
         <v>30</v>
@@ -20524,53 +20461,50 @@
       <c r="DY40" s="43">
         <v>30</v>
       </c>
-      <c r="DZ40" s="43">
-        <v>30</v>
-      </c>
-      <c r="EA40" s="43" t="s">
-        <v>449</v>
+      <c r="DZ40" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="EA40" s="43">
+        <v>20.51</v>
       </c>
       <c r="EB40" s="43">
-        <v>20.51</v>
+        <v>10</v>
       </c>
       <c r="EC40" s="43">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="ED40" s="43">
-        <v>5</v>
+        <v>17.137096774193548</v>
       </c>
       <c r="EE40" s="43">
-        <v>17.137096774193548</v>
+        <v>20</v>
       </c>
       <c r="EF40" s="43">
+        <v>36</v>
+      </c>
+      <c r="EG40" s="43">
+        <v>5.89</v>
+      </c>
+      <c r="EH40" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="EI40" s="43">
+        <v>35</v>
+      </c>
+      <c r="EJ40" s="43">
+        <v>0</v>
+      </c>
+      <c r="EK40" s="43">
         <v>20</v>
       </c>
-      <c r="EG40" s="43">
-        <v>36</v>
-      </c>
-      <c r="EH40" s="43">
-        <v>5.89</v>
-      </c>
-      <c r="EI40" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="EJ40" s="43">
-        <v>35</v>
-      </c>
-      <c r="EK40" s="43">
+      <c r="EL40" s="43">
         <v>0</v>
       </c>
-      <c r="EL40" s="43">
-        <v>20</v>
-      </c>
       <c r="EM40" s="43">
-        <v>0</v>
-      </c>
-      <c r="EN40" s="43">
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
         <v>33</v>
       </c>
@@ -20860,46 +20794,46 @@
         <v>26</v>
       </c>
       <c r="DJ41" s="43">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="DK41" s="43">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="DL41" s="43">
-        <v>7</v>
+        <v>13.2</v>
       </c>
       <c r="DM41" s="43">
-        <v>13.2</v>
+        <v>26.4</v>
       </c>
       <c r="DN41" s="43">
-        <v>26.4</v>
-      </c>
-      <c r="DO41" s="43">
         <v>10</v>
       </c>
-      <c r="DP41" s="43" t="s">
-        <v>449</v>
+      <c r="DO41" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DP41" s="43">
+        <v>33</v>
       </c>
       <c r="DQ41" s="43">
-        <v>33</v>
-      </c>
-      <c r="DR41" s="43">
         <v>30</v>
       </c>
-      <c r="DS41" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="DT41" s="43">
+      <c r="DR41" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DS41" s="43">
         <v>4</v>
       </c>
+      <c r="DT41" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="DU41" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="DV41" s="43" t="s">
-        <v>449</v>
+      <c r="DV41" s="43">
+        <v>50</v>
       </c>
       <c r="DW41" s="43">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="DX41" s="43">
         <v>30</v>
@@ -20907,53 +20841,50 @@
       <c r="DY41" s="43">
         <v>30</v>
       </c>
-      <c r="DZ41" s="43">
-        <v>30</v>
-      </c>
-      <c r="EA41" s="43" t="s">
-        <v>449</v>
+      <c r="DZ41" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="EA41" s="43">
+        <v>20.51</v>
       </c>
       <c r="EB41" s="43">
-        <v>20.51</v>
+        <v>10</v>
       </c>
       <c r="EC41" s="43">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="ED41" s="43">
-        <v>5</v>
+        <v>17.137096774193548</v>
       </c>
       <c r="EE41" s="43">
-        <v>17.137096774193548</v>
+        <v>20</v>
       </c>
       <c r="EF41" s="43">
+        <v>36</v>
+      </c>
+      <c r="EG41" s="43">
+        <v>5.89</v>
+      </c>
+      <c r="EH41" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="EI41" s="43">
+        <v>35</v>
+      </c>
+      <c r="EJ41" s="43">
+        <v>0</v>
+      </c>
+      <c r="EK41" s="43">
         <v>20</v>
       </c>
-      <c r="EG41" s="43">
-        <v>36</v>
-      </c>
-      <c r="EH41" s="43">
-        <v>5.89</v>
-      </c>
-      <c r="EI41" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="EJ41" s="43">
-        <v>35</v>
-      </c>
-      <c r="EK41" s="43">
+      <c r="EL41" s="43">
         <v>0</v>
       </c>
-      <c r="EL41" s="43">
-        <v>20</v>
-      </c>
       <c r="EM41" s="43">
-        <v>0</v>
-      </c>
-      <c r="EN41" s="43">
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
         <v>34</v>
       </c>
@@ -21237,100 +21168,97 @@
         <v>26</v>
       </c>
       <c r="DJ42" s="43">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="DK42" s="43">
-        <v>27</v>
+        <v>29.5</v>
       </c>
       <c r="DL42" s="43">
-        <v>29.5</v>
+        <v>13.2</v>
       </c>
       <c r="DM42" s="43">
-        <v>13.2</v>
+        <v>26.4</v>
       </c>
       <c r="DN42" s="43">
-        <v>26.4</v>
-      </c>
-      <c r="DO42" s="43">
         <v>10</v>
       </c>
-      <c r="DP42" s="43" t="s">
-        <v>449</v>
+      <c r="DO42" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DP42" s="43">
+        <v>45</v>
       </c>
       <c r="DQ42" s="43">
-        <v>45</v>
-      </c>
-      <c r="DR42" s="43">
         <v>30</v>
       </c>
-      <c r="DS42" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="DT42" s="43">
+      <c r="DR42" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DS42" s="43">
         <v>14.5</v>
       </c>
+      <c r="DT42" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="DU42" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="DV42" s="43" t="s">
-        <v>449</v>
+      <c r="DV42" s="43">
+        <v>50</v>
       </c>
       <c r="DW42" s="43">
         <v>50</v>
       </c>
       <c r="DX42" s="43">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="DY42" s="43">
+        <v>40</v>
+      </c>
+      <c r="DZ42" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="EA42" s="43">
+        <v>50.57</v>
+      </c>
+      <c r="EB42" s="43">
+        <v>10</v>
+      </c>
+      <c r="EC42" s="43">
+        <v>15</v>
+      </c>
+      <c r="ED42" s="43">
+        <v>37.5</v>
+      </c>
+      <c r="EE42" s="43">
+        <v>20</v>
+      </c>
+      <c r="EF42" s="43">
+        <v>36</v>
+      </c>
+      <c r="EG42" s="43">
+        <v>24.7</v>
+      </c>
+      <c r="EH42" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="EI42" s="43">
         <v>35</v>
       </c>
-      <c r="DZ42" s="43">
-        <v>40</v>
-      </c>
-      <c r="EA42" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="EB42" s="43">
-        <v>50.57</v>
-      </c>
-      <c r="EC42" s="43">
-        <v>10</v>
-      </c>
-      <c r="ED42" s="43">
-        <v>15</v>
-      </c>
-      <c r="EE42" s="43">
-        <v>37.5</v>
-      </c>
-      <c r="EF42" s="43">
+      <c r="EJ42" s="43">
+        <v>0</v>
+      </c>
+      <c r="EK42" s="43">
         <v>20</v>
       </c>
-      <c r="EG42" s="43">
-        <v>36</v>
-      </c>
-      <c r="EH42" s="43">
-        <v>24.7</v>
-      </c>
-      <c r="EI42" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="EJ42" s="43">
-        <v>35</v>
-      </c>
-      <c r="EK42" s="43">
+      <c r="EL42" s="43">
         <v>0</v>
       </c>
-      <c r="EL42" s="43">
-        <v>20</v>
-      </c>
       <c r="EM42" s="43">
-        <v>0</v>
-      </c>
-      <c r="EN42" s="43">
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
         <v>35</v>
       </c>
@@ -21614,100 +21542,97 @@
         <v>26</v>
       </c>
       <c r="DJ43" s="43">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="DK43" s="43">
-        <v>27</v>
+        <v>29.5</v>
       </c>
       <c r="DL43" s="43">
-        <v>29.5</v>
+        <v>13.2</v>
       </c>
       <c r="DM43" s="43">
-        <v>13.2</v>
+        <v>26.4</v>
       </c>
       <c r="DN43" s="43">
-        <v>26.4</v>
-      </c>
-      <c r="DO43" s="43">
         <v>10</v>
       </c>
-      <c r="DP43" s="43" t="s">
-        <v>449</v>
+      <c r="DO43" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DP43" s="43">
+        <v>45</v>
       </c>
       <c r="DQ43" s="43">
-        <v>45</v>
-      </c>
-      <c r="DR43" s="43">
         <v>30</v>
       </c>
-      <c r="DS43" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="DT43" s="43">
+      <c r="DR43" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="DS43" s="43">
         <v>14.5</v>
       </c>
+      <c r="DT43" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="DU43" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="DV43" s="43" t="s">
-        <v>449</v>
+      <c r="DV43" s="43">
+        <v>50</v>
       </c>
       <c r="DW43" s="43">
         <v>50</v>
       </c>
       <c r="DX43" s="43">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="DY43" s="43">
+        <v>40</v>
+      </c>
+      <c r="DZ43" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="EA43" s="43">
+        <v>50.57</v>
+      </c>
+      <c r="EB43" s="43">
+        <v>10</v>
+      </c>
+      <c r="EC43" s="43">
+        <v>15</v>
+      </c>
+      <c r="ED43" s="43">
+        <v>37.5</v>
+      </c>
+      <c r="EE43" s="43">
+        <v>20</v>
+      </c>
+      <c r="EF43" s="43">
+        <v>36</v>
+      </c>
+      <c r="EG43" s="43">
+        <v>24.7</v>
+      </c>
+      <c r="EH43" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="EI43" s="43">
         <v>35</v>
       </c>
-      <c r="DZ43" s="43">
-        <v>40</v>
-      </c>
-      <c r="EA43" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="EB43" s="43">
-        <v>50.57</v>
-      </c>
-      <c r="EC43" s="43">
-        <v>10</v>
-      </c>
-      <c r="ED43" s="43">
-        <v>15</v>
-      </c>
-      <c r="EE43" s="43">
-        <v>37.5</v>
-      </c>
-      <c r="EF43" s="43">
+      <c r="EJ43" s="43">
+        <v>0</v>
+      </c>
+      <c r="EK43" s="43">
         <v>20</v>
       </c>
-      <c r="EG43" s="43">
-        <v>36</v>
-      </c>
-      <c r="EH43" s="43">
-        <v>24.7</v>
-      </c>
-      <c r="EI43" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="EJ43" s="43">
-        <v>35</v>
-      </c>
-      <c r="EK43" s="43">
+      <c r="EL43" s="43">
         <v>0</v>
       </c>
-      <c r="EL43" s="43">
-        <v>20</v>
-      </c>
       <c r="EM43" s="43">
-        <v>0</v>
-      </c>
-      <c r="EN43" s="43">
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>62</v>
       </c>
@@ -21852,9 +21777,8 @@
       <c r="EK44" s="4"/>
       <c r="EL44" s="4"/>
       <c r="EM44" s="4"/>
-      <c r="EN44" s="4"/>
     </row>
-    <row r="45" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
         <v>63</v>
       </c>
@@ -21999,9 +21923,8 @@
       <c r="EK45" s="4"/>
       <c r="EL45" s="4"/>
       <c r="EM45" s="4"/>
-      <c r="EN45" s="4"/>
     </row>
-    <row r="46" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>64</v>
       </c>
@@ -22146,9 +22069,8 @@
       <c r="EK46" s="4"/>
       <c r="EL46" s="4"/>
       <c r="EM46" s="4"/>
-      <c r="EN46" s="4"/>
     </row>
-    <row r="47" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
         <v>65</v>
       </c>
@@ -22293,9 +22215,8 @@
       <c r="EK47" s="4"/>
       <c r="EL47" s="4"/>
       <c r="EM47" s="4"/>
-      <c r="EN47" s="4"/>
     </row>
-    <row r="48" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>187</v>
       </c>
@@ -22447,9 +22368,8 @@
       <c r="EK48" s="1"/>
       <c r="EL48" s="1"/>
       <c r="EM48" s="1"/>
-      <c r="EN48" s="1"/>
     </row>
-    <row r="49" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>45</v>
       </c>
@@ -22598,9 +22518,8 @@
       <c r="EK49" s="1"/>
       <c r="EL49" s="1"/>
       <c r="EM49" s="1"/>
-      <c r="EN49" s="1"/>
     </row>
-    <row r="50" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
         <v>46</v>
       </c>
@@ -22745,9 +22664,8 @@
       <c r="EK50" s="1"/>
       <c r="EL50" s="1"/>
       <c r="EM50" s="1"/>
-      <c r="EN50" s="1"/>
     </row>
-    <row r="51" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
         <v>47</v>
       </c>
@@ -22892,9 +22810,8 @@
       <c r="EK51" s="1"/>
       <c r="EL51" s="1"/>
       <c r="EM51" s="1"/>
-      <c r="EN51" s="1"/>
     </row>
-    <row r="52" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
         <v>48</v>
       </c>
@@ -23039,9 +22956,8 @@
       <c r="EK52" s="4"/>
       <c r="EL52" s="4"/>
       <c r="EM52" s="4"/>
-      <c r="EN52" s="4"/>
     </row>
-    <row r="53" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
         <v>49</v>
       </c>
@@ -23186,9 +23102,8 @@
       <c r="EK53" s="4"/>
       <c r="EL53" s="4"/>
       <c r="EM53" s="4"/>
-      <c r="EN53" s="4"/>
     </row>
-    <row r="54" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
         <v>50</v>
       </c>
@@ -23333,9 +23248,8 @@
       <c r="EK54" s="4"/>
       <c r="EL54" s="4"/>
       <c r="EM54" s="4"/>
-      <c r="EN54" s="4"/>
     </row>
-    <row r="55" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
         <v>51</v>
       </c>
@@ -23480,9 +23394,8 @@
       <c r="EK55" s="4"/>
       <c r="EL55" s="4"/>
       <c r="EM55" s="4"/>
-      <c r="EN55" s="4"/>
     </row>
-    <row r="56" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B56" s="18" t="s">
         <v>70</v>
       </c>
@@ -23627,9 +23540,8 @@
       <c r="EK56" s="1"/>
       <c r="EL56" s="1"/>
       <c r="EM56" s="1"/>
-      <c r="EN56" s="1"/>
     </row>
-    <row r="57" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
         <v>71</v>
       </c>
@@ -23774,9 +23686,8 @@
       <c r="EK57" s="1"/>
       <c r="EL57" s="1"/>
       <c r="EM57" s="1"/>
-      <c r="EN57" s="1"/>
     </row>
-    <row r="58" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
         <v>72</v>
       </c>
@@ -23921,9 +23832,8 @@
       <c r="EK58" s="1"/>
       <c r="EL58" s="1"/>
       <c r="EM58" s="1"/>
-      <c r="EN58" s="1"/>
     </row>
-    <row r="59" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
         <v>73</v>
       </c>
@@ -24068,9 +23978,8 @@
       <c r="EK59" s="1"/>
       <c r="EL59" s="1"/>
       <c r="EM59" s="1"/>
-      <c r="EN59" s="1"/>
     </row>
-    <row r="60" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>184</v>
       </c>
@@ -24230,9 +24139,8 @@
       <c r="EK60" s="4"/>
       <c r="EL60" s="4"/>
       <c r="EM60" s="4"/>
-      <c r="EN60" s="4"/>
     </row>
-    <row r="61" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B61" s="17" t="s">
         <v>37</v>
       </c>
@@ -24389,9 +24297,8 @@
       <c r="EK61" s="4"/>
       <c r="EL61" s="4"/>
       <c r="EM61" s="4"/>
-      <c r="EN61" s="4"/>
     </row>
-    <row r="62" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B62" s="17" t="s">
         <v>38</v>
       </c>
@@ -24540,9 +24447,8 @@
       <c r="EK62" s="4"/>
       <c r="EL62" s="4"/>
       <c r="EM62" s="4"/>
-      <c r="EN62" s="4"/>
     </row>
-    <row r="63" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B63" s="17" t="s">
         <v>39</v>
       </c>
@@ -24691,9 +24597,8 @@
       <c r="EK63" s="4"/>
       <c r="EL63" s="4"/>
       <c r="EM63" s="4"/>
-      <c r="EN63" s="4"/>
     </row>
-    <row r="64" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B64" s="17" t="s">
         <v>40</v>
       </c>
@@ -24994,12 +24899,12 @@
       <c r="DN64" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DO64" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="DP64" s="1">
+      <c r="DO64" s="1">
         <v>60</v>
       </c>
+      <c r="DP64" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="DQ64" s="1" t="s">
         <v>449</v>
       </c>
@@ -25009,12 +24914,12 @@
       <c r="DS64" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DT64" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="DU64" s="1">
+      <c r="DT64" s="1">
         <v>41.905000000000001</v>
       </c>
+      <c r="DU64" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="DV64" s="1" t="s">
         <v>449</v>
       </c>
@@ -25027,12 +24932,12 @@
       <c r="DY64" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DZ64" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="EA64" s="1">
+      <c r="DZ64" s="1">
         <v>2</v>
       </c>
+      <c r="EA64" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="EB64" s="1" t="s">
         <v>449</v>
       </c>
@@ -25051,12 +24956,12 @@
       <c r="EG64" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EH64" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="EI64" s="1">
+      <c r="EH64" s="1">
         <v>40.650999999999996</v>
       </c>
+      <c r="EI64" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="EJ64" s="1" t="s">
         <v>449</v>
       </c>
@@ -25069,11 +24974,8 @@
       <c r="EM64" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EN64" s="1" t="s">
-        <v>449</v>
-      </c>
     </row>
-    <row r="65" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B65" s="17" t="s">
         <v>41</v>
       </c>
@@ -25374,12 +25276,12 @@
       <c r="DN65" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DO65" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="DP65" s="1">
+      <c r="DO65" s="1">
         <v>60</v>
       </c>
+      <c r="DP65" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="DQ65" s="1" t="s">
         <v>449</v>
       </c>
@@ -25389,12 +25291,12 @@
       <c r="DS65" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DT65" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="DU65" s="1">
+      <c r="DT65" s="1">
         <v>41.905000000000001</v>
       </c>
+      <c r="DU65" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="DV65" s="1" t="s">
         <v>449</v>
       </c>
@@ -25407,12 +25309,12 @@
       <c r="DY65" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DZ65" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="EA65" s="1">
+      <c r="DZ65" s="1">
         <v>2</v>
       </c>
+      <c r="EA65" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="EB65" s="1" t="s">
         <v>449</v>
       </c>
@@ -25431,12 +25333,12 @@
       <c r="EG65" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EH65" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="EI65" s="1">
+      <c r="EH65" s="1">
         <v>40.650999999999996</v>
       </c>
+      <c r="EI65" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="EJ65" s="1" t="s">
         <v>449</v>
       </c>
@@ -25449,11 +25351,8 @@
       <c r="EM65" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EN65" s="1" t="s">
-        <v>449</v>
-      </c>
     </row>
-    <row r="66" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B66" s="17" t="s">
         <v>42</v>
       </c>
@@ -25752,12 +25651,12 @@
       <c r="DN66" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DO66" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="DP66" s="1">
+      <c r="DO66" s="1">
         <v>60</v>
       </c>
+      <c r="DP66" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="DQ66" s="1" t="s">
         <v>449</v>
       </c>
@@ -25767,12 +25666,12 @@
       <c r="DS66" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DT66" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="DU66" s="1">
+      <c r="DT66" s="1">
         <v>41.905000000000001</v>
       </c>
+      <c r="DU66" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="DV66" s="1" t="s">
         <v>449</v>
       </c>
@@ -25785,12 +25684,12 @@
       <c r="DY66" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DZ66" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="EA66" s="1">
+      <c r="DZ66" s="1">
         <v>2</v>
       </c>
+      <c r="EA66" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="EB66" s="1" t="s">
         <v>449</v>
       </c>
@@ -25809,12 +25708,12 @@
       <c r="EG66" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EH66" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="EI66" s="1">
+      <c r="EH66" s="1">
         <v>31.414000000000001</v>
       </c>
+      <c r="EI66" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="EJ66" s="1" t="s">
         <v>449</v>
       </c>
@@ -25827,11 +25726,8 @@
       <c r="EM66" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EN66" s="1" t="s">
-        <v>449</v>
-      </c>
     </row>
-    <row r="67" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B67" s="17" t="s">
         <v>43</v>
       </c>
@@ -26130,12 +26026,12 @@
       <c r="DN67" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DO67" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="DP67" s="1">
+      <c r="DO67" s="1">
         <v>60</v>
       </c>
+      <c r="DP67" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="DQ67" s="1" t="s">
         <v>449</v>
       </c>
@@ -26145,12 +26041,12 @@
       <c r="DS67" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DT67" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="DU67" s="1">
+      <c r="DT67" s="1">
         <v>41.905000000000001</v>
       </c>
+      <c r="DU67" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="DV67" s="1" t="s">
         <v>449</v>
       </c>
@@ -26163,12 +26059,12 @@
       <c r="DY67" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DZ67" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="EA67" s="1">
+      <c r="DZ67" s="1">
         <v>2</v>
       </c>
+      <c r="EA67" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="EB67" s="1" t="s">
         <v>449</v>
       </c>
@@ -26187,12 +26083,12 @@
       <c r="EG67" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EH67" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="EI67" s="1">
+      <c r="EH67" s="1">
         <v>31.414000000000001</v>
       </c>
+      <c r="EI67" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="EJ67" s="1" t="s">
         <v>449</v>
       </c>
@@ -26205,11 +26101,8 @@
       <c r="EM67" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="EN67" s="1" t="s">
-        <v>449</v>
-      </c>
     </row>
-    <row r="68" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B68" s="17" t="s">
         <v>66</v>
       </c>
@@ -26367,9 +26260,8 @@
       <c r="EK68" s="4"/>
       <c r="EL68" s="4"/>
       <c r="EM68" s="4"/>
-      <c r="EN68" s="4"/>
     </row>
-    <row r="69" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B69" s="17" t="s">
         <v>67</v>
       </c>
@@ -26527,9 +26419,8 @@
       <c r="EK69" s="4"/>
       <c r="EL69" s="4"/>
       <c r="EM69" s="4"/>
-      <c r="EN69" s="4"/>
     </row>
-    <row r="70" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B70" s="17" t="s">
         <v>68</v>
       </c>
@@ -26681,9 +26572,8 @@
       <c r="EK70" s="4"/>
       <c r="EL70" s="4"/>
       <c r="EM70" s="4"/>
-      <c r="EN70" s="4"/>
     </row>
-    <row r="71" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B71" s="17" t="s">
         <v>69</v>
       </c>
@@ -26835,9 +26725,8 @@
       <c r="EK71" s="4"/>
       <c r="EL71" s="4"/>
       <c r="EM71" s="4"/>
-      <c r="EN71" s="4"/>
     </row>
-    <row r="72" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>185</v>
       </c>
@@ -26985,9 +26874,8 @@
       <c r="EK72" s="1"/>
       <c r="EL72" s="1"/>
       <c r="EM72" s="1"/>
-      <c r="EN72" s="1"/>
     </row>
-    <row r="73" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B73" s="18" t="s">
         <v>53</v>
       </c>
@@ -27132,9 +27020,8 @@
       <c r="EK73" s="1"/>
       <c r="EL73" s="1"/>
       <c r="EM73" s="1"/>
-      <c r="EN73" s="1"/>
     </row>
-    <row r="74" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
         <v>54</v>
       </c>
@@ -27279,9 +27166,8 @@
       <c r="EK74" s="1"/>
       <c r="EL74" s="1"/>
       <c r="EM74" s="1"/>
-      <c r="EN74" s="1"/>
     </row>
-    <row r="75" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
         <v>55</v>
       </c>
@@ -27426,9 +27312,8 @@
       <c r="EK75" s="1"/>
       <c r="EL75" s="1"/>
       <c r="EM75" s="1"/>
-      <c r="EN75" s="1"/>
     </row>
-    <row r="76" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
         <v>56</v>
       </c>
@@ -27573,9 +27458,8 @@
       <c r="EK76" s="4"/>
       <c r="EL76" s="4"/>
       <c r="EM76" s="4"/>
-      <c r="EN76" s="4"/>
     </row>
-    <row r="77" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B77" s="18" t="s">
         <v>57</v>
       </c>
@@ -27720,9 +27604,8 @@
       <c r="EK77" s="4"/>
       <c r="EL77" s="4"/>
       <c r="EM77" s="4"/>
-      <c r="EN77" s="4"/>
     </row>
-    <row r="78" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
         <v>58</v>
       </c>
@@ -27867,9 +27750,8 @@
       <c r="EK78" s="4"/>
       <c r="EL78" s="4"/>
       <c r="EM78" s="4"/>
-      <c r="EN78" s="4"/>
     </row>
-    <row r="79" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B79" s="18" t="s">
         <v>59</v>
       </c>
@@ -28014,9 +27896,8 @@
       <c r="EK79" s="4"/>
       <c r="EL79" s="4"/>
       <c r="EM79" s="4"/>
-      <c r="EN79" s="4"/>
     </row>
-    <row r="80" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B80" s="18" t="s">
         <v>74</v>
       </c>
@@ -28161,9 +28042,8 @@
       <c r="EK80" s="1"/>
       <c r="EL80" s="1"/>
       <c r="EM80" s="1"/>
-      <c r="EN80" s="1"/>
     </row>
-    <row r="81" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B81" s="18" t="s">
         <v>75</v>
       </c>
@@ -28308,9 +28188,8 @@
       <c r="EK81" s="1"/>
       <c r="EL81" s="1"/>
       <c r="EM81" s="1"/>
-      <c r="EN81" s="1"/>
     </row>
-    <row r="82" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B82" s="18" t="s">
         <v>76</v>
       </c>
@@ -28455,9 +28334,8 @@
       <c r="EK82" s="1"/>
       <c r="EL82" s="1"/>
       <c r="EM82" s="1"/>
-      <c r="EN82" s="1"/>
     </row>
-    <row r="83" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B83" s="18" t="s">
         <v>77</v>
       </c>
@@ -28602,9 +28480,8 @@
       <c r="EK83" s="1"/>
       <c r="EL83" s="1"/>
       <c r="EM83" s="1"/>
-      <c r="EN83" s="1"/>
     </row>
-    <row r="84" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>133</v>
       </c>
@@ -28954,79 +28831,79 @@
         <v>7</v>
       </c>
       <c r="DM84" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DN84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DO84" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="DO84" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="DP84" s="5" t="s">
         <v>6</v>
       </c>
       <c r="DQ84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DR84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DS84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="DR84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DS84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="DT84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DU84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DV84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="DU84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DV84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="DW84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DY84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="DX84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DY84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="DZ84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EA84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EB84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EC84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="ED84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="EA84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="EB84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="EC84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="ED84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="EE84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="EF84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="EG84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EH84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="EH84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="EI84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EJ84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="EJ84" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="EK84" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="EL84" s="5" t="s">
         <v>7</v>
@@ -29034,11 +28911,8 @@
       <c r="EM84" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="EN84" s="5" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="85" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85" s="10" t="s">
         <v>60</v>
@@ -29359,80 +29233,80 @@
       <c r="DL85" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="DM85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DN85" s="5">
+      <c r="DM85" s="5">
         <v>2050</v>
       </c>
-      <c r="DO85" s="5" t="s">
-        <v>449</v>
+      <c r="DN85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DO85" s="5">
+        <v>2050</v>
       </c>
       <c r="DP85" s="5">
         <v>2050</v>
       </c>
-      <c r="DQ85" s="5">
+      <c r="DQ85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DR85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DS85" s="5">
         <v>2050</v>
       </c>
-      <c r="DR85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DS85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DT85" s="5">
+      <c r="DT85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DU85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DV85" s="5">
         <v>2050</v>
       </c>
-      <c r="DU85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DV85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DW85" s="5">
+      <c r="DW85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DX85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DY85" s="5">
+        <v>2065</v>
+      </c>
+      <c r="DZ85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EA85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EB85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EC85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="ED85" s="5">
         <v>2050</v>
       </c>
-      <c r="DX85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DY85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DZ85" s="5">
-        <v>2065</v>
-      </c>
-      <c r="EA85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EB85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EC85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="ED85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EE85" s="5">
+      <c r="EE85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EF85" s="5">
         <v>2050</v>
       </c>
-      <c r="EF85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EG85" s="5">
+      <c r="EG85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EH85" s="5">
         <v>2050</v>
       </c>
-      <c r="EH85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EI85" s="5">
+      <c r="EI85" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EJ85" s="5">
         <v>2050</v>
       </c>
-      <c r="EJ85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EK85" s="5">
-        <v>2050</v>
+      <c r="EK85" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="EL85" s="5" t="s">
         <v>449</v>
@@ -29440,11 +29314,8 @@
       <c r="EM85" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="EN85" s="5" t="s">
-        <v>449</v>
-      </c>
     </row>
-    <row r="86" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
       <c r="B86" s="10" t="s">
         <v>196</v>
@@ -29766,79 +29637,79 @@
         <v>449</v>
       </c>
       <c r="DM86" s="5" t="s">
-        <v>449</v>
+        <v>119</v>
       </c>
       <c r="DN86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DO86" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DO86" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="DP86" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DR86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DS86" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DQ86" s="5" t="s">
+      <c r="DT86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DU86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DV86" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="DW86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DX86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DY86" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="DZ86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EA86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EB86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EC86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="ED86" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="DR86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DS86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DT86" s="5" t="s">
+      <c r="EE86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EF86" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DU86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DV86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DW86" s="5" t="s">
+      <c r="EG86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EH86" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DX86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DY86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DZ86" s="5" t="s">
+      <c r="EI86" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EJ86" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="EA86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EB86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EC86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="ED86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EE86" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EF86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EG86" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="EH86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EI86" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="EJ86" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="EK86" s="5" t="s">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="EL86" s="5" t="s">
         <v>449</v>
@@ -29846,11 +29717,8 @@
       <c r="EM86" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="EN86" s="5" t="s">
-        <v>449</v>
-      </c>
     </row>
-    <row r="87" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="B87" s="10" t="s">
         <v>197</v>
@@ -30172,79 +30040,79 @@
         <v>449</v>
       </c>
       <c r="DM87" s="5" t="s">
-        <v>449</v>
+        <v>161</v>
       </c>
       <c r="DN87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DO87" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="DO87" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="DP87" s="5" t="s">
         <v>161</v>
       </c>
       <c r="DQ87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DR87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DS87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="DR87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DS87" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="DT87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DU87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DV87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="DU87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DV87" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="DW87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DX87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="DY87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="DX87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="DY87" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="DZ87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EA87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EB87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EC87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="ED87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="EA87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EB87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="EC87" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="ED87" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="EE87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EF87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="EF87" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="EG87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EH87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="EH87" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="EI87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="EJ87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="EJ87" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="EK87" s="5" t="s">
-        <v>161</v>
+        <v>449</v>
       </c>
       <c r="EL87" s="5" t="s">
         <v>449</v>
@@ -30252,11 +30120,8 @@
       <c r="EM87" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="EN87" s="5" t="s">
-        <v>449</v>
-      </c>
     </row>
-    <row r="88" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
         <v>171</v>
       </c>
@@ -30597,40 +30462,40 @@
         <v>6</v>
       </c>
       <c r="DJ88" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DK88" s="5" t="s">
         <v>6</v>
       </c>
       <c r="DL88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN88" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="DM88" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="DN88" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="DO88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP88" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="DP88" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="DQ88" s="5" t="s">
         <v>6</v>
       </c>
       <c r="DR88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DS88" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="DS88" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="DT88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DU88" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="DU88" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="DV88" s="5" t="s">
         <v>6</v>
@@ -30642,10 +30507,10 @@
         <v>6</v>
       </c>
       <c r="DY88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ88" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="DZ88" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="EA88" s="5" t="s">
         <v>6</v>
@@ -30660,10 +30525,10 @@
         <v>6</v>
       </c>
       <c r="EE88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF88" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="EF88" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="EG88" s="5" t="s">
         <v>6</v>
@@ -30686,11 +30551,8 @@
       <c r="EM88" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="EN88" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="89" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
       <c r="B89" s="10" t="s">
         <v>23</v>
@@ -31015,67 +30877,67 @@
         <v>2007</v>
       </c>
       <c r="DJ89" s="3">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="DK89" s="3">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="DL89" s="3">
         <v>2010</v>
       </c>
       <c r="DM89" s="3">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="DN89" s="3">
+        <v>2005</v>
+      </c>
+      <c r="DO89" s="3">
         <v>2018</v>
       </c>
-      <c r="DO89" s="3">
-        <v>2005</v>
-      </c>
       <c r="DP89" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="DQ89" s="3">
         <v>2015</v>
       </c>
       <c r="DR89" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="DS89" s="3">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="DT89" s="3">
         <v>2018</v>
       </c>
       <c r="DU89" s="3">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="DV89" s="3">
-        <v>2008</v>
+        <v>1990</v>
       </c>
       <c r="DW89" s="3">
         <v>1990</v>
       </c>
       <c r="DX89" s="3">
-        <v>1990</v>
+        <v>2014</v>
       </c>
       <c r="DY89" s="3">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="DZ89" s="3">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="EA89" s="3">
         <v>2010</v>
       </c>
       <c r="EB89" s="3">
+        <v>2006</v>
+      </c>
+      <c r="EC89" s="3">
+        <v>2013</v>
+      </c>
+      <c r="ED89" s="3">
         <v>2010</v>
-      </c>
-      <c r="EC89" s="3">
-        <v>2006</v>
-      </c>
-      <c r="ED89" s="3">
-        <v>2013</v>
       </c>
       <c r="EE89" s="3">
         <v>2010</v>
@@ -31084,31 +30946,28 @@
         <v>2010</v>
       </c>
       <c r="EG89" s="3">
+        <v>2015</v>
+      </c>
+      <c r="EH89" s="3">
+        <v>2019</v>
+      </c>
+      <c r="EI89" s="3">
         <v>2010</v>
-      </c>
-      <c r="EH89" s="3">
-        <v>2015</v>
-      </c>
-      <c r="EI89" s="3">
-        <v>2019</v>
       </c>
       <c r="EJ89" s="3">
         <v>2010</v>
       </c>
       <c r="EK89" s="3">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="EL89" s="3">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="EM89" s="3">
-        <v>2015</v>
-      </c>
-      <c r="EN89" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="90" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A90" s="20"/>
       <c r="B90" s="10" t="s">
         <v>113</v>
@@ -31290,9 +31149,8 @@
       <c r="EK90" s="3"/>
       <c r="EL90" s="3"/>
       <c r="EM90" s="3"/>
-      <c r="EN90" s="3"/>
     </row>
-    <row r="91" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="B91" s="10" t="s">
         <v>114</v>
@@ -31444,9 +31302,8 @@
       <c r="EK91" s="3"/>
       <c r="EL91" s="3"/>
       <c r="EM91" s="3"/>
-      <c r="EN91" s="3"/>
     </row>
-    <row r="92" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
       <c r="B92" s="10" t="s">
         <v>127</v>
@@ -31628,9 +31485,8 @@
       <c r="EK92" s="3"/>
       <c r="EL92" s="3"/>
       <c r="EM92" s="3"/>
-      <c r="EN92" s="3"/>
     </row>
-    <row r="93" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A93" s="20" t="s">
         <v>172</v>
       </c>
@@ -31811,9 +31667,8 @@
       <c r="EK93" s="31"/>
       <c r="EL93" s="31"/>
       <c r="EM93" s="31"/>
-      <c r="EN93" s="31"/>
     </row>
-    <row r="94" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
       <c r="B94" s="14" t="s">
         <v>80</v>
@@ -32118,101 +31973,98 @@
       <c r="DI94" s="31">
         <v>0.35199999999999998</v>
       </c>
-      <c r="DJ94" s="31" t="s">
-        <v>449</v>
+      <c r="DJ94" s="31">
+        <v>0.154</v>
       </c>
       <c r="DK94" s="31">
-        <v>0.154</v>
-      </c>
-      <c r="DL94" s="31">
         <v>16.751999999999999</v>
       </c>
+      <c r="DL94" s="31" t="s">
+        <v>449</v>
+      </c>
       <c r="DM94" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="DN94" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="DO94" s="31">
+      <c r="DN94" s="31">
         <v>20.34</v>
       </c>
-      <c r="DP94" s="31" t="s">
-        <v>449</v>
+      <c r="DO94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="DP94" s="31">
+        <v>0.70742499999999997</v>
       </c>
       <c r="DQ94" s="31">
-        <v>0.70742499999999997</v>
-      </c>
-      <c r="DR94" s="31">
         <v>53.7</v>
       </c>
-      <c r="DS94" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="DT94" s="31">
+      <c r="DR94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="DS94" s="31">
         <v>25</v>
       </c>
-      <c r="DU94" s="31" t="s">
-        <v>449</v>
+      <c r="DT94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="DU94" s="31">
+        <v>5.3405699999999996</v>
       </c>
       <c r="DV94" s="31">
-        <v>5.3405699999999996</v>
+        <v>54.158000000000001</v>
       </c>
       <c r="DW94" s="31">
-        <v>54.158000000000001</v>
+        <v>35.53</v>
       </c>
       <c r="DX94" s="31">
-        <v>35.53</v>
-      </c>
-      <c r="DY94" s="31">
         <v>84.455800000000011</v>
       </c>
-      <c r="DZ94" s="31" t="s">
-        <v>449</v>
+      <c r="DY94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="DZ94" s="31">
+        <v>1.4830000000000001</v>
       </c>
       <c r="EA94" s="31">
-        <v>1.4830000000000001</v>
+        <v>16.802</v>
       </c>
       <c r="EB94" s="31">
-        <v>16.802</v>
+        <v>0.31</v>
       </c>
       <c r="EC94" s="31">
-        <v>0.31</v>
+        <v>34.234000000000002</v>
       </c>
       <c r="ED94" s="31">
-        <v>34.234000000000002</v>
-      </c>
-      <c r="EE94" s="31">
         <v>35</v>
       </c>
-      <c r="EF94" s="31" t="s">
-        <v>449</v>
+      <c r="EE94" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="EF94" s="31">
+        <v>0.02</v>
       </c>
       <c r="EG94" s="31">
-        <v>0.02</v>
+        <v>90.1</v>
       </c>
       <c r="EH94" s="31">
-        <v>90.1</v>
+        <v>34.612000000000002</v>
       </c>
       <c r="EI94" s="31">
-        <v>34.612000000000002</v>
+        <v>200.1</v>
       </c>
       <c r="EJ94" s="31">
-        <v>200.1</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="EK94" s="31">
-        <v>0.72799999999999998</v>
+        <v>240</v>
       </c>
       <c r="EL94" s="31">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="EM94" s="31">
-        <v>60</v>
-      </c>
-      <c r="EN94" s="31">
         <v>35.840000000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
       <c r="B95" s="14" t="s">
         <v>81</v>
@@ -32375,9 +32227,8 @@
       <c r="EK95" s="31"/>
       <c r="EL95" s="31"/>
       <c r="EM95" s="31"/>
-      <c r="EN95" s="31"/>
     </row>
-    <row r="96" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
         <v>247</v>
       </c>
@@ -32527,9 +32378,8 @@
       <c r="EK96" s="31"/>
       <c r="EL96" s="31"/>
       <c r="EM96" s="31"/>
-      <c r="EN96" s="31"/>
     </row>
-    <row r="97" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
       <c r="B97" s="14" t="s">
         <v>83</v>
@@ -32677,9 +32527,8 @@
       <c r="EK97" s="31"/>
       <c r="EL97" s="31"/>
       <c r="EM97" s="31"/>
-      <c r="EN97" s="31"/>
     </row>
-    <row r="98" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A98" s="20"/>
       <c r="B98" s="14" t="s">
         <v>84</v>
@@ -32827,9 +32676,8 @@
       <c r="EK98" s="31"/>
       <c r="EL98" s="31"/>
       <c r="EM98" s="31"/>
-      <c r="EN98" s="31"/>
     </row>
-    <row r="99" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
       <c r="B99" s="14" t="s">
         <v>85</v>
@@ -32977,9 +32825,8 @@
       <c r="EK99" s="31"/>
       <c r="EL99" s="31"/>
       <c r="EM99" s="31"/>
-      <c r="EN99" s="31"/>
     </row>
-    <row r="100" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
         <v>134</v>
       </c>
@@ -33131,9 +32978,8 @@
       <c r="EK100" s="30"/>
       <c r="EL100" s="30"/>
       <c r="EM100" s="30"/>
-      <c r="EN100" s="30"/>
     </row>
-    <row r="101" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A101" s="20"/>
       <c r="B101" s="14" t="s">
         <v>87</v>
@@ -33284,9 +33130,8 @@
       <c r="EK101" s="30"/>
       <c r="EL101" s="30"/>
       <c r="EM101" s="30"/>
-      <c r="EN101" s="30"/>
     </row>
-    <row r="102" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A102" s="20"/>
       <c r="B102" s="14" t="s">
         <v>88</v>
@@ -33436,9 +33281,8 @@
       <c r="EK102" s="30"/>
       <c r="EL102" s="30"/>
       <c r="EM102" s="30"/>
-      <c r="EN102" s="30"/>
     </row>
-    <row r="103" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A103" s="20"/>
       <c r="B103" s="14" t="s">
         <v>89</v>
@@ -33584,9 +33428,8 @@
       <c r="EK103" s="30"/>
       <c r="EL103" s="30"/>
       <c r="EM103" s="30"/>
-      <c r="EN103" s="30"/>
     </row>
-    <row r="104" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A104" s="20"/>
       <c r="B104" s="14" t="s">
         <v>90</v>
@@ -33732,9 +33575,8 @@
       <c r="EK104" s="30"/>
       <c r="EL104" s="30"/>
       <c r="EM104" s="30"/>
-      <c r="EN104" s="30"/>
     </row>
-    <row r="105" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A105" s="20"/>
       <c r="B105" s="14" t="s">
         <v>91</v>
@@ -33880,9 +33722,8 @@
       <c r="EK105" s="30"/>
       <c r="EL105" s="30"/>
       <c r="EM105" s="30"/>
-      <c r="EN105" s="30"/>
     </row>
-    <row r="106" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A106" s="20"/>
       <c r="B106" s="14" t="s">
         <v>92</v>
@@ -34028,9 +33869,8 @@
       <c r="EK106" s="30"/>
       <c r="EL106" s="30"/>
       <c r="EM106" s="30"/>
-      <c r="EN106" s="30"/>
     </row>
-    <row r="107" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A107" s="22"/>
       <c r="B107" s="36" t="s">
         <v>272</v>
@@ -34176,9 +34016,8 @@
       <c r="EK107" s="30"/>
       <c r="EL107" s="30"/>
       <c r="EM107" s="30"/>
-      <c r="EN107" s="30"/>
     </row>
-    <row r="108" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>173</v>
       </c>
@@ -34519,64 +34358,64 @@
         <v>7</v>
       </c>
       <c r="DJ108" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DK108" s="21" t="s">
         <v>6</v>
       </c>
       <c r="DL108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="DM108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="DN108" s="21" t="s">
         <v>6</v>
       </c>
       <c r="DO108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="DP108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="DQ108" s="21" t="s">
         <v>6</v>
       </c>
       <c r="DR108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="DS108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="DS108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="DT108" s="21" t="s">
         <v>6</v>
       </c>
       <c r="DU108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="DV108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="DW108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="DV108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="DW108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="DX108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="DY108" s="21" t="s">
         <v>6</v>
       </c>
       <c r="DZ108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="EA108" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="EA108" s="21" t="s">
-        <v>7</v>
-      </c>
       <c r="EB108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="EC108" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="EC108" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="ED108" s="21" t="s">
         <v>6</v>
@@ -34585,34 +34424,31 @@
         <v>6</v>
       </c>
       <c r="EF108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="EG108" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="EG108" s="21" t="s">
-        <v>7</v>
-      </c>
       <c r="EH108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="EI108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="EJ108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="EK108" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="EI108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="EJ108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="EK108" s="21" t="s">
-        <v>7</v>
-      </c>
       <c r="EL108" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="EM108" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="EM108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="EN108" s="21" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="109" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
         <v>24</v>
       </c>
@@ -35003,11 +34839,8 @@
       <c r="EM109" s="3">
         <v>2030</v>
       </c>
-      <c r="EN109" s="3">
-        <v>2030</v>
-      </c>
     </row>
-    <row r="110" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>117</v>
       </c>
@@ -35172,9 +35005,8 @@
       <c r="EK110" s="3"/>
       <c r="EL110" s="3"/>
       <c r="EM110" s="3"/>
-      <c r="EN110" s="3"/>
     </row>
-    <row r="111" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
         <v>118</v>
       </c>
@@ -35319,9 +35151,8 @@
       <c r="EK111" s="3"/>
       <c r="EL111" s="3"/>
       <c r="EM111" s="3"/>
-      <c r="EN111" s="3"/>
     </row>
-    <row r="112" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
         <v>127</v>
       </c>
@@ -35486,9 +35317,8 @@
       <c r="EK112" s="3"/>
       <c r="EL112" s="3"/>
       <c r="EM112" s="3"/>
-      <c r="EN112" s="3"/>
     </row>
-    <row r="113" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="s">
         <v>174</v>
       </c>
@@ -35656,9 +35486,8 @@
       <c r="EK113" s="2"/>
       <c r="EL113" s="2"/>
       <c r="EM113" s="2"/>
-      <c r="EN113" s="2"/>
     </row>
-    <row r="114" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B114" s="14" t="s">
         <v>94</v>
       </c>
@@ -35947,101 +35776,98 @@
       <c r="DI114" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="DJ114" s="2" t="s">
-        <v>449</v>
+      <c r="DJ114" s="2">
+        <v>0.4037</v>
       </c>
       <c r="DK114" s="2">
-        <v>0.4037</v>
-      </c>
-      <c r="DL114" s="2">
         <v>37.761000000000003</v>
       </c>
-      <c r="DM114" s="2" t="s">
-        <v>449</v>
+      <c r="DL114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="DM114" s="2">
+        <v>1.1100543478260869</v>
       </c>
       <c r="DN114" s="2">
-        <v>1.1100543478260869</v>
-      </c>
-      <c r="DO114" s="2">
         <v>138.92000000000002</v>
       </c>
-      <c r="DP114" s="2" t="s">
-        <v>449</v>
+      <c r="DO114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="DP114" s="2">
+        <v>1.00285</v>
       </c>
       <c r="DQ114" s="2">
-        <v>1.00285</v>
-      </c>
-      <c r="DR114" s="2">
         <v>107.4</v>
       </c>
-      <c r="DS114" s="2" t="s">
-        <v>449</v>
+      <c r="DR114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="DS114" s="2">
+        <v>55.9</v>
       </c>
       <c r="DT114" s="2">
-        <v>55.9</v>
-      </c>
-      <c r="DU114" s="2">
         <v>69.025000000000006</v>
       </c>
+      <c r="DU114" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="DV114" s="2" t="s">
         <v>449</v>
       </c>
       <c r="DW114" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="DX114" s="2" t="s">
-        <v>449</v>
+      <c r="DX114" s="2">
+        <v>153.6283</v>
       </c>
       <c r="DY114" s="2">
-        <v>153.6283</v>
-      </c>
-      <c r="DZ114" s="2">
         <v>555</v>
       </c>
-      <c r="EA114" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="EB114" s="2">
+      <c r="DZ114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="EA114" s="2">
         <v>30.41</v>
       </c>
-      <c r="EC114" s="2" t="s">
-        <v>449</v>
+      <c r="EB114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="EC114" s="2">
+        <v>103</v>
       </c>
       <c r="ED114" s="2">
-        <v>103</v>
+        <v>49.6</v>
       </c>
       <c r="EE114" s="2">
-        <v>49.6</v>
-      </c>
-      <c r="EF114" s="2">
         <v>135.80000000000001</v>
       </c>
-      <c r="EG114" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="EH114" s="2">
+      <c r="EF114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="EG114" s="2">
         <v>148.80000000000001</v>
       </c>
+      <c r="EH114" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="EI114" s="2" t="s">
         <v>449</v>
       </c>
       <c r="EJ114" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="EK114" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="EL114" s="2">
+      <c r="EK114" s="2">
         <v>330</v>
       </c>
-      <c r="EM114" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="EN114" s="2">
+      <c r="EL114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="EM114" s="2">
         <v>75.39</v>
       </c>
     </row>
-    <row r="115" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B115" s="14" t="s">
         <v>95</v>
       </c>
@@ -36191,9 +36017,8 @@
       <c r="EK115" s="2"/>
       <c r="EL115" s="2"/>
       <c r="EM115" s="2"/>
-      <c r="EN115" s="2"/>
     </row>
-    <row r="116" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B116" s="14" t="s">
         <v>96</v>
       </c>
@@ -36340,9 +36165,8 @@
       <c r="EK116" s="2"/>
       <c r="EL116" s="2"/>
       <c r="EM116" s="2"/>
-      <c r="EN116" s="2"/>
     </row>
-    <row r="117" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B117" s="14" t="s">
         <v>97</v>
       </c>
@@ -36489,9 +36313,8 @@
       <c r="EK117" s="2"/>
       <c r="EL117" s="2"/>
       <c r="EM117" s="2"/>
-      <c r="EN117" s="2"/>
     </row>
-    <row r="118" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B118" s="14" t="s">
         <v>98</v>
       </c>
@@ -36638,9 +36461,8 @@
       <c r="EK118" s="2"/>
       <c r="EL118" s="2"/>
       <c r="EM118" s="2"/>
-      <c r="EN118" s="2"/>
     </row>
-    <row r="119" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B119" s="14" t="s">
         <v>99</v>
       </c>
@@ -36787,9 +36609,8 @@
       <c r="EK119" s="2"/>
       <c r="EL119" s="2"/>
       <c r="EM119" s="2"/>
-      <c r="EN119" s="2"/>
     </row>
-    <row r="120" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A120" s="20" t="s">
         <v>135</v>
       </c>
@@ -36797,49 +36618,49 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A121" s="20"/>
       <c r="B121" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A122" s="20"/>
       <c r="B122" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="123" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A123" s="20"/>
       <c r="B123" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="124" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A124" s="20"/>
       <c r="B124" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A125" s="20"/>
       <c r="B125" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="126" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A126" s="20"/>
       <c r="B126" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="127" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A127" s="22"/>
       <c r="B127" s="37" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="128" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="s">
         <v>175</v>
       </c>
@@ -37041,9 +36862,8 @@
       <c r="EK128" s="4"/>
       <c r="EL128" s="4"/>
       <c r="EM128" s="4"/>
-      <c r="EN128" s="4"/>
     </row>
-    <row r="129" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B129" s="16" t="s">
         <v>141</v>
       </c>
@@ -37194,9 +37014,8 @@
       <c r="EK129" s="4"/>
       <c r="EL129" s="4"/>
       <c r="EM129" s="4"/>
-      <c r="EN129" s="4"/>
     </row>
-    <row r="130" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B130" s="16" t="s">
         <v>142</v>
       </c>
@@ -37347,9 +37166,8 @@
       <c r="EK130" s="4"/>
       <c r="EL130" s="4"/>
       <c r="EM130" s="4"/>
-      <c r="EN130" s="4"/>
     </row>
-    <row r="131" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B131" s="16" t="s">
         <v>151</v>
       </c>
@@ -37500,9 +37318,8 @@
       <c r="EK131" s="4"/>
       <c r="EL131" s="4"/>
       <c r="EM131" s="4"/>
-      <c r="EN131" s="4"/>
     </row>
-    <row r="132" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B132" s="16" t="s">
         <v>136</v>
       </c>
@@ -37653,9 +37470,8 @@
       <c r="EK132" s="4"/>
       <c r="EL132" s="4"/>
       <c r="EM132" s="4"/>
-      <c r="EN132" s="4"/>
     </row>
-    <row r="133" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B133" s="16" t="s">
         <v>137</v>
       </c>
@@ -37802,9 +37618,8 @@
       <c r="EK133" s="4"/>
       <c r="EL133" s="4"/>
       <c r="EM133" s="4"/>
-      <c r="EN133" s="4"/>
     </row>
-    <row r="134" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B134" s="16" t="s">
         <v>138</v>
       </c>
@@ -37949,9 +37764,8 @@
       <c r="EK134" s="4"/>
       <c r="EL134" s="4"/>
       <c r="EM134" s="4"/>
-      <c r="EN134" s="4"/>
     </row>
-    <row r="135" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B135" s="16" t="s">
         <v>139</v>
       </c>
@@ -38096,9 +37910,8 @@
       <c r="EK135" s="4"/>
       <c r="EL135" s="4"/>
       <c r="EM135" s="4"/>
-      <c r="EN135" s="4"/>
     </row>
-    <row r="136" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B136" s="16" t="s">
         <v>140</v>
       </c>
@@ -38243,9 +38056,8 @@
       <c r="EK136" s="4"/>
       <c r="EL136" s="4"/>
       <c r="EM136" s="4"/>
-      <c r="EN136" s="4"/>
     </row>
-    <row r="137" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A137" s="23" t="s">
         <v>176</v>
       </c>
@@ -38447,9 +38259,8 @@
       <c r="EK137" s="4"/>
       <c r="EL137" s="4"/>
       <c r="EM137" s="4"/>
-      <c r="EN137" s="4"/>
     </row>
-    <row r="138" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B138" s="16" t="s">
         <v>149</v>
       </c>
@@ -38594,9 +38405,8 @@
       <c r="EK138" s="4"/>
       <c r="EL138" s="4"/>
       <c r="EM138" s="4"/>
-      <c r="EN138" s="4"/>
     </row>
-    <row r="139" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B139" s="16" t="s">
         <v>150</v>
       </c>
@@ -38741,9 +38551,8 @@
       <c r="EK139" s="4"/>
       <c r="EL139" s="4"/>
       <c r="EM139" s="4"/>
-      <c r="EN139" s="4"/>
     </row>
-    <row r="140" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B140" s="16" t="s">
         <v>144</v>
       </c>
@@ -38888,9 +38697,8 @@
       <c r="EK140" s="4"/>
       <c r="EL140" s="4"/>
       <c r="EM140" s="4"/>
-      <c r="EN140" s="4"/>
     </row>
-    <row r="141" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B141" s="16" t="s">
         <v>152</v>
       </c>
@@ -39035,9 +38843,8 @@
       <c r="EK141" s="4"/>
       <c r="EL141" s="4"/>
       <c r="EM141" s="4"/>
-      <c r="EN141" s="4"/>
     </row>
-    <row r="142" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B142" s="16" t="s">
         <v>145</v>
       </c>
@@ -39182,9 +38989,8 @@
       <c r="EK142" s="4"/>
       <c r="EL142" s="4"/>
       <c r="EM142" s="4"/>
-      <c r="EN142" s="4"/>
     </row>
-    <row r="143" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B143" s="16" t="s">
         <v>146</v>
       </c>
@@ -39329,9 +39135,8 @@
       <c r="EK143" s="4"/>
       <c r="EL143" s="4"/>
       <c r="EM143" s="4"/>
-      <c r="EN143" s="4"/>
     </row>
-    <row r="144" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B144" s="16" t="s">
         <v>147</v>
       </c>
@@ -39476,9 +39281,8 @@
       <c r="EK144" s="4"/>
       <c r="EL144" s="4"/>
       <c r="EM144" s="4"/>
-      <c r="EN144" s="4"/>
     </row>
-    <row r="145" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B145" s="16" t="s">
         <v>148</v>
       </c>
@@ -39623,9 +39427,8 @@
       <c r="EK145" s="4"/>
       <c r="EL145" s="4"/>
       <c r="EM145" s="4"/>
-      <c r="EN145" s="4"/>
     </row>
-    <row r="146" spans="1:144" s="24" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:143" s="24" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A146" s="33" t="s">
         <v>0</v>
       </c>
@@ -39690,7 +39493,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="147" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A147" s="20" t="s">
         <v>274</v>
       </c>
@@ -39746,7 +39549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B148" s="14" t="s">
         <v>298</v>
       </c>
@@ -39799,7 +39602,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="149" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A149" s="20"/>
       <c r="B149" s="14" t="s">
         <v>297</v>
@@ -39817,7 +39620,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="150" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B150" s="14" t="s">
         <v>300</v>
       </c>
@@ -39834,7 +39637,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="151" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A151" s="20"/>
       <c r="B151" s="14" t="s">
         <v>296</v>
@@ -39846,7 +39649,7 @@
         <v>-308</v>
       </c>
     </row>
-    <row r="152" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B152" s="14" t="s">
         <v>299</v>
       </c>
@@ -39857,18 +39660,18 @@
         <v>-308</v>
       </c>
     </row>
-    <row r="153" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A153" s="20"/>
       <c r="B153" s="14" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="154" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B154" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="155" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A155" s="20"/>
       <c r="B155" s="14" t="s">
         <v>275</v>
@@ -39876,7 +39679,7 @@
       <c r="K155" s="35"/>
       <c r="L155" s="35"/>
     </row>
-    <row r="156" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
       <c r="B156" s="14" t="s">
         <v>283</v>
@@ -39884,7 +39687,7 @@
       <c r="K156" s="35"/>
       <c r="L156" s="35"/>
     </row>
-    <row r="157" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
       <c r="B157" s="14" t="s">
         <v>276</v>
@@ -39892,7 +39695,7 @@
       <c r="K157" s="35"/>
       <c r="L157" s="35"/>
     </row>
-    <row r="158" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A158" s="20"/>
       <c r="B158" s="14" t="s">
         <v>284</v>
@@ -39900,7 +39703,7 @@
       <c r="K158" s="35"/>
       <c r="L158" s="35"/>
     </row>
-    <row r="159" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A159" s="20"/>
       <c r="B159" s="14" t="s">
         <v>277</v>
@@ -39908,7 +39711,7 @@
       <c r="K159" s="35"/>
       <c r="L159" s="35"/>
     </row>
-    <row r="160" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A160" s="20"/>
       <c r="B160" s="14" t="s">
         <v>285</v>
